--- a/dataset/traders_lvl.xlsx
+++ b/dataset/traders_lvl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I331"/>
+  <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,7 +658,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0xf87b564f961b7889fa07f0994197c5229adf0905</t>
+          <t>0x153f2fde8dd32536337d8810f0245235df86d394</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -672,15 +672,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>451761855.7270128</v>
+        <v>394009762.4110657</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>162</v>
+        <v>382</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-07-30</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -693,7 +693,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0x153f2fde8dd32536337d8810f0245235df86d394</t>
+          <t>0xf8483031153123bbc5c225caa0b6eb17aa1edbb4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -707,15 +707,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>394009762.4110657</v>
+        <v>366714971.655717</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>382</v>
+        <v>471</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2023-07-30</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -728,7 +728,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0xf8483031153123bbc5c225caa0b6eb17aa1edbb4</t>
+          <t>0xc5e257b711a96d1e20335183feb734803ea84e2f</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>366714971.6557172</v>
+        <v>222998841.9269954</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>471</v>
+        <v>391</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0x31e015e65b5fb16b8f3f415a435da19af5b3efd4</t>
+          <t>0xc202a99c8b8ef80502876515e559459db02c7971</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -777,15 +777,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>264017755.6144603</v>
+        <v>196700003.1873432</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>681</v>
+        <v>965</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2023-07-30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -798,7 +798,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0xc5e257b711a96d1e20335183feb734803ea84e2f</t>
+          <t>0x9454f17a6bcc36cfbc8a07011b33dafcebe4050b</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -812,15 +812,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>222998841.9269952</v>
+        <v>112147608.2836899</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>391</v>
+        <v>2025</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -833,7 +833,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0xc202a99c8b8ef80502876515e559459db02c7971</t>
+          <t>0x9291abdaf3105f5890fb5974b8c1e44f378c4733</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -847,15 +847,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>196700003.1873432</v>
+        <v>110401691.7125684</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>965</v>
+        <v>1669</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2023-07-30</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -868,7 +868,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0xb16ff38a826469c61fbeaa4f05dc501b81046a9d</t>
+          <t>0x333a34c0589a301f4e6df3d00df2912922e7278c</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -882,15 +882,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>158179282.4568533</v>
+        <v>88564984.78691235</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2023-07-17</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -903,7 +903,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0x9291abdaf3105f5890fb5974b8c1e44f378c4733</t>
+          <t>0x341efbe6bf067edf58fd6314478bc5776945083a</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -917,15 +917,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>110401691.7125682</v>
+        <v>81368415.14686981</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>1669</v>
+        <v>21</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -938,7 +938,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0x333a34c0589a301f4e6df3d00df2912922e7278c</t>
+          <t>0x80b3d7735bbaa17b27d45acc17c3c233c32f4a59</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -952,15 +952,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>88564984.78691235</v>
+        <v>72727258.11910431</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>52</v>
+        <v>364</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-09-16</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -973,7 +973,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0x341efbe6bf067edf58fd6314478bc5776945083a</t>
+          <t>0x951e60d0d5594956b47810d29428733a92188888</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -987,15 +987,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>81368415.14686981</v>
+        <v>62655234.28015783</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1008,7 +1008,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0x80b3d7735bbaa17b27d45acc17c3c233c32f4a59</t>
+          <t>0xd93497c4659276569f49a32a7abd0691f5ac4467</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1022,15 +1022,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>72727258.11910431</v>
+        <v>61861390.71942898</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>364</v>
+        <v>1301</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1043,7 +1043,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0x00bd95327548916b9dbd10b35ef268595dc0a0d2</t>
+          <t>0xcad0195c266e8d784ec7821779c021de01aa40f0</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1057,15 +1057,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>69236627.87019818</v>
+        <v>56111074.28672473</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>53</v>
+        <v>503</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0x9454f17a6bcc36cfbc8a07011b33dafcebe4050b</t>
+          <t>0x16b00db74167b7469dda63b674ca9a3b1b70c439</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1092,15 +1092,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>64855503.71970108</v>
+        <v>55248830.41280083</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>1551</v>
+        <v>834</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1113,7 +1113,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0x951e60d0d5594956b47810d29428733a92188888</t>
+          <t>0xdc35505fbf46605f61014b9b2ac96826c47017d5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1127,15 +1127,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>62655234.28015783</v>
+        <v>51599917.68913963</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>200</v>
+        <v>3572</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-10-26</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0xd93497c4659276569f49a32a7abd0691f5ac4467</t>
+          <t>0xd1fbf468e977d12356ea8762313707933bd73c12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1162,15 +1162,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>61852686.4561317</v>
+        <v>46176551.34589616</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>1299</v>
+        <v>536</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2023-12-09</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0xcad0195c266e8d784ec7821779c021de01aa40f0</t>
+          <t>0x1c5d638eae0796bfe9b830462f11d37c9052e99b</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1197,15 +1197,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>56111074.28672468</v>
+        <v>36537817.86002814</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>503</v>
+        <v>160</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1218,7 +1218,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0xc877f7c4c1605692226888f884a823cfb8eb11bd</t>
+          <t>0xce5452e8b6334071e207ae5c300ed12df7ecbf9e</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1232,15 +1232,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>53519439.05147544</v>
+        <v>29116179.86068853</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>132</v>
+        <v>1452</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1253,7 +1253,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0xdc35505fbf46605f61014b9b2ac96826c47017d5</t>
+          <t>0x09460d2e03502e39352f1311b3e7b00aff0f23da</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1267,15 +1267,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>51599917.68913966</v>
+        <v>25513597.91987545</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>3572</v>
+        <v>306</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1288,7 +1288,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0xd1fbf468e977d12356ea8762313707933bd73c12</t>
+          <t>0xf867569cb23121eff71f6947b97c249b3128b8f8</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1302,15 +1302,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>46176551.34589616</v>
+        <v>24754435.04816705</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>536</v>
+        <v>231</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2023-12-09</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1323,7 +1323,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0x1c5d638eae0796bfe9b830462f11d37c9052e99b</t>
+          <t>0xb08730283c6d142c2beb3daf13f1033fd7491b8a</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1337,15 +1337,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>36537817.86002814</v>
+        <v>22020221.73852241</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-12-27</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1358,7 +1358,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0xce5452e8b6334071e207ae5c300ed12df7ecbf9e</t>
+          <t>0x484571309d6a9e9285fc0b4634acd43bd0ba97d8</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1372,15 +1372,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>29116179.86068857</v>
+        <v>21910171.05209577</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>1452</v>
+        <v>529</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1393,7 +1393,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0x16b00db74167b7469dda63b674ca9a3b1b70c439</t>
+          <t>0x1d81a153ae5cc64fdf8e87a4b490904d8f50efcf</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1407,15 +1407,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25060704.17495305</v>
+        <v>21610186.95081593</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1428,7 +1428,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0x09460d2e03502e39352f1311b3e7b00aff0f23da</t>
+          <t>0x4cf80ec7f084619863ed4fcd47e019bcd09b7fec</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1442,15 +1442,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>25059006.67861343</v>
+        <v>21170459.09229004</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>302</v>
+        <v>34</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0xf867569cb23121eff71f6947b97c249b3128b8f8</t>
+          <t>0xf7d48932f456e98d2ff824e38830e8f59de13f4a</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1477,15 +1477,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>24754435.04816705</v>
+        <v>19946365.28367036</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-08-08</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1498,7 +1498,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0xb08730283c6d142c2beb3daf13f1033fd7491b8a</t>
+          <t>0xf2b1214a6e6bf81884aeadb7291d4a5d4631a6b6</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1512,15 +1512,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>22020221.73852241</v>
+        <v>19834694.10515553</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1533,7 +1533,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0x484571309d6a9e9285fc0b4634acd43bd0ba97d8</t>
+          <t>0xb87f9e18d24cda96e69f088cc7f7735b1e68d7f3</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1547,15 +1547,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21910171.05209574</v>
+        <v>18723869.56750795</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>529</v>
+        <v>16</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0x1d81a153ae5cc64fdf8e87a4b490904d8f50efcf</t>
+          <t>0x677988c1d2d3a8a19467ec67a2b7ee55a05ad9d8</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1582,15 +1582,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>21610186.95081594</v>
+        <v>14312724.23489819</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>483</v>
+        <v>201</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1603,7 +1603,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0x4cf80ec7f084619863ed4fcd47e019bcd09b7fec</t>
+          <t>0x0e852006694164cd2b0c1e1cdd33a9d0d6ffb370</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1617,15 +1617,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>21170459.09229004</v>
+        <v>13600029.6156958</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -1638,7 +1638,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0xf7d48932f456e98d2ff824e38830e8f59de13f4a</t>
+          <t>0x2f63fef950f5834fadaa07472e6ae9f29818867f</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1652,15 +1652,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>19946365.28367036</v>
+        <v>11921219.04554685</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>47</v>
+        <v>808</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2023-08-08</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1673,7 +1673,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0xf2b1214a6e6bf81884aeadb7291d4a5d4631a6b6</t>
+          <t>0x91fb66f8bd25c44996599676e510659e7e408e01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1687,11 +1687,11 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>19834694.10515552</v>
+        <v>10960342.8956251</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>388</v>
+        <v>311</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0xb87f9e18d24cda96e69f088cc7f7735b1e68d7f3</t>
+          <t>0xc3992fc601810ec6e5e62cbe845cada58a917d71</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1722,15 +1722,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>18723869.56750795</v>
+        <v>10767004.59185602</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -1743,7 +1743,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0x677988c1d2d3a8a19467ec67a2b7ee55a05ad9d8</t>
+          <t>0x87cb947d88e9ae755bb62d6aa39e57f0f1608114</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1757,15 +1757,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>14169926.92556031</v>
+        <v>10446440.20162859</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>199</v>
+        <v>956</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -1778,7 +1778,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0x0e852006694164cd2b0c1e1cdd33a9d0d6ffb370</t>
+          <t>0xa3cc2d84296bb93234e1e3929ac66cd9a62573c3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>13600029.6156958</v>
+        <v>10146180.11611753</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>86</v>
+        <v>601</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1813,7 +1813,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0x91fb66f8bd25c44996599676e510659e7e408e01</t>
+          <t>0x00025b6e165654bc0931b2f29a66be4852e6011b</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1827,15 +1827,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10960342.89562509</v>
+        <v>9447250.667830035</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -1848,7 +1848,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0xc3992fc601810ec6e5e62cbe845cada58a917d71</t>
+          <t>0x96794f03b3114f50b892b0dec79d753658c931ee</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1862,15 +1862,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10767004.59185602</v>
+        <v>9365712.590815416</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>12</v>
+        <v>412</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -1883,7 +1883,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0x87cb947d88e9ae755bb62d6aa39e57f0f1608114</t>
+          <t>0x9906cd623dbee156d8deee923733277f0e0ce196</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1897,15 +1897,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10446440.20162859</v>
+        <v>9101072.106685627</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>956</v>
+        <v>897</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -1918,7 +1918,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0x2f63fef950f5834fadaa07472e6ae9f29818867f</t>
+          <t>0x46dd1bf5bd61513689f88706d8adceebf530e5ee</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1932,15 +1932,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10366758.51999568</v>
+        <v>9070146.627449701</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>714</v>
+        <v>58</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -1953,7 +1953,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0xa3cc2d84296bb93234e1e3929ac66cd9a62573c3</t>
+          <t>0x188c1b18fbdd53d1975dd2d8d5ee9b5a5bd8f66e</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1967,15 +1967,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10146180.11611753</v>
+        <v>9021466.166895498</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>601</v>
+        <v>16</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -1988,7 +1988,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0x96794f03b3114f50b892b0dec79d753658c931ee</t>
+          <t>0x00000000000e8716b4e2d12400a01474cdfad760</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2002,15 +2002,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9365712.59081541</v>
+        <v>7527903.058953378</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>412</v>
+        <v>1900</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2023,7 +2023,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0x00025b6e165654bc0931b2f29a66be4852e6011b</t>
+          <t>0xe493d64dc68edae2a14fa67c6fc34e2a1566313b</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2037,15 +2037,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>9298137.96941212</v>
+        <v>7439378.09573337</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>242</v>
+        <v>552</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2058,7 +2058,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0x46dd1bf5bd61513689f88706d8adceebf530e5ee</t>
+          <t>0xea63dfd1e4da2a9ca9f1a43c7682ebca496cd3be</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2072,15 +2072,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>9070146.627449702</v>
+        <v>7281266.976691828</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>58</v>
+        <v>458</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -2093,7 +2093,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0x188c1b18fbdd53d1975dd2d8d5ee9b5a5bd8f66e</t>
+          <t>0xfb69f6bf45d5f2b42cb565a20b29c810f71ebc6b</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2107,15 +2107,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>9021466.166895498</v>
+        <v>7031345.708495866</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -2128,7 +2128,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0x00000000000e8716b4e2d12400a01474cdfad760</t>
+          <t>0xefb6afbd3967487a86d8e09330a8f0af91c39a82</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2142,15 +2142,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>7527903.058953372</v>
+        <v>6703217.951408816</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>1900</v>
+        <v>481</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -2163,7 +2163,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0xe493d64dc68edae2a14fa67c6fc34e2a1566313b</t>
+          <t>0x88c3923d74cf0f13adf63ef436ca9144d22d17a1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2177,15 +2177,15 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>7439378.09573337</v>
+        <v>6022652.169747964</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>552</v>
+        <v>32</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -2198,7 +2198,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0x51a4b0d25fd704f6f431e6ea3b71cbd7e3feaee0</t>
+          <t>0xd5ffa746ec443ff8bb32c899726c3d563f796ae5</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2212,15 +2212,15 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>7299850.791529829</v>
+        <v>5843165.985846027</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2023-07-17</t>
+          <t>2023-11-24</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0xfb69f6bf45d5f2b42cb565a20b29c810f71ebc6b</t>
+          <t>0xd600002f20a700c10073a1bc263f00220042707f</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2247,15 +2247,15 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>7031345.708495868</v>
+        <v>5630322.718658766</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>283</v>
+        <v>4</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -2268,7 +2268,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0xefb6afbd3967487a86d8e09330a8f0af91c39a82</t>
+          <t>0x2621f728e9ff509e263967c87d0ab1b525a01147</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2282,15 +2282,15 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>6683535.110167583</v>
+        <v>5129892.991811107</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>474</v>
+        <v>133</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -2303,7 +2303,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0x88c3923d74cf0f13adf63ef436ca9144d22d17a1</t>
+          <t>0xff506803d2d688c253d1d86d61a17469b1f89fcd</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2317,15 +2317,15 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>6022652.169747964</v>
+        <v>4917051.358333153</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -2338,7 +2338,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0x9c522e518bed1a71b5d465614bc64dd512d8f2fc</t>
+          <t>0x2d1eee087fd8f6d82f4b3bfd8c82e7393545a30f</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2352,15 +2352,15 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6001270.909498231</v>
+        <v>4742777.246206217</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2023-07-11</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -2373,7 +2373,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0xea63dfd1e4da2a9ca9f1a43c7682ebca496cd3be</t>
+          <t>0xdcd3f402043d3c708013de78f5d79d66950917bc</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2387,15 +2387,15 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>5986158.200008092</v>
+        <v>3891522.058500912</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>415</v>
+        <v>70</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2408,7 +2408,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0xd5ffa746ec443ff8bb32c899726c3d563f796ae5</t>
+          <t>0xb82de7c797e4efd8b79fb42839b9624b17483d5a</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2422,15 +2422,15 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>5843165.985846027</v>
+        <v>3853315.539729772</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2023-11-24</t>
+          <t>2024-01-14</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -2443,7 +2443,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0xd600002f20a700c10073a1bc263f00220042707f</t>
+          <t>0x1d90aba0b0bd1882ee6890fcbf6df1d3e040d3fd</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>5630322.718658766</v>
+        <v>3852688.506171613</v>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2023-12-06</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -2478,7 +2478,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0xaec661a58928e60f52976f1886cd27845789d90f</t>
+          <t>0xc1eab99c6f2cd06ad1c60e5b642be32c3c874613</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2492,15 +2492,15 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>5272672.112057073</v>
+        <v>3781617.186733632</v>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-12-03</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -2513,7 +2513,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0x2621f728e9ff509e263967c87d0ab1b525a01147</t>
+          <t>0xfdba59421990f5c0f8ab066ca33f99ac4995d8fc</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2527,15 +2527,15 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>5129892.991811105</v>
+        <v>3661995.997679897</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -2548,7 +2548,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0xc335f6ac96a49cc997a3f2de44d7d407197f0de6</t>
+          <t>0x07eac6dc2af876d2f0402f6804cc6ceaa0cd20cd</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2562,15 +2562,15 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>4971841.560851459</v>
+        <v>3518117.595130949</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -2583,7 +2583,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0xff506803d2d688c253d1d86d61a17469b1f89fcd</t>
+          <t>0x579435914e1d9fc5eac3ab6c15cf6eb7cbc09669</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2597,15 +2597,15 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>4917051.358333153</v>
+        <v>3444635.81399943</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>101</v>
+        <v>358</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -2618,7 +2618,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0x9906cd623dbee156d8deee923733277f0e0ce196</t>
+          <t>0x74538baab379a1a777166c27de723a2eaf4f08ce</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2632,15 +2632,15 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4762189.296103186</v>
+        <v>3231818.436481094</v>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
-        <v>630</v>
+        <v>102</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -2653,7 +2653,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0x2d1eee087fd8f6d82f4b3bfd8c82e7393545a30f</t>
+          <t>0xabc0b28c2fc09aa664be2a82563cbf6dcc4ebf46</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2667,15 +2667,15 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4742777.246206217</v>
+        <v>2871156.783101108</v>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -2688,7 +2688,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0xdcd3f402043d3c708013de78f5d79d66950917bc</t>
+          <t>0xaba56c9a88c581076851d1eb77201ed28df7e576</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2702,15 +2702,15 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3891522.058500912</v>
+        <v>2641603.13070943</v>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -2723,7 +2723,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0x1d90aba0b0bd1882ee6890fcbf6df1d3e040d3fd</t>
+          <t>0xaff88cd7854ba493db885b72ab355c22c7fa96af</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2737,15 +2737,15 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3852688.506171613</v>
+        <v>2532538.096002499</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
-        <v>4</v>
+        <v>287</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -2758,7 +2758,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0xc1eab99c6f2cd06ad1c60e5b642be32c3c874613</t>
+          <t>0xf379ea290a8a835e944087bc7cee327758c39657</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2772,15 +2772,15 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3781617.186733632</v>
+        <v>2520222.577883899</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2023-12-03</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -2793,7 +2793,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0xfdba59421990f5c0f8ab066ca33f99ac4995d8fc</t>
+          <t>0xc388802453eaae2c42504621eb9c83400049c23e</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2807,15 +2807,15 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3661995.997679897</v>
+        <v>2504977.719729781</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -2828,7 +2828,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0x07eac6dc2af876d2f0402f6804cc6ceaa0cd20cd</t>
+          <t>0x33d84d2a77d850b13053a1496d25cc58b145aa13</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2842,15 +2842,15 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3518117.595130949</v>
+        <v>2453647.935478</v>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -2863,7 +2863,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0xf60b822d9d07ae4f3dd31e675552329c465477a3</t>
+          <t>0xe3330e960ecb810d0ee32ae1204dca55adc1b37a</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2877,15 +2877,15 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3457047.610662175</v>
+        <v>2447303.446960088</v>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
-        <v>558</v>
+        <v>31</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>2024-01-14</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -2898,7 +2898,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0x579435914e1d9fc5eac3ab6c15cf6eb7cbc09669</t>
+          <t>0x288145ae8d3a315c3e2a5b541bb3316bcd955d14</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3444635.81399943</v>
+        <v>2438454.369743498</v>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="n">
-        <v>358</v>
+        <v>90</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -2933,7 +2933,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0x05e2461c8c10138aee241268f28de6003d3dbadb</t>
+          <t>0x219dd26a39dbe8366948a647e98e62dbd3d3318e</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2947,15 +2947,15 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3420592.754394369</v>
+        <v>2393348.143223456</v>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2023-07-17</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -2968,7 +2968,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0x74538baab379a1a777166c27de723a2eaf4f08ce</t>
+          <t>0x09bf23d3e61da657ebd98e5f687c6755a20cd7dd</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2982,15 +2982,15 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2952749.504611308</v>
+        <v>2384956.107727956</v>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -3003,7 +3003,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0xabc0b28c2fc09aa664be2a82563cbf6dcc4ebf46</t>
+          <t>0x71b9b62c0b26b097d43bb30342149b886f1ea005</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3017,15 +3017,15 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2871156.783101108</v>
+        <v>2381721.664388074</v>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -3038,7 +3038,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0xaba56c9a88c581076851d1eb77201ed28df7e576</t>
+          <t>0x9180981034364f683ea25bcce0cff5e03a595bef</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3052,15 +3052,15 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2641603.13070943</v>
+        <v>2306470.462918358</v>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -3073,7 +3073,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0xaff88cd7854ba493db885b72ab355c22c7fa96af</t>
+          <t>0x42a1ef5ffdaf134eb958814e443db9c244375c8f</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3087,15 +3087,15 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2532538.0960025</v>
+        <v>2270224.636504428</v>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-12-29</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -3108,7 +3108,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0xf379ea290a8a835e944087bc7cee327758c39657</t>
+          <t>0x3bffb814791a4e363a0839720e73765f8c19e7af</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2520222.577883899</v>
+        <v>2218235.034451468</v>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-11-16</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -3143,7 +3143,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0x288145ae8d3a315c3e2a5b541bb3316bcd955d14</t>
+          <t>0xc90af86ad349698e7573dead09e9ee90ab27a512</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3157,15 +3157,15 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2438454.369743498</v>
+        <v>2144942.315109984</v>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="n">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -3178,7 +3178,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0x71b9b62c0b26b097d43bb30342149b886f1ea005</t>
+          <t>0x64ca9f8c296b733139304f8ffd04d361322de2f3</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3192,15 +3192,15 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2381721.664388075</v>
+        <v>2094848.022487144</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -3213,7 +3213,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0x9180981034364f683ea25bcce0cff5e03a595bef</t>
+          <t>0xae5288ebd66b4884ddd58199d4187261c59cd919</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3227,15 +3227,15 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2306470.462918358</v>
+        <v>1974385.958799792</v>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -3248,7 +3248,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0x42a1ef5ffdaf134eb958814e443db9c244375c8f</t>
+          <t>0x23ebcd701fd92867235aeb0174b7c444b9b2b3ad</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3262,15 +3262,15 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2270224.636504428</v>
+        <v>1872904.207717794</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
-        <v>36</v>
+        <v>374</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2023-12-29</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -3283,7 +3283,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0x3bffb814791a4e363a0839720e73765f8c19e7af</t>
+          <t>0x57b058d939da2ebb545184eb6e40be43b67f0aaa</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3297,15 +3297,15 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2218235.034451468</v>
+        <v>1694233.008423014</v>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -3318,7 +3318,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0xb82de7c797e4efd8b79fb42839b9624b17483d5a</t>
+          <t>0x28736fa7ee306dc4efcee407881c80a25b82853b</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3332,15 +3332,15 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2212068.003858997</v>
+        <v>1693136.67789248</v>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -3353,7 +3353,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0xc90af86ad349698e7573dead09e9ee90ab27a512</t>
+          <t>0xd9df4eccdd3fd6d280c76927589f7c69b74f6358</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3367,15 +3367,15 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2144942.315109984</v>
+        <v>1638003.668146264</v>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2024-01-14</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0x64ca9f8c296b733139304f8ffd04d361322de2f3</t>
+          <t>0x9a59c1ee39d1b4d8890926a6671230b5441d7184</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3402,15 +3402,15 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2094848.022487144</v>
+        <v>1541779.730333148</v>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -3423,7 +3423,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0x33d84d2a77d850b13053a1496d25cc58b145aa13</t>
+          <t>0xfafab8c482274f79b3418c2764e1a7a95e7a42a9</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3437,15 +3437,15 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2087538.3406259</v>
+        <v>1540709.767129276</v>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -3458,7 +3458,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0x219dd26a39dbe8366948a647e98e62dbd3d3318e</t>
+          <t>0xb9bc35e0b7c136c2bc2554618a28c32f3ae68881</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3472,15 +3472,15 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2023019.965137159</v>
+        <v>1504743.393510266</v>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2023-12-22</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -3493,7 +3493,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0x475d2a967b24afbbbfab36d71388c979601956dc</t>
+          <t>0x686c83318ecff513056eb8fb7bab617eba2e5608</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3507,15 +3507,15 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1982082.022947434</v>
+        <v>1480081.148441227</v>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2023-07-17</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0xae5288ebd66b4884ddd58199d4187261c59cd919</t>
+          <t>0x6827ab5b01b02a594d9d36f2ffa787f6c7c5a72d</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3542,15 +3542,15 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1974385.958799792</v>
+        <v>1432665.747296398</v>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="n">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -3563,7 +3563,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0x23ebcd701fd92867235aeb0174b7c444b9b2b3ad</t>
+          <t>0xbc67a8193c37ec5f3c0eec0522c08328053f0cbc</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3577,15 +3577,15 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1872904.207717794</v>
+        <v>1398684.006541929</v>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
-        <v>374</v>
+        <v>9</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -3598,7 +3598,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0xc388802453eaae2c42504621eb9c83400049c23e</t>
+          <t>0x2e956876e5c407bf7dc91e2d3630bedd81fd26e9</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3612,15 +3612,15 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1801176.460422795</v>
+        <v>1354216.70149967</v>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -3633,7 +3633,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0x57b058d939da2ebb545184eb6e40be43b67f0aaa</t>
+          <t>0x11f748519047ebe78f7fbb7361ac82b1c44e48c2</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3647,15 +3647,15 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1694233.008423014</v>
+        <v>1319686.526936506</v>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -3668,7 +3668,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0xd9df4eccdd3fd6d280c76927589f7c69b74f6358</t>
+          <t>0x3c0e8db25cc04735bcd5fee068f91182e7352a7a</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1598537.259276206</v>
+        <v>1304815.297783781</v>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -3703,7 +3703,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0x79269c79e84ad6d9ed1b913e1fb30b26c8384629</t>
+          <t>0xfe4ca6b5717bb35b805301fa25724e3acf2a4098</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3717,15 +3717,15 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1562812.858530116</v>
+        <v>1297233.902179231</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -3738,7 +3738,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0x9a59c1ee39d1b4d8890926a6671230b5441d7184</t>
+          <t>0x441ccc7891d55efd804d909281de8889317a2ab9</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3752,15 +3752,15 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1541779.730333148</v>
+        <v>1283119.494448632</v>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -3773,7 +3773,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0xfafab8c482274f79b3418c2764e1a7a95e7a42a9</t>
+          <t>0x984895138a2f2df973f7bf86e75a407fc4761689</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3787,15 +3787,15 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1540709.767129276</v>
+        <v>1225520.91720951</v>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-11-16</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -3808,7 +3808,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0xb9bc35e0b7c136c2bc2554618a28c32f3ae68881</t>
+          <t>0x0a05c7da7bb06a81656e5f40ce4d9b85f891fc3e</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1504743.393510266</v>
+        <v>1203104.660582053</v>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -3843,7 +3843,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0x686c83318ecff513056eb8fb7bab617eba2e5608</t>
+          <t>0x417281911e96e0220e349e28bb60d850396580ad</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3857,15 +3857,15 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1480081.148441227</v>
+        <v>1105771.528707204</v>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="n">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -3878,7 +3878,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0x6827ab5b01b02a594d9d36f2ffa787f6c7c5a72d</t>
+          <t>0xc38f858af24ec67ddb72a9c06ac17d31a1186dce</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3892,15 +3892,15 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1432665.747296398</v>
+        <v>1051180.477515412</v>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -3913,7 +3913,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0xbc67a8193c37ec5f3c0eec0522c08328053f0cbc</t>
+          <t>0x1733a52e5b33f85e2cc5ff81f6983e785d8cce3d</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3927,15 +3927,15 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1398684.006541929</v>
+        <v>948331.2305847305</v>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -3948,7 +3948,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0x2e956876e5c407bf7dc91e2d3630bedd81fd26e9</t>
+          <t>0x437e790f8ecb8a1ca83d0d5da04f2ad3a9004443</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3962,15 +3962,15 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1354216.701499671</v>
+        <v>946475.3622989591</v>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -3983,7 +3983,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0x11f748519047ebe78f7fbb7361ac82b1c44e48c2</t>
+          <t>0xb6a7ddde101a440d224860871dfc20be9f4c7330</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3997,15 +3997,15 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1319686.526936506</v>
+        <v>932938.9660731347</v>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0x3c0e8db25cc04735bcd5fee068f91182e7352a7a</t>
+          <t>0x40e1ca7b92dcebd2bc6e08e14f1e65ebdc8e492d</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4032,15 +4032,15 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1304815.297783781</v>
+        <v>908544.5105023808</v>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-10-21</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -4053,7 +4053,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0xfe4ca6b5717bb35b805301fa25724e3acf2a4098</t>
+          <t>0xa9b7a144260891c88f6ffb5b7d353ec39c6638a0</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4067,15 +4067,15 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1297233.902179231</v>
+        <v>878164.4085023942</v>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -4088,7 +4088,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0x441ccc7891d55efd804d909281de8889317a2ab9</t>
+          <t>0xd785558a15c67b6201d84ac586b219bd26e7dab5</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4102,11 +4102,11 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1283119.494448633</v>
+        <v>876888.5559527897</v>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0x09bf23d3e61da657ebd98e5f687c6755a20cd7dd</t>
+          <t>0xbaf29dd60c5554a6f96f654588950f93b0a770af</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4137,15 +4137,15 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1255135.953426592</v>
+        <v>862444.0725853539</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-10-21</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -4158,7 +4158,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0x984895138a2f2df973f7bf86e75a407fc4761689</t>
+          <t>0xd31e9aa2db47809dfc6ffdf05e46cfbc1aa5f468</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4172,15 +4172,15 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1225520.91720951</v>
+        <v>860233.476612195</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
@@ -4193,7 +4193,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0x0a05c7da7bb06a81656e5f40ce4d9b85f891fc3e</t>
+          <t>0x72df34fb807a17371c19824d51b697e295ccccc6</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4207,15 +4207,15 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1203104.660582053</v>
+        <v>838556.9542132658</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -4228,7 +4228,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0x417281911e96e0220e349e28bb60d850396580ad</t>
+          <t>0x55d3ab24f818f37567acbc4b422a39f263f5fa39</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4242,15 +4242,15 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1105771.528707204</v>
+        <v>804260.8802691692</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2023-10-20</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0xc38f858af24ec67ddb72a9c06ac17d31a1186dce</t>
+          <t>0x9385d9c4cadcddc5f0fd0d40225e79c9b1a007e3</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4277,15 +4277,15 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1051180.477515412</v>
+        <v>796743.0747829645</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-10-25</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -4298,7 +4298,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>0x437e790f8ecb8a1ca83d0d5da04f2ad3a9004443</t>
+          <t>0x01e55d3a071df8645050cd3ed586f9f765d9e0ce</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4312,15 +4312,15 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>946475.3622989591</v>
+        <v>773264.6139818642</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-08-05</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -4333,7 +4333,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0xb6a7ddde101a440d224860871dfc20be9f4c7330</t>
+          <t>0xc7d61a0f78902538925a71e2099036d7f4eb4535</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4347,15 +4347,15 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>932938.9660731344</v>
+        <v>745385.7948152339</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -4368,7 +4368,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0x40e1ca7b92dcebd2bc6e08e14f1e65ebdc8e492d</t>
+          <t>0x8afd6db86a54b425f0b7ab17badd6111e8e3fa31</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4382,15 +4382,15 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>908544.5105023809</v>
+        <v>704109.0591098637</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2023-10-21</t>
+          <t>2023-09-10</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -4403,7 +4403,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0xa9b7a144260891c88f6ffb5b7d353ec39c6638a0</t>
+          <t>0x6a5f44d24dca8417db339203d9e07d23321f030b</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4417,15 +4417,15 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>878164.4085023938</v>
+        <v>693530.9484391439</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-12-23</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -4438,7 +4438,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0xd785558a15c67b6201d84ac586b219bd26e7dab5</t>
+          <t>0x7194361efbbf32cdc1499816b4ea37dfae752e7a</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4452,15 +4452,15 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>876888.55595279</v>
+        <v>674592.8278462675</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -4473,7 +4473,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0xbaf29dd60c5554a6f96f654588950f93b0a770af</t>
+          <t>0xc07c56e8df0ec6e82d38f708037df9c8700891bd</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4487,15 +4487,15 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>862444.0725853539</v>
+        <v>669136.6806689829</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2023-10-21</t>
+          <t>2023-07-30</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -4508,7 +4508,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>0x72df34fb807a17371c19824d51b697e295ccccc6</t>
+          <t>0xd7c443e9960c55fa217a5ac9564f10a58fc87551</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4522,15 +4522,15 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>838556.9542132658</v>
+        <v>653353.7037248624</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>8</v>
+        <v>354</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-12-02</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0x55d3ab24f818f37567acbc4b422a39f263f5fa39</t>
+          <t>0x2597c10df9e712c73925cf56d531e39a95309086</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4557,15 +4557,15 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>804260.8802691691</v>
+        <v>618571.5897730307</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2023-10-20</t>
+          <t>2023-12-24</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
@@ -4578,7 +4578,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0x7f36b3c689ef012ce709aeb5333a71b116834d12</t>
+          <t>0x1ccd5c3feafdf0f8f213cb715a3d58017d81a3c5</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4592,15 +4592,15 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>796966.6999488638</v>
+        <v>592653.6119499146</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2023-07-17</t>
+          <t>2023-09-10</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -4613,7 +4613,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>0x9385d9c4cadcddc5f0fd0d40225e79c9b1a007e3</t>
+          <t>0xe432c5c72312c4eb69ca1b5009a2fb0a67633f6d</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4627,15 +4627,15 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>796743.0747829644</v>
+        <v>591359.5517974334</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
@@ -4648,7 +4648,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>0x01e55d3a071df8645050cd3ed586f9f765d9e0ce</t>
+          <t>0x42135eed1339759aefae8401c57bcd50e3eadc61</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4662,15 +4662,15 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>773264.6139818642</v>
+        <v>577838.5659567094</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2023-08-05</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
@@ -4683,7 +4683,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0xc7d61a0f78902538925a71e2099036d7f4eb4535</t>
+          <t>0x1cfa6b22788a528698c3371b1f96d0afd31097f0</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4697,15 +4697,15 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>745385.7948152339</v>
+        <v>555023.6765887381</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
@@ -4718,7 +4718,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>0x8afd6db86a54b425f0b7ab17badd6111e8e3fa31</t>
+          <t>0xcda458e31eede9bae162eff222f1c84d784a2720</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4732,15 +4732,15 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>704109.0591098637</v>
+        <v>541510.1341594867</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
@@ -4753,7 +4753,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>0x031b824383aa19398eec5cec7330a5ccaeb9d184</t>
+          <t>0xcd9b041e2ddc83f465bfef63c50a3c88ad2d7d75</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4767,15 +4767,15 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>702666.6129402064</v>
+        <v>538456.624747271</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-10-25</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
@@ -4788,7 +4788,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>0x6a5f44d24dca8417db339203d9e07d23321f030b</t>
+          <t>0x0852dba413446b2fd8cc0e45c96b7f226b09e992</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4802,15 +4802,15 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>693530.9484391439</v>
+        <v>532988.5334441243</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="n">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2023-12-23</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -4823,7 +4823,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>0x0d9053c00bb6398a766c07bb662c766be6a50678</t>
+          <t>0x6c57141535ef42ee1ce9fdca57d4a81929556c0b</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4837,15 +4837,15 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>676676.8870998838</v>
+        <v>525134.047326758</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2023-07-17</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
@@ -4858,7 +4858,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>0x7194361efbbf32cdc1499816b4ea37dfae752e7a</t>
+          <t>0x35125efdbbb6e2f031f789e28324be8643e6caca</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4872,15 +4872,15 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>674592.8278462675</v>
+        <v>510607.2545434866</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0xc07c56e8df0ec6e82d38f708037df9c8700891bd</t>
+          <t>0x00000000007cee88e01241c9db0a02b859db5b52</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4907,15 +4907,15 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>669136.6806689829</v>
+        <v>495204.008443746</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
-        <v>27</v>
+        <v>594</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2023-07-30</t>
+          <t>2023-12-25</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -4928,7 +4928,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0xd7c443e9960c55fa217a5ac9564f10a58fc87551</t>
+          <t>0xe4ae1a2c64bf7f522c7526d4884ac28b4fdface8</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4942,15 +4942,15 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>653353.7037248624</v>
+        <v>469564.2219761604</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
-        <v>354</v>
+        <v>34</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2023-12-02</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
@@ -4963,7 +4963,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>0x2597c10df9e712c73925cf56d531e39a95309086</t>
+          <t>0x723b43b6dc19ce1fbf2aaa4402cd05eb6c38a1a5</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4977,15 +4977,15 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>618571.5897730307</v>
+        <v>468643.8807479066</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2023-12-24</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
@@ -4998,7 +4998,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>0x1ccd5c3feafdf0f8f213cb715a3d58017d81a3c5</t>
+          <t>0xe805535dbae7529601cce37ba35ac1d5f65e9206</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>592653.6119499146</v>
+        <v>468204.5517192947</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
@@ -5033,7 +5033,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>0xe432c5c72312c4eb69ca1b5009a2fb0a67633f6d</t>
+          <t>0xd9f80cb81164163a90745477ce1b2befb246a33f</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5047,15 +5047,15 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>591359.5517974331</v>
+        <v>466986.2394707312</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-10-20</t>
         </is>
       </c>
       <c r="H132" t="inlineStr"/>
@@ -5068,7 +5068,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>0xebe6cc6820a76705b6654fdd1254256dcd54f1df</t>
+          <t>0x30bb66154747d706826588663fb52b60cbc3b57c</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5082,15 +5082,15 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>584377.7647400858</v>
+        <v>464951.5448815862</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
@@ -5103,7 +5103,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>0x1cfa6b22788a528698c3371b1f96d0afd31097f0</t>
+          <t>0x0b5ccffc42563973e7d2b5e7ea9d504b7e2c9124</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5117,15 +5117,15 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>555023.6765887383</v>
+        <v>462364.1984873902</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>0xcda458e31eede9bae162eff222f1c84d784a2720</t>
+          <t>0xefd36256e41a6478dec47bd0e62e10af3832dba2</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5152,15 +5152,15 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>541510.1341594867</v>
+        <v>458418.8012318447</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-08-08</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -5173,7 +5173,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0xcd9b041e2ddc83f465bfef63c50a3c88ad2d7d75</t>
+          <t>0xf83f7fda18ed2100ab5b0e24dd49e81ead4b46a1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5187,15 +5187,15 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>538456.6247472708</v>
+        <v>457849.5155102178</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
@@ -5208,7 +5208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0x0852dba413446b2fd8cc0e45c96b7f226b09e992</t>
+          <t>0x0e1c7fbc490b5731b95c6947ecf5296978896f96</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5222,15 +5222,15 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>532988.5334441245</v>
+        <v>433561.8952055907</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
@@ -5243,7 +5243,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0x6c57141535ef42ee1ce9fdca57d4a81929556c0b</t>
+          <t>0x83d4a08e59f8fc3c0bd852c6f5563b858dee08d0</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5257,15 +5257,15 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>525134.047326758</v>
+        <v>388290.7673863337</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="H138" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0x35125efdbbb6e2f031f789e28324be8643e6caca</t>
+          <t>0x44be220642590094c565757c4ceb69b71204c57e</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5292,15 +5292,15 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>510607.2545434867</v>
+        <v>370461.9567085108</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
@@ -5313,7 +5313,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0x10f30e05a877e48503387391075dd693836d9701</t>
+          <t>0x28aff242466ddf490df9fb57c24ec5e534a21180</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5327,15 +5327,15 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>504263.0678161725</v>
+        <v>367785.2579869296</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
@@ -5348,7 +5348,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0x00000000007cee88e01241c9db0a02b859db5b52</t>
+          <t>0x111fbf7b389e024d09f35fb091d7d4479b321b0a</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5362,15 +5362,15 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>495204.008443746</v>
+        <v>366836.8067034429</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="n">
-        <v>594</v>
+        <v>94</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2023-12-25</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="H141" t="inlineStr"/>
@@ -5383,7 +5383,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0x723b43b6dc19ce1fbf2aaa4402cd05eb6c38a1a5</t>
+          <t>0x93fd330f0f0ce4e1d5dc355515b3048e4daed349</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5397,15 +5397,15 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>468643.8807479066</v>
+        <v>354242.124334632</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
@@ -5418,7 +5418,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>0xd9f80cb81164163a90745477ce1b2befb246a33f</t>
+          <t>0xfa713713b1acd89a00e6b35512161630d5ea90de</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5432,15 +5432,15 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>466986.2394707312</v>
+        <v>352266.7328136447</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
-        <v>25</v>
+        <v>442</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2023-10-20</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="H143" t="inlineStr"/>
@@ -5453,7 +5453,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0x30bb66154747d706826588663fb52b60cbc3b57c</t>
+          <t>0x176e84be013ad9a459c0d1e8517d9be4d4bbe041</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5467,15 +5467,15 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>464951.5448815862</v>
+        <v>351620.5734651388</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="H144" t="inlineStr"/>
@@ -5488,7 +5488,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0xefd36256e41a6478dec47bd0e62e10af3832dba2</t>
+          <t>0xbddbcbaa9cf9603b7055aad963506ede71692f12</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5502,15 +5502,15 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>458418.8012318447</v>
+        <v>322336.2936120798</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2023-08-08</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H145" t="inlineStr"/>
@@ -5523,7 +5523,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>0xf83f7fda18ed2100ab5b0e24dd49e81ead4b46a1</t>
+          <t>0x382641c816efad6a49cf46fc7d912d77884e1208</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5537,15 +5537,15 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>457849.5155102178</v>
+        <v>314726.0318532868</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="H146" t="inlineStr"/>
@@ -5558,7 +5558,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0x0e1c7fbc490b5731b95c6947ecf5296978896f96</t>
+          <t>0x658c1fcb2cfd518cc02359d6bd58c7305f96ae2f</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5572,15 +5572,15 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>433561.8952055907</v>
+        <v>294469.0705074408</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H147" t="inlineStr"/>
@@ -5593,7 +5593,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>0x294fd17c700331aad5cc480400050e1005d2c531</t>
+          <t>0x4107a0a4a50ac2c4cc8c5a3954bc01ff134506b2</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5607,15 +5607,15 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>402984.6420112735</v>
+        <v>282002.097002448</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
@@ -5628,7 +5628,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>0x83d4a08e59f8fc3c0bd852c6f5563b858dee08d0</t>
+          <t>0xc9ffafc6e58388f3092045f9639a533fa1338d3e</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5642,15 +5642,15 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>388290.7673863337</v>
+        <v>273842.1430775198</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="H149" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0x0ca99c61fc169d131ba890433792483ebe0ecd1a</t>
+          <t>0x6912017cf6f8e5db4f3646ac1fd10de1ad3a879a</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5677,15 +5677,15 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>373831.4679077676</v>
+        <v>272378.134245605</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="H150" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>0x44be220642590094c565757c4ceb69b71204c57e</t>
+          <t>0xbb117d0ef5baaa244cfadcf2fa2e4b816d5c7782</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5712,15 +5712,15 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>370461.9567085106</v>
+        <v>269397.5659573358</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-11-19</t>
         </is>
       </c>
       <c r="H151" t="inlineStr"/>
@@ -5733,7 +5733,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>0x28aff242466ddf490df9fb57c24ec5e534a21180</t>
+          <t>0x4b84a8a002a8f5cb27a3ef9100b809b8472d7b22</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5747,15 +5747,15 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>367785.2579869296</v>
+        <v>268743.6446698047</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-07-22</t>
         </is>
       </c>
       <c r="H152" t="inlineStr"/>
@@ -5768,7 +5768,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>0x111fbf7b389e024d09f35fb091d7d4479b321b0a</t>
+          <t>0x55252a6d50bfad0e5f1009541284c783686f7f25</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5782,15 +5782,15 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>366836.8067034429</v>
+        <v>263831.7998882063</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="H153" t="inlineStr"/>
@@ -5803,7 +5803,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0x176e84be013ad9a459c0d1e8517d9be4d4bbe041</t>
+          <t>0x85c5be9c005a993bdcdab666874f744bca300d6f</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5817,15 +5817,15 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>351620.5734651388</v>
+        <v>252094.9533496088</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="H154" t="inlineStr"/>
@@ -5838,7 +5838,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0xfa713713b1acd89a00e6b35512161630d5ea90de</t>
+          <t>0xe8fc77c8a63b80c27ee43aa4873fcb9b8950c77d</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5852,15 +5852,15 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>340882.4472978179</v>
+        <v>249288.0044588918</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
-        <v>424</v>
+        <v>19</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
@@ -5873,7 +5873,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0xbddbcbaa9cf9603b7055aad963506ede71692f12</t>
+          <t>0x9b6fb024b0acb33dcc7c056d37da6e0f0ec91319</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5887,15 +5887,15 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>322336.2936120799</v>
+        <v>232893.8369804896</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="H156" t="inlineStr"/>
@@ -5908,7 +5908,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>0x382641c816efad6a49cf46fc7d912d77884e1208</t>
+          <t>0x11d67fa925877813b744abc0917900c2b1d6eb81</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5922,15 +5922,15 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>314726.0318532867</v>
+        <v>229547.8732826525</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="H157" t="inlineStr"/>
@@ -5943,7 +5943,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>0x0b5ccffc42563973e7d2b5e7ea9d504b7e2c9124</t>
+          <t>0x8df9e9d15cb9cb0d793b079d43be8b0f739d2b22</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5957,15 +5957,15 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>293771.0908369615</v>
+        <v>229232.3928973374</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="H158" t="inlineStr"/>
@@ -5978,7 +5978,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>0x4107a0a4a50ac2c4cc8c5a3954bc01ff134506b2</t>
+          <t>0x2bdf1dcfd13d4f7e2c3d160e3d92aaf6a5e89150</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5992,15 +5992,15 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>282002.097002448</v>
+        <v>228404.928123241</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="H159" t="inlineStr"/>
@@ -6013,7 +6013,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0x658c1fcb2cfd518cc02359d6bd58c7305f96ae2f</t>
+          <t>0xba28b3951c418656ce207071838edc3879da6f20</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6027,15 +6027,15 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>276967.9996173944</v>
+        <v>224744.6166414952</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="n">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="H160" t="inlineStr"/>
@@ -6048,7 +6048,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0x93fd330f0f0ce4e1d5dc355515b3048e4daed349</t>
+          <t>0x87955903515c47c439ef42376c542625631f740f</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6062,15 +6062,15 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>274047.7035261058</v>
+        <v>218065.890290361</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="n">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="H161" t="inlineStr"/>
@@ -6083,7 +6083,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>0xc9ffafc6e58388f3092045f9639a533fa1338d3e</t>
+          <t>0x2f5fa561a7c8e499b58184084569cab25d095101</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6097,15 +6097,15 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>273842.1430775198</v>
+        <v>217144.4887530492</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="H162" t="inlineStr"/>
@@ -6118,7 +6118,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0xbb117d0ef5baaa244cfadcf2fa2e4b816d5c7782</t>
+          <t>0x9c75e722dac0ee9ffe05fb2b85379586989e8fb9</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>269397.5659573358</v>
+        <v>214574.130280564</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2023-11-19</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
@@ -6153,7 +6153,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>0x4b84a8a002a8f5cb27a3ef9100b809b8472d7b22</t>
+          <t>0x84f9c4a19d2f96e5907e3e89ada3ef6582ec71e9</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -6167,15 +6167,15 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>268743.6446698047</v>
+        <v>209502.1889945606</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2023-07-22</t>
+          <t>2023-12-26</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
@@ -6188,7 +6188,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>0x55252a6d50bfad0e5f1009541284c783686f7f25</t>
+          <t>0xa717cfda01dd5a725ba5a71781ef41136a5b3f90</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -6202,15 +6202,15 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>263831.7998882063</v>
+        <v>201663.6138132405</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
@@ -6223,7 +6223,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>0x328361406922245474521786da4475902d43cdef</t>
+          <t>0x63e4dbd6c923c117d9ac67682c8f085498051459</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -6237,15 +6237,15 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>258902.6026609622</v>
+        <v>193980.5628862808</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
@@ -6258,7 +6258,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>0x5d38e1a5f9519b73e533f7a801bc54e0608942aa</t>
+          <t>0x065b5d3708ade81796b752c9ca3eab118082bc33</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -6272,15 +6272,15 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>255812.7327127926</v>
+        <v>192715.8531392825</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-10-20</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
@@ -6293,7 +6293,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>0x85c5be9c005a993bdcdab666874f744bca300d6f</t>
+          <t>0x63dbb29fbb4422aa3ddfd9ac9c3b50831d7b89bc</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -6307,15 +6307,15 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>252094.9533496088</v>
+        <v>190470.8356325574</v>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
@@ -6328,7 +6328,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>0xe8fc77c8a63b80c27ee43aa4873fcb9b8950c77d</t>
+          <t>0xf2e8666155003c8df650df6e6e1866810e81a391</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -6342,15 +6342,15 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>249288.0044588918</v>
+        <v>189871.6370466166</v>
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
@@ -6363,7 +6363,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>0x9b6fb024b0acb33dcc7c056d37da6e0f0ec91319</t>
+          <t>0xa3e6278f7264dbdb8d6e2154007b3d38640d2ffa</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6377,15 +6377,15 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>232893.8369804896</v>
+        <v>186656.4826222246</v>
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="n">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="H170" t="inlineStr"/>
@@ -6398,7 +6398,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>0x11d67fa925877813b744abc0917900c2b1d6eb81</t>
+          <t>0x0c147717115f077ac9865be06afcb399504ab21b</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6412,15 +6412,15 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>229547.8732826525</v>
+        <v>185029.2702519305</v>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="H171" t="inlineStr"/>
@@ -6433,7 +6433,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>0x8df9e9d15cb9cb0d793b079d43be8b0f739d2b22</t>
+          <t>0x779e2524ae16687c35094638fd75e4695ff5034b</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -6447,15 +6447,15 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>229232.3928973374</v>
+        <v>176339.2817309955</v>
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="H172" t="inlineStr"/>
@@ -6468,7 +6468,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>0x2bdf1dcfd13d4f7e2c3d160e3d92aaf6a5e89150</t>
+          <t>0x6a6b085b746190c31a59154847cad38195a2ede0</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -6482,15 +6482,15 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>228404.928123241</v>
+        <v>169228.2301027725</v>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-07-28</t>
         </is>
       </c>
       <c r="H173" t="inlineStr"/>
@@ -6503,7 +6503,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0xba28b3951c418656ce207071838edc3879da6f20</t>
+          <t>0x1aac8793b215641fbd46fbed2bb2248b2a85fd26</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6517,15 +6517,15 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>224744.6166414952</v>
+        <v>160864.8273205642</v>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="H174" t="inlineStr"/>
@@ -6538,7 +6538,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0x87955903515c47c439ef42376c542625631f740f</t>
+          <t>0x32e76ce68901e81f6f4f3d0753215ec386c80dc5</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>218065.890290361</v>
+        <v>155664.5634209492</v>
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="n">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
@@ -6573,7 +6573,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>0x2f5fa561a7c8e499b58184084569cab25d095101</t>
+          <t>0x14075a8e667bfd92154ff24f92ecb96bc20abb20</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6587,15 +6587,15 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>217144.4887530492</v>
+        <v>153330.7030594033</v>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="H176" t="inlineStr"/>
@@ -6608,7 +6608,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>0x9c75e722dac0ee9ffe05fb2b85379586989e8fb9</t>
+          <t>0xd0b5ac6a70a38ed8fade7ce09378ba668303a56f</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6622,15 +6622,15 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>214574.1302805639</v>
+        <v>148610.0451936511</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="n">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="H177" t="inlineStr"/>
@@ -6643,7 +6643,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>0x6912017cf6f8e5db4f3646ac1fd10de1ad3a879a</t>
+          <t>0xed960af1cbf2e998749423293e9c24394bb53d2e</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6657,15 +6657,15 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>209672.2009587125</v>
+        <v>141380.6289885587</v>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="n">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="H178" t="inlineStr"/>
@@ -6678,7 +6678,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>0x84f9c4a19d2f96e5907e3e89ada3ef6582ec71e9</t>
+          <t>0x09630235efea6ae3be2dc0dcc8e52df23ac54db3</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6692,15 +6692,15 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>209502.1889945606</v>
+        <v>133277.4615351627</v>
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2023-12-26</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="H179" t="inlineStr"/>
@@ -6713,7 +6713,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>0xa717cfda01dd5a725ba5a71781ef41136a5b3f90</t>
+          <t>0xf1299f0c0c3196806bd6cbd2a3eec6855c95c194</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6727,15 +6727,15 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>201663.6138132405</v>
+        <v>132501.5096502914</v>
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H180" t="inlineStr"/>
@@ -6748,7 +6748,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>0x63e4dbd6c923c117d9ac67682c8f085498051459</t>
+          <t>0x8d755b5c09eadd74e88085b6937a342984b6186a</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6762,15 +6762,15 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>193980.5628862808</v>
+        <v>131562.161395067</v>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-10-26</t>
         </is>
       </c>
       <c r="H181" t="inlineStr"/>
@@ -6783,7 +6783,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>0x065b5d3708ade81796b752c9ca3eab118082bc33</t>
+          <t>0x0816e9cf0fffefda927e3808090f032cd7f74808</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6797,15 +6797,15 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>192715.8531392825</v>
+        <v>125154.5532402569</v>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2023-10-20</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="H182" t="inlineStr"/>
@@ -6818,7 +6818,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>0xf2e8666155003c8df650df6e6e1866810e81a391</t>
+          <t>0x744f1013f400268161e7c51256b54157f66e3c20</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6832,15 +6832,15 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>189871.6370466166</v>
+        <v>124409.9186648404</v>
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="H183" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>0x22e4d163b826ce9c776e889c4893f8f6d4b47428</t>
+          <t>0x384e4bdfb72ffc505e5383b2218ca5e265ebf024</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6867,15 +6867,15 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>188337.451760051</v>
+        <v>122425.0978680615</v>
       </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="H184" t="inlineStr"/>
@@ -6888,7 +6888,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>0x63dbb29fbb4422aa3ddfd9ac9c3b50831d7b89bc</t>
+          <t>0x32449f0f8f1774f8d1661b8992a50a27f91fa15c</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6902,15 +6902,15 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>187314.8552753426</v>
+        <v>122335.815893084</v>
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="H185" t="inlineStr"/>
@@ -6923,7 +6923,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>0xa3e6278f7264dbdb8d6e2154007b3d38640d2ffa</t>
+          <t>0xf238aa53d8a66dbefc0ba643e66a20a40986ad1a</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6937,15 +6937,15 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>186656.4826222245</v>
+        <v>114795.3427654724</v>
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="H186" t="inlineStr"/>
@@ -6958,7 +6958,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>0x0c147717115f077ac9865be06afcb399504ab21b</t>
+          <t>0x69cbb53e330db8a7244798c5eef99abf93ac173f</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6972,15 +6972,15 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>185029.2702519305</v>
+        <v>114376.09832937</v>
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-12-13</t>
         </is>
       </c>
       <c r="H187" t="inlineStr"/>
@@ -6993,7 +6993,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>0x779e2524ae16687c35094638fd75e4695ff5034b</t>
+          <t>0xbd59b9caff61612fcdca1198883b03005086c01f</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -7007,15 +7007,15 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>176339.2817309955</v>
+        <v>113844.3334538641</v>
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="H188" t="inlineStr"/>
@@ -7028,7 +7028,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>0x6a6b085b746190c31a59154847cad38195a2ede0</t>
+          <t>0x4214793221d253482beb406d1f76b657a0bdb374</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -7042,15 +7042,15 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>169228.2301027725</v>
+        <v>107412.0063452221</v>
       </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2023-07-28</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="H189" t="inlineStr"/>
@@ -7063,7 +7063,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>0x1aac8793b215641fbd46fbed2bb2248b2a85fd26</t>
+          <t>0x884cae257155708d0a0830171185e8da12086d67</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -7077,15 +7077,15 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>160864.8273205642</v>
+        <v>107066.5939536994</v>
       </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H190" t="inlineStr"/>
@@ -7098,7 +7098,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>0x32e76ce68901e81f6f4f3d0753215ec386c80dc5</t>
+          <t>0x62223bb2a4781c9512e5b78cef1655d1d9cd216d</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -7112,15 +7112,15 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>155664.5634209492</v>
+        <v>103810.8538979125</v>
       </c>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2023-11-30</t>
         </is>
       </c>
       <c r="H191" t="inlineStr"/>
@@ -7133,7 +7133,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>0x14075a8e667bfd92154ff24f92ecb96bc20abb20</t>
+          <t>0x7e374cbb230591d5406ce52233187e39a2a86aed</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -7147,15 +7147,15 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>153330.7030594033</v>
+        <v>102546.8882567504</v>
       </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="H192" t="inlineStr"/>
@@ -7168,7 +7168,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>0xd0b5ac6a70a38ed8fade7ce09378ba668303a56f</t>
+          <t>0x5da02702fa4fa802affd9d8736c7ec1991873801</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -7182,15 +7182,15 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>148610.0451936511</v>
+        <v>101570.4552731451</v>
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="H193" t="inlineStr"/>
@@ -7203,7 +7203,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>0xed960af1cbf2e998749423293e9c24394bb53d2e</t>
+          <t>0x0a50d910f722a4c8c265c161f16037f24b0aad2c</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7217,15 +7217,15 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>141380.6289885587</v>
+        <v>101325.3542034727</v>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="H194" t="inlineStr"/>
@@ -7238,7 +7238,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>0x09630235efea6ae3be2dc0dcc8e52df23ac54db3</t>
+          <t>0xaded8d8d71a2814134ffdf4a3b8443863fde2230</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>133277.4615351627</v>
+        <v>96085.3734396691</v>
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="n">
@@ -7260,7 +7260,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="H195" t="inlineStr"/>
@@ -7273,7 +7273,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>0xf1299f0c0c3196806bd6cbd2a3eec6855c95c194</t>
+          <t>0x594abfeae5943e2d47e019939b5257eae38222d7</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7287,15 +7287,15 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>132501.5096502914</v>
+        <v>93623.5810520369</v>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="H196" t="inlineStr"/>
@@ -7308,7 +7308,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>0x8d755b5c09eadd74e88085b6937a342984b6186a</t>
+          <t>0x435d8870ea24d8998fb884d9bda4d88bc93c6360</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7322,15 +7322,15 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>131562.161395067</v>
+        <v>93582.38252984747</v>
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="H197" t="inlineStr"/>
@@ -7343,7 +7343,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>0x3f5941f9441be715693a883144974eb24cc4ad3e</t>
+          <t>0xf3454674781353aff95c79538733251f7d5b8635</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -7357,15 +7357,15 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>125348.8933055851</v>
+        <v>91764.73436177653</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2023-07-31</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
@@ -7378,7 +7378,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>0x0816e9cf0fffefda927e3808090f032cd7f74808</t>
+          <t>0x8193b8a8044eeb157bb800909b3d931dbaae08e9</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -7392,15 +7392,15 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>125154.5532402569</v>
+        <v>88660.5091115846</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="H199" t="inlineStr"/>
@@ -7413,7 +7413,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>0x744f1013f400268161e7c51256b54157f66e3c20</t>
+          <t>0x5722d71e78291a582d01f08579e92fe0b85705e6</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -7427,15 +7427,15 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>124409.9186648404</v>
+        <v>87832.42025863042</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="H200" t="inlineStr"/>
@@ -7448,7 +7448,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>0x384e4bdfb72ffc505e5383b2218ca5e265ebf024</t>
+          <t>0x89822746c2e63b39eb9d3bb3af86f6c4f4a5d09d</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -7462,15 +7462,15 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>117555.5565051345</v>
+        <v>84991.11482944083</v>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="n">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="H201" t="inlineStr"/>
@@ -7483,7 +7483,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>0xf238aa53d8a66dbefc0ba643e66a20a40986ad1a</t>
+          <t>0x5d0c83a6bd7bf1986e5519c766f6568d2b390de0</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -7497,15 +7497,15 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>114795.3427654724</v>
+        <v>83188.27545056277</v>
       </c>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="H202" t="inlineStr"/>
@@ -7518,7 +7518,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>0x69cbb53e330db8a7244798c5eef99abf93ac173f</t>
+          <t>0xa17ca847f65f57926e1304a26d7307cd32adf940</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -7532,15 +7532,15 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>114376.09832937</v>
+        <v>81908.45039602135</v>
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2023-12-13</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="H203" t="inlineStr"/>
@@ -7553,7 +7553,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>0xbd59b9caff61612fcdca1198883b03005086c01f</t>
+          <t>0x2481f3e5c0c8339cdbe585e54df96b85d0193423</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -7567,15 +7567,15 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>113844.3334538641</v>
+        <v>78690.72083458431</v>
       </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="H204" t="inlineStr"/>
@@ -7588,7 +7588,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>0x4214793221d253482beb406d1f76b657a0bdb374</t>
+          <t>0x1b6c52e8ce5986e15d72c113b98f819f89a13477</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -7602,15 +7602,15 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>107412.0063452221</v>
+        <v>76146.42256786452</v>
       </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-10-25</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
@@ -7623,7 +7623,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>0x62223bb2a4781c9512e5b78cef1655d1d9cd216d</t>
+          <t>0xc27d980b71d5978f8b6de9e1ba01ed001d8760d3</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -7637,15 +7637,15 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>103810.8538979125</v>
+        <v>76122.53765675612</v>
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="H206" t="inlineStr"/>
@@ -7658,7 +7658,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>0x7e374cbb230591d5406ce52233187e39a2a86aed</t>
+          <t>0x758567401325eca3632ac74a6ace4308a15bce36</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -7672,15 +7672,15 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>102546.8882567504</v>
+        <v>75338.83841776385</v>
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="n">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="H207" t="inlineStr"/>
@@ -7693,7 +7693,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>0x9aade112a7829a817d87885c45a88afac35625b0</t>
+          <t>0xa5ab6287573efc7e2597efd25faddd9df4689986</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -7707,15 +7707,15 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>102099.1653678393</v>
+        <v>73410.32231318747</v>
       </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="H208" t="inlineStr"/>
@@ -7728,7 +7728,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>0x5da02702fa4fa802affd9d8736c7ec1991873801</t>
+          <t>0xc0c54ea31065c46cd97e2918b5ad32bf220ec97d</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -7742,15 +7742,15 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>101570.4552731452</v>
+        <v>71355.65780128204</v>
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-10-08</t>
         </is>
       </c>
       <c r="H209" t="inlineStr"/>
@@ -7763,7 +7763,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>0x0a50d910f722a4c8c265c161f16037f24b0aad2c</t>
+          <t>0x29d7abaa0137375d542ef2442b6a11c054b03940</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -7777,15 +7777,15 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>101325.3542034727</v>
+        <v>69438.37573101133</v>
       </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H210" t="inlineStr"/>
@@ -7798,7 +7798,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>0x884cae257155708d0a0830171185e8da12086d67</t>
+          <t>0x25088e982e0334d30db05b9b38ea259dfc217d08</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -7812,15 +7812,15 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>100648.526938041</v>
+        <v>68747.0296405714</v>
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="H211" t="inlineStr"/>
@@ -7833,7 +7833,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>0xaded8d8d71a2814134ffdf4a3b8443863fde2230</t>
+          <t>0x0d8e6b2063ba3a3ff25c27dc8231f063793ea563</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -7847,15 +7847,15 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>96085.3734396691</v>
+        <v>67239.23709532738</v>
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="H212" t="inlineStr"/>
@@ -7868,7 +7868,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>0x594abfeae5943e2d47e019939b5257eae38222d7</t>
+          <t>0x222723c26baa6d4d90d735df553400523310c018</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -7882,15 +7882,15 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>93623.5810520369</v>
+        <v>67143.10508878148</v>
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="H213" t="inlineStr"/>
@@ -7903,7 +7903,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>0x435d8870ea24d8998fb884d9bda4d88bc93c6360</t>
+          <t>0x92c845c7021491902b46cc863f644c2bbef27706</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -7917,15 +7917,15 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>93582.38252984747</v>
+        <v>67073.68179799255</v>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="n">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H214" t="inlineStr"/>
@@ -7938,7 +7938,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>0xf3454674781353aff95c79538733251f7d5b8635</t>
+          <t>0xdd032c4672591d73d5bbea8ff1909a9088792eb4</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -7952,15 +7952,15 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>91764.73436177653</v>
+        <v>65602.39658083901</v>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2023-07-31</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="H215" t="inlineStr"/>
@@ -7973,7 +7973,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>0x92930942a256c182f97cadf4adb26bfc8f835456</t>
+          <t>0x933dee016651904656b46e82c74b423d264668fa</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -7987,15 +7987,15 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>90039.96523147795</v>
+        <v>63689.7826286914</v>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="H216" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>0x8193b8a8044eeb157bb800909b3d931dbaae08e9</t>
+          <t>0xc365d1f84f74b8b5c74accac1600c21fd8874cab</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -8022,15 +8022,15 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>88660.5091115846</v>
+        <v>58651.60548993568</v>
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H217" t="inlineStr"/>
@@ -8043,7 +8043,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>0x5722d71e78291a582d01f08579e92fe0b85705e6</t>
+          <t>0xb268301948a444cc4beeb57b78a721dc9d7e8493</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -8057,15 +8057,15 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>87832.42025863043</v>
+        <v>57826.56231253307</v>
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="H218" t="inlineStr"/>
@@ -8078,7 +8078,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>0x36786c66116f2fa0b52246bcf9d2f9e982d44b03</t>
+          <t>0x6fb4ad9e01f9a624d3665bb0f93e7966ae8a51d2</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -8092,15 +8092,15 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>85970.68779017642</v>
+        <v>56885.01696300012</v>
       </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="n">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="H219" t="inlineStr"/>
@@ -8113,7 +8113,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>0x89822746c2e63b39eb9d3bb3af86f6c4f4a5d09d</t>
+          <t>0xa57e5b9611db03cd47509053a040f039f9f17119</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -8127,15 +8127,15 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>84991.11482944083</v>
+        <v>56344.62903335871</v>
       </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="H220" t="inlineStr"/>
@@ -8148,7 +8148,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>0x5d0c83a6bd7bf1986e5519c766f6568d2b390de0</t>
+          <t>0xc28e23e7d7d6cc0c9c6f08146c71e7d168cae45a</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -8162,15 +8162,15 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>83188.27545056277</v>
+        <v>55255.89225908471</v>
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2023-12-06</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="H221" t="inlineStr"/>
@@ -8183,7 +8183,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>0xa17ca847f65f57926e1304a26d7307cd32adf940</t>
+          <t>0xf137eee9784ddc161ad6831babcdced4ac788c91</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -8197,15 +8197,15 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>81908.45039602135</v>
+        <v>54453.08724025524</v>
       </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="H222" t="inlineStr"/>
@@ -8218,7 +8218,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>0x2481f3e5c0c8339cdbe585e54df96b85d0193423</t>
+          <t>0x0f7c8669771d711486379a9a0445d21a35626d9c</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>78690.72083458431</v>
+        <v>53907.99428816991</v>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2023-11-16</t>
         </is>
       </c>
       <c r="H223" t="inlineStr"/>
@@ -8253,7 +8253,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>0x1b6c52e8ce5986e15d72c113b98f819f89a13477</t>
+          <t>0xc5f2b0742d7b9ace2e7e278e010e75d193cd21a5</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -8267,15 +8267,15 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>76146.42256786452</v>
+        <v>53433.45743087116</v>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2024-01-14</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
@@ -8288,7 +8288,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>0xc27d980b71d5978f8b6de9e1ba01ed001d8760d3</t>
+          <t>0x84e770cf8914dc1336b13898131c804a90d68501</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -8302,15 +8302,15 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>76122.53765675612</v>
+        <v>51782.95306438683</v>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="H225" t="inlineStr"/>
@@ -8323,7 +8323,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>0x758567401325eca3632ac74a6ace4308a15bce36</t>
+          <t>0xe7c3a5c9b1d3b8a3f20e71f3a1b7a8a358772b4d</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -8337,15 +8337,15 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>75338.83841776385</v>
+        <v>51657.84695057206</v>
       </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-07-22</t>
         </is>
       </c>
       <c r="H226" t="inlineStr"/>
@@ -8358,7 +8358,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>0xa5ab6287573efc7e2597efd25faddd9df4689986</t>
+          <t>0x8b7a6fec5c6638c1d667ef8126b457fec09376eb</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -8372,15 +8372,15 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>73410.32231318747</v>
+        <v>51564.40760234917</v>
       </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="H227" t="inlineStr"/>
@@ -8393,7 +8393,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>0xc0c54ea31065c46cd97e2918b5ad32bf220ec97d</t>
+          <t>0x85ceadc73a7435078d9bf8f5b54fec5baeb9676d</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -8407,15 +8407,15 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>71355.65780128204</v>
+        <v>51190.52513049851</v>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2023-10-08</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="H228" t="inlineStr"/>
@@ -8428,7 +8428,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>0x29d7abaa0137375d542ef2442b6a11c054b03940</t>
+          <t>0x1f0c6d5f95b21eddcb6d45350629b6c6b15803be</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -8442,15 +8442,15 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>69438.37573101133</v>
+        <v>51099.22136322776</v>
       </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="H229" t="inlineStr"/>
@@ -8463,7 +8463,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>0x25088e982e0334d30db05b9b38ea259dfc217d08</t>
+          <t>0xf5e6fc86d0cb1c85fdfda859237868d3df966017</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -8477,15 +8477,15 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>68747.0296405714</v>
+        <v>50090.17859465365</v>
       </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="H230" t="inlineStr"/>
@@ -8498,7 +8498,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>0x0d8e6b2063ba3a3ff25c27dc8231f063793ea563</t>
+          <t>0x037ed1c0cd972dc9947d113a2b51acb3ca06269d</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -8512,15 +8512,15 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>67239.23709532738</v>
+        <v>49573.3612563576</v>
       </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-10-22</t>
         </is>
       </c>
       <c r="H231" t="inlineStr"/>
@@ -8533,7 +8533,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>0x222723c26baa6d4d90d735df553400523310c018</t>
+          <t>0x2dc547772fdef7453bb97b6188d5f8b7ec6579b6</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -8547,15 +8547,15 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>67143.10508878148</v>
+        <v>46855.54521786292</v>
       </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="H232" t="inlineStr"/>
@@ -8568,7 +8568,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>0x92c845c7021491902b46cc863f644c2bbef27706</t>
+          <t>0x7c24d0e9d2a5e3f122b3321051d71e710c23b84a</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -8582,15 +8582,15 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>67073.68179799253</v>
+        <v>46637.39632952696</v>
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="H233" t="inlineStr"/>
@@ -8603,7 +8603,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>0x32449f0f8f1774f8d1661b8992a50a27f91fa15c</t>
+          <t>0x708f741b5fa76c9f4a70355207b4f0226ce265f3</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -8617,15 +8617,15 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>65999.5696300011</v>
+        <v>44930.35569457441</v>
       </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>2023-12-29</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="H234" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>0xdd032c4672591d73d5bbea8ff1909a9088792eb4</t>
+          <t>0xead34bb5d6cb7876235526d808205ea35152c53e</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -8652,15 +8652,15 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>65602.39658083901</v>
+        <v>44348.67590292469</v>
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="H235" t="inlineStr"/>
@@ -8673,7 +8673,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>0x933dee016651904656b46e82c74b423d264668fa</t>
+          <t>0xad215b7a7817e86dc5cb43a3f31d4704890bf40f</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -8687,15 +8687,15 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>63689.7826286914</v>
+        <v>44121.64917362593</v>
       </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="H236" t="inlineStr"/>
@@ -8708,7 +8708,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>0xc7f91e6650fe21791b1f8af864ed019b6853294e</t>
+          <t>0x0edae34a23456bfa9ff2dad27ba50e4f4c592a16</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -8722,15 +8722,15 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>58193.71237933522</v>
+        <v>43887.89821349819</v>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="H237" t="inlineStr"/>
@@ -8743,7 +8743,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>0xb268301948a444cc4beeb57b78a721dc9d7e8493</t>
+          <t>0xe5845761e7773976055f2559ca54be41f09d9e88</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -8757,15 +8757,15 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>57826.56231253307</v>
+        <v>43782.15738183272</v>
       </c>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="H238" t="inlineStr"/>
@@ -8778,7 +8778,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>0xa57e5b9611db03cd47509053a040f039f9f17119</t>
+          <t>0x5f2bdde532a1bcd9a5f1844a64341ba788be3b05</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -8792,15 +8792,15 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>56344.62903335871</v>
+        <v>43139.93830575926</v>
       </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="H239" t="inlineStr"/>
@@ -8813,7 +8813,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>0xc28e23e7d7d6cc0c9c6f08146c71e7d168cae45a</t>
+          <t>0xa86de15e2b5f966e1c7e38ed5356f6cc3da9a24f</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -8827,15 +8827,15 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>55255.89225908471</v>
+        <v>41214.25771485172</v>
       </c>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
@@ -8848,7 +8848,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>0xa13c2def62c36697407fbe7d574e946bf60d7350</t>
+          <t>0x5f958658f069f068d051faf0e2ad7c98e96b6afa</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -8862,15 +8862,15 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>54618.43931548455</v>
+        <v>39997.22470922616</v>
       </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="n">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H241" t="inlineStr"/>
@@ -8883,7 +8883,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>0xf137eee9784ddc161ad6831babcdced4ac788c91</t>
+          <t>0x0ce3f106e3d9caef708bb45dc8f4a690167ab660</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -8897,15 +8897,15 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>54453.08724025524</v>
+        <v>39684.72441525539</v>
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="H242" t="inlineStr"/>
@@ -8918,7 +8918,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>0x0f7c8669771d711486379a9a0445d21a35626d9c</t>
+          <t>0x50cb3c7b8eac3b33d4f1e2cb245437c68d27b726</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -8932,15 +8932,15 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>53907.99428816991</v>
+        <v>39389.23107928567</v>
       </c>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
@@ -8953,7 +8953,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>0xf6b288a447d69051c108dabd0b683be08b92e9ef</t>
+          <t>0xbbbf2217ca210357e96e97a82ef2f9fad84d82c5</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -8967,15 +8967,15 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>51930.89310565525</v>
+        <v>37896.27158962301</v>
       </c>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-10-21</t>
         </is>
       </c>
       <c r="H244" t="inlineStr"/>
@@ -8988,7 +8988,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>0x84e770cf8914dc1336b13898131c804a90d68501</t>
+          <t>0x3495b71b1d18bd47f1ae0f9a4cea6ad8f25fe0e1</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -9002,15 +9002,15 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>51782.95306438683</v>
+        <v>36089.84763110131</v>
       </c>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="H245" t="inlineStr"/>
@@ -9023,7 +9023,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>0xe7c3a5c9b1d3b8a3f20e71f3a1b7a8a358772b4d</t>
+          <t>0x0ba107ae92eb8b3835790195f5bd1cb0a6b5cbe7</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -9037,15 +9037,15 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>51657.84695057206</v>
+        <v>35701.74509338375</v>
       </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>2023-07-22</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H246" t="inlineStr"/>
@@ -9058,7 +9058,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>0x8b7a6fec5c6638c1d667ef8126b457fec09376eb</t>
+          <t>0x72027b03509d566047bea2cb3f1bbf22742f5a7e</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -9072,15 +9072,15 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>51564.40760234917</v>
+        <v>34992.46067336755</v>
       </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="H247" t="inlineStr"/>
@@ -9093,7 +9093,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>0x36455def952651de330445c0c2ba1e694c448741</t>
+          <t>0x58eb17eb1b986ce884344766689e7aefa88ed3af</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -9107,15 +9107,15 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>51194.8684948572</v>
+        <v>34104.16701232029</v>
       </c>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="H248" t="inlineStr"/>
@@ -9128,7 +9128,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>0x85ceadc73a7435078d9bf8f5b54fec5baeb9676d</t>
+          <t>0xba260bcc7f8beb65874e81e046f8dc894837c20e</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -9142,15 +9142,15 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>51190.52513049851</v>
+        <v>32528.01245072761</v>
       </c>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2024-01-07</t>
         </is>
       </c>
       <c r="H249" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>0x1f0c6d5f95b21eddcb6d45350629b6c6b15803be</t>
+          <t>0x7ddb95fa83da7d6ad3910fe5edb33a04920abbbb</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -9177,15 +9177,15 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>51099.22136322776</v>
+        <v>31229.33723756728</v>
       </c>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="H250" t="inlineStr"/>
@@ -9198,7 +9198,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>0x0fab1e729111c333f4a2fd40e3292af4d7d1afa3</t>
+          <t>0x9699672b32a3a1762e6de67dd2b3e41b6eef58ae</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -9212,15 +9212,15 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>50993.50229693381</v>
+        <v>30957.9790284799</v>
       </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="H251" t="inlineStr"/>
@@ -9233,7 +9233,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>0xf5e6fc86d0cb1c85fdfda859237868d3df966017</t>
+          <t>0xdef01332c7f8305dee80b6d48657cc8db7ce9ca5</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -9247,15 +9247,15 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>50090.17859465365</v>
+        <v>30121.39392251793</v>
       </c>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="H252" t="inlineStr"/>
@@ -9268,7 +9268,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>0x037ed1c0cd972dc9947d113a2b51acb3ca06269d</t>
+          <t>0x8f25818ff64be1abee91abca70c306b33b602062</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -9282,15 +9282,15 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>49573.3612563576</v>
+        <v>29943.1021460355</v>
       </c>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>2023-10-22</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="H253" t="inlineStr"/>
@@ -9303,7 +9303,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>0x73702aefc3e96a07311640de6edfba586aa17817</t>
+          <t>0x7f37d9a32241657ca0681361ea8d73e15b17787e</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -9317,15 +9317,15 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>49494.97706751706</v>
+        <v>28926.4063625092</v>
       </c>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="H254" t="inlineStr"/>
@@ -9338,7 +9338,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>0x2a4e76d24e51f8d25f4de6313f767f2df8b24dfb</t>
+          <t>0xd6a430b25b12e39dcc01edf5c84a860d27777777</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>47103.53249999999</v>
+        <v>28567.51295440687</v>
       </c>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-12-26</t>
         </is>
       </c>
       <c r="H255" t="inlineStr"/>
@@ -9373,7 +9373,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>0x2dc547772fdef7453bb97b6188d5f8b7ec6579b6</t>
+          <t>0xf087cbf7a233540d46c9c15e9a5101a2da5a6eb7</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -9387,15 +9387,15 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>46855.54521786292</v>
+        <v>28224.20275477675</v>
       </c>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="H256" t="inlineStr"/>
@@ -9408,7 +9408,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>0x7c24d0e9d2a5e3f122b3321051d71e710c23b84a</t>
+          <t>0x5687e60393897d95ee65ddfc73e389b0c922d397</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -9422,15 +9422,15 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>46637.39632952696</v>
+        <v>27527.0553024</v>
       </c>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="H257" t="inlineStr"/>
@@ -9443,7 +9443,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>0x708f741b5fa76c9f4a70355207b4f0226ce265f3</t>
+          <t>0x12d14464118089ec31b3cc642af2852f4d460ad2</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -9457,15 +9457,15 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>44930.35569457441</v>
+        <v>27267.03423161543</v>
       </c>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="H258" t="inlineStr"/>
@@ -9478,7 +9478,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>0x6b93ca7c356b61c32b473b3144e6b3130d106f2a</t>
+          <t>0xcba35d14246eff555029e7e349bec5720b565eaa</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -9492,15 +9492,15 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>44391.55440998882</v>
+        <v>26265.3642462694</v>
       </c>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="H259" t="inlineStr"/>
@@ -9513,7 +9513,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>0xead34bb5d6cb7876235526d808205ea35152c53e</t>
+          <t>0x4ffc5f22770ab6046c8d66dabae3a9cd1e7a03e7</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -9527,15 +9527,15 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>44348.67590292469</v>
+        <v>25853.47140073002</v>
       </c>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="H260" t="inlineStr"/>
@@ -9548,7 +9548,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>0xad215b7a7817e86dc5cb43a3f31d4704890bf40f</t>
+          <t>0x8603213d82723613021c6454832b64a24de3b8bc</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -9562,15 +9562,15 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>44121.64917362593</v>
+        <v>25527.9368731031</v>
       </c>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="H261" t="inlineStr"/>
@@ -9583,7 +9583,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>0x0edae34a23456bfa9ff2dad27ba50e4f4c592a16</t>
+          <t>0x8b272dacabe8839d17abdb866dd40c48343fe27e</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -9597,15 +9597,15 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>43887.89821349819</v>
+        <v>23856.80679668625</v>
       </c>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="H262" t="inlineStr"/>
@@ -9618,7 +9618,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>0xe5845761e7773976055f2559ca54be41f09d9e88</t>
+          <t>0xd8b75eb7bd778ac0b3f5ffad69bcc2e25bccac95</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -9632,15 +9632,15 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>43782.15738183272</v>
+        <v>22738.22475202813</v>
       </c>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="H263" t="inlineStr"/>
@@ -9653,7 +9653,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>0xa86de15e2b5f966e1c7e38ed5356f6cc3da9a24f</t>
+          <t>0x6442b001c5acce8cb71986ad65b22684821a927a</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -9667,15 +9667,15 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>41214.25771485172</v>
+        <v>22214.04722321259</v>
       </c>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="n">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="H264" t="inlineStr"/>
@@ -9688,7 +9688,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>0x4916fdb562914792315dd21c3df1a7af3a7bf382</t>
+          <t>0xd0ffeb96e4e9d1a4de008a2fd5a9c416d7ce048f</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -9702,15 +9702,15 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>40412.55090207871</v>
+        <v>21885.32262696238</v>
       </c>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="H265" t="inlineStr"/>
@@ -9723,7 +9723,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>0x5d8c2a9975795b09c1f755782f2fde1b594ecfbd</t>
+          <t>0x07642ebf66dafa1f13d40f5a9e92a8bae98a03ab</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -9737,7 +9737,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>39728.07446587678</v>
+        <v>21732.98944049987</v>
       </c>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="n">
@@ -9745,7 +9745,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H266" t="inlineStr"/>
@@ -9758,7 +9758,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>0x0ce3f106e3d9caef708bb45dc8f4a690167ab660</t>
+          <t>0x9fe57eb65d17177a069331e7d2746df602f538d3</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -9772,15 +9772,15 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>39684.72441525539</v>
+        <v>21163.02236969611</v>
       </c>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="H267" t="inlineStr"/>
@@ -9793,7 +9793,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>0x50cb3c7b8eac3b33d4f1e2cb245437c68d27b726</t>
+          <t>0x7e34821010f18d1b2341a4856b5ed8bc7cdb6507</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -9807,15 +9807,15 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>39389.23107928567</v>
+        <v>20996.49658432349</v>
       </c>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="H268" t="inlineStr"/>
@@ -9828,7 +9828,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>0x5f958658f069f068d051faf0e2ad7c98e96b6afa</t>
+          <t>0xa34165858aa5c8518aaa0496de1c8ebd6351f4bf</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -9842,15 +9842,15 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>38907.05126159928</v>
+        <v>20218.21730379842</v>
       </c>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="n">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="H269" t="inlineStr"/>
@@ -9863,7 +9863,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>0xbbbf2217ca210357e96e97a82ef2f9fad84d82c5</t>
+          <t>0x401efc335b3266abe4418c3f6be396bdc7043e66</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -9877,7 +9877,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>37896.27158962301</v>
+        <v>19802.17822970368</v>
       </c>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="n">
@@ -9885,7 +9885,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2023-10-21</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="H270" t="inlineStr"/>
@@ -9898,7 +9898,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>0x3495b71b1d18bd47f1ae0f9a4cea6ad8f25fe0e1</t>
+          <t>0x6835b3b8f3940d68dbd4edd06f96f7888fc262ca</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -9912,15 +9912,15 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>36089.84763110131</v>
+        <v>19705.46638648416</v>
       </c>
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="H271" t="inlineStr"/>
@@ -9933,7 +9933,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>0x72027b03509d566047bea2cb3f1bbf22742f5a7e</t>
+          <t>0x4e56b9a7882413f7a9e36faf891e30f73324b0a7</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -9947,15 +9947,15 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>34992.46067336755</v>
+        <v>19522.45540842922</v>
       </c>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="H272" t="inlineStr"/>
@@ -9968,7 +9968,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>0xdffca43ac79a38a1a1c590c30a22a7946a3b45ba</t>
+          <t>0xb759ca70078a4329c6c10600b18447ac3f7e0d7b</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -9982,15 +9982,15 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>34678.21181541675</v>
+        <v>18351.34465556749</v>
       </c>
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="H273" t="inlineStr"/>
@@ -10003,7 +10003,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>0x5f2bdde532a1bcd9a5f1844a64341ba788be3b05</t>
+          <t>0xe5f8a81f072150701c25fba31c910884fa33098c</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -10017,15 +10017,15 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>34242.0316328656</v>
+        <v>17935.83468703466</v>
       </c>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="H274" t="inlineStr"/>
@@ -10038,7 +10038,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>0x58eb17eb1b986ce884344766689e7aefa88ed3af</t>
+          <t>0x691d5b76eae4ce3e9c8d1d82b3cb1ce26d175fa1</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -10052,15 +10052,15 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>34104.16701232029</v>
+        <v>17859.1439462071</v>
       </c>
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="H275" t="inlineStr"/>
@@ -10073,7 +10073,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>0x0ba107ae92eb8b3835790195f5bd1cb0a6b5cbe7</t>
+          <t>0x4b1e91fdcd95d514e20a62ab565661003efd6b71</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -10087,15 +10087,15 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>33129.18412294381</v>
+        <v>17774.24923551818</v>
       </c>
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="H276" t="inlineStr"/>
@@ -10108,7 +10108,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>0x7ddb95fa83da7d6ad3910fe5edb33a04920abbbb</t>
+          <t>0x656faa1fc88ff4087c9523a211ea47b29f979a0f</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -10122,15 +10122,15 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>31229.33723756728</v>
+        <v>17067.916966382</v>
       </c>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="H277" t="inlineStr"/>
@@ -10143,7 +10143,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>0x9699672b32a3a1762e6de67dd2b3e41b6eef58ae</t>
+          <t>0x46f2c3ce0c4c8b7ebb34809acaa1cc236b90dac4</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -10157,15 +10157,15 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>30957.9790284799</v>
+        <v>16536.1111843352</v>
       </c>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-08-07</t>
         </is>
       </c>
       <c r="H278" t="inlineStr"/>
@@ -10178,7 +10178,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>0xc6222f4eceae19e3e6fbe3be011037296bd90ae5</t>
+          <t>0x580895d47d90f211e638325604d53c0b2ff51e6f</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -10192,15 +10192,15 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>30247.30917798176</v>
+        <v>16154.11010109266</v>
       </c>
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="H279" t="inlineStr"/>
@@ -10213,7 +10213,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>0xdef01332c7f8305dee80b6d48657cc8db7ce9ca5</t>
+          <t>0xfc6832b25e135a9e7dd24cdf8eea0ab78c20c86f</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -10227,15 +10227,15 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>30121.39392251793</v>
+        <v>15955.29753146497</v>
       </c>
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H280" t="inlineStr"/>
@@ -10248,7 +10248,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>0x8f25818ff64be1abee91abca70c306b33b602062</t>
+          <t>0x1cbd4704f528cc2293b9822c6ed2eb52fdaaa845</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -10262,7 +10262,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>29943.1021460355</v>
+        <v>15855.179380535</v>
       </c>
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="n">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="H281" t="inlineStr"/>
@@ -10283,7 +10283,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>0x7f37d9a32241657ca0681361ea8d73e15b17787e</t>
+          <t>0x20955cdaa26a20fd02c0a876612a37a6c6606c16</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -10297,15 +10297,15 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>28926.4063625092</v>
+        <v>15436.98546361513</v>
       </c>
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-07</t>
         </is>
       </c>
       <c r="H282" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>0xd6a430b25b12e39dcc01edf5c84a860d27777777</t>
+          <t>0x0c50f80ad44e8ed621c40294119d4da0f5bcfa16</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -10332,15 +10332,15 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>28567.51295440687</v>
+        <v>15337.62440608527</v>
       </c>
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>2023-12-26</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="H283" t="inlineStr"/>
@@ -10353,7 +10353,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>0xba260bcc7f8beb65874e81e046f8dc894837c20e</t>
+          <t>0x45a61c5c4f59b1ba280eea84a1a8bfda368ded9d</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -10367,15 +10367,15 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>28552.93815906728</v>
+        <v>14363.84449937526</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="H284" t="inlineStr"/>
@@ -10388,7 +10388,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>0xf087cbf7a233540d46c9c15e9a5101a2da5a6eb7</t>
+          <t>0x392e2dba91a260819e6736ef1ff6a0927845d746</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -10402,15 +10402,15 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>28224.20275477675</v>
+        <v>14144.44901772263</v>
       </c>
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="H285" t="inlineStr"/>
@@ -10423,7 +10423,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>0x12d14464118089ec31b3cc642af2852f4d460ad2</t>
+          <t>0xc44b0378e400a9958219ec8f294c23b9976e3c5d</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -10437,15 +10437,15 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>27267.03423161543</v>
+        <v>13956.00081317908</v>
       </c>
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="H286" t="inlineStr"/>
@@ -10458,7 +10458,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>0xcba35d14246eff555029e7e349bec5720b565eaa</t>
+          <t>0x81a06ca0b9e1b47f5bf3037d448a505694faad84</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -10472,15 +10472,15 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>26265.3642462694</v>
+        <v>13896.03768672427</v>
       </c>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="H287" t="inlineStr"/>
@@ -10493,7 +10493,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>0x4ffc5f22770ab6046c8d66dabae3a9cd1e7a03e7</t>
+          <t>0xbc980bb5995f2c1f3c777dff918d21c811a61032</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -10507,15 +10507,15 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>25853.47140073002</v>
+        <v>13876.40421022591</v>
       </c>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="H288" t="inlineStr"/>
@@ -10528,7 +10528,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>0x8603213d82723613021c6454832b64a24de3b8bc</t>
+          <t>0x8edc96828b04f2cae830db1e0dd5af530b017a98</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -10542,15 +10542,15 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>25527.9368731031</v>
+        <v>13667.33186079849</v>
       </c>
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-24</t>
         </is>
       </c>
       <c r="H289" t="inlineStr"/>
@@ -10563,7 +10563,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>0xd8b75eb7bd778ac0b3f5ffad69bcc2e25bccac95</t>
+          <t>0xff679aa5410991a976a9d9461d30e7e5958ce672</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -10577,15 +10577,15 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>22738.22475202813</v>
+        <v>13325.37970762593</v>
       </c>
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="H290" t="inlineStr"/>
@@ -10598,7 +10598,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>0x6442b001c5acce8cb71986ad65b22684821a927a</t>
+          <t>0xd4ec19bf6aec83db501ad4ad82781b640d4e2be7</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -10612,15 +10612,15 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>21892.06776699368</v>
+        <v>13230.41115636551</v>
       </c>
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="n">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="H291" t="inlineStr"/>
@@ -10633,7 +10633,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>0xd0ffeb96e4e9d1a4de008a2fd5a9c416d7ce048f</t>
+          <t>0xa4bf8f022485bf6d8e2deb70561e712fc874cd42</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -10647,15 +10647,15 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>21885.32262696238</v>
+        <v>12651.23719192337</v>
       </c>
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H292" t="inlineStr"/>
@@ -10668,7 +10668,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>0x9fe57eb65d17177a069331e7d2746df602f538d3</t>
+          <t>0x042ca50b9f24956ffe73e082ec14e8466de4b1c0</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -10682,15 +10682,15 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>21163.02236969611</v>
+        <v>12035.33782590135</v>
       </c>
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="H293" t="inlineStr"/>
@@ -10703,7 +10703,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>0x7e34821010f18d1b2341a4856b5ed8bc7cdb6507</t>
+          <t>0x9a06f4041c1b088e536eee53dd8813ee0b9ad62c</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -10717,15 +10717,15 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>20996.49658432349</v>
+        <v>11812.77933555771</v>
       </c>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="H294" t="inlineStr"/>
@@ -10738,7 +10738,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>0xa34165858aa5c8518aaa0496de1c8ebd6351f4bf</t>
+          <t>0x83cced5006ec03eb01e426ede7ce5abd9b11d664</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -10752,15 +10752,15 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>20218.21730379842</v>
+        <v>11731.19925312239</v>
       </c>
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="H295" t="inlineStr"/>
@@ -10773,7 +10773,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>0x401efc335b3266abe4418c3f6be396bdc7043e66</t>
+          <t>0xb536448700551feae97ac8d3123e735599c1c13b</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -10787,15 +10787,15 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>19802.17822970368</v>
+        <v>11403.55303848761</v>
       </c>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="H296" t="inlineStr"/>
@@ -10808,7 +10808,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>0x6835b3b8f3940d68dbd4edd06f96f7888fc262ca</t>
+          <t>0x3c634d6b4fccffd3fbc77997edd98951ac344650</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -10822,15 +10822,15 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>19705.46638648416</v>
+        <v>10735.13517287955</v>
       </c>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="H297" t="inlineStr"/>
@@ -10843,7 +10843,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>0x4e56b9a7882413f7a9e36faf891e30f73324b0a7</t>
+          <t>0xd3eb25bef8c34ea489fb301d9d1223b6503407ba</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -10857,15 +10857,15 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>19522.45540842922</v>
+        <v>10413.1034064622</v>
       </c>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="H298" t="inlineStr"/>
@@ -10878,7 +10878,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>0xb759ca70078a4329c6c10600b18447ac3f7e0d7b</t>
+          <t>0xf1ef188243016897d4fd28412d86b7c3744524a2</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -10892,15 +10892,15 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>18351.34465556749</v>
+        <v>10299.97833067906</v>
       </c>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="H299" t="inlineStr"/>
@@ -10913,7 +10913,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>0xe5f8a81f072150701c25fba31c910884fa33098c</t>
+          <t>0xeaf69a6edb8cd48eead026d7940f3a534cc4a12e</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -10927,15 +10927,15 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>17935.83468703466</v>
+        <v>10216.2614838405</v>
       </c>
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="H300" t="inlineStr"/>
@@ -10948,7 +10948,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>0x691d5b76eae4ce3e9c8d1d82b3cb1ce26d175fa1</t>
+          <t>0xb38d3201c3848d815d2b99c1586bb2418fb3ec68</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -10962,15 +10962,15 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>17859.1439462071</v>
+        <v>10091.3003931166</v>
       </c>
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="H301" t="inlineStr"/>
@@ -10983,7 +10983,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>0x4b1e91fdcd95d514e20a62ab565661003efd6b71</t>
+          <t>0x78f7eeb741060a3d0c514a09558e1233af138fb1</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -10997,15 +10997,15 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>17774.24923551818</v>
+        <v>10080.55369077879</v>
       </c>
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="H302" t="inlineStr"/>
@@ -11018,7 +11018,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>0xe48afd826782880442c56719401b9e149f6add99</t>
+          <t>0xfb680c36ccebab9e53403b645fecc148c7ddc2bb</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -11032,999 +11032,19 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>17461.58458422824</v>
+        <v>10048.28210305291</v>
       </c>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>0x656faa1fc88ff4087c9523a211ea47b29f979a0f</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D304" t="n">
-        <v>17067.916966382</v>
-      </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="n">
-        <v>8</v>
-      </c>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>2023-09-26</t>
-        </is>
-      </c>
-      <c r="H304" t="inlineStr"/>
-      <c r="I304" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>0x46f2c3ce0c4c8b7ebb34809acaa1cc236b90dac4</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D305" t="n">
-        <v>16536.1111843352</v>
-      </c>
-      <c r="E305" t="inlineStr"/>
-      <c r="F305" t="n">
-        <v>4</v>
-      </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>2023-08-07</t>
-        </is>
-      </c>
-      <c r="H305" t="inlineStr"/>
-      <c r="I305" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>0x580895d47d90f211e638325604d53c0b2ff51e6f</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D306" t="n">
-        <v>16154.11010109266</v>
-      </c>
-      <c r="E306" t="inlineStr"/>
-      <c r="F306" t="n">
-        <v>9</v>
-      </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="H306" t="inlineStr"/>
-      <c r="I306" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>0xfc6832b25e135a9e7dd24cdf8eea0ab78c20c86f</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D307" t="n">
-        <v>15955.29753146497</v>
-      </c>
-      <c r="E307" t="inlineStr"/>
-      <c r="F307" t="n">
-        <v>3</v>
-      </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>2023-10-27</t>
-        </is>
-      </c>
-      <c r="H307" t="inlineStr"/>
-      <c r="I307" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>0x8b272dacabe8839d17abdb866dd40c48343fe27e</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D308" t="n">
-        <v>15872.77486055851</v>
-      </c>
-      <c r="E308" t="inlineStr"/>
-      <c r="F308" t="n">
-        <v>2</v>
-      </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>2023-12-20</t>
-        </is>
-      </c>
-      <c r="H308" t="inlineStr"/>
-      <c r="I308" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>0x1cbd4704f528cc2293b9822c6ed2eb52fdaaa845</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D309" t="n">
-        <v>15855.179380535</v>
-      </c>
-      <c r="E309" t="inlineStr"/>
-      <c r="F309" t="n">
-        <v>2</v>
-      </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>2023-11-14</t>
-        </is>
-      </c>
-      <c r="H309" t="inlineStr"/>
-      <c r="I309" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>0x20955cdaa26a20fd02c0a876612a37a6c6606c16</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D310" t="n">
-        <v>15436.98546361513</v>
-      </c>
-      <c r="E310" t="inlineStr"/>
-      <c r="F310" t="n">
-        <v>2</v>
-      </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>2023-08-07</t>
-        </is>
-      </c>
-      <c r="H310" t="inlineStr"/>
-      <c r="I310" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>0x0c50f80ad44e8ed621c40294119d4da0f5bcfa16</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D311" t="n">
-        <v>15337.62440608527</v>
-      </c>
-      <c r="E311" t="inlineStr"/>
-      <c r="F311" t="n">
-        <v>17</v>
-      </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="H311" t="inlineStr"/>
-      <c r="I311" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>0xba6de53ecca06c7b41cbbfd8d59a62f7acc5a5d4</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D312" t="n">
-        <v>14915.52549386872</v>
-      </c>
-      <c r="E312" t="inlineStr"/>
-      <c r="F312" t="n">
-        <v>2</v>
-      </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>2023-07-14</t>
-        </is>
-      </c>
-      <c r="H312" t="inlineStr"/>
-      <c r="I312" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>0x1733a52e5b33f85e2cc5ff81f6983e785d8cce3d</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D313" t="n">
-        <v>14653.41356242007</v>
-      </c>
-      <c r="E313" t="inlineStr"/>
-      <c r="F313" t="n">
-        <v>2</v>
-      </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>2024-01-03</t>
-        </is>
-      </c>
-      <c r="H313" t="inlineStr"/>
-      <c r="I313" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>0x45a61c5c4f59b1ba280eea84a1a8bfda368ded9d</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D314" t="n">
-        <v>14363.84449937526</v>
-      </c>
-      <c r="E314" t="inlineStr"/>
-      <c r="F314" t="n">
-        <v>12</v>
-      </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="H314" t="inlineStr"/>
-      <c r="I314" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>0x392e2dba91a260819e6736ef1ff6a0927845d746</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D315" t="n">
-        <v>14144.44901772263</v>
-      </c>
-      <c r="E315" t="inlineStr"/>
-      <c r="F315" t="n">
-        <v>3</v>
-      </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
-      <c r="H315" t="inlineStr"/>
-      <c r="I315" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>0xc44b0378e400a9958219ec8f294c23b9976e3c5d</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D316" t="n">
-        <v>13956.00081317908</v>
-      </c>
-      <c r="E316" t="inlineStr"/>
-      <c r="F316" t="n">
-        <v>5</v>
-      </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>2023-10-24</t>
-        </is>
-      </c>
-      <c r="H316" t="inlineStr"/>
-      <c r="I316" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>0x81a06ca0b9e1b47f5bf3037d448a505694faad84</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D317" t="n">
-        <v>13896.03768672427</v>
-      </c>
-      <c r="E317" t="inlineStr"/>
-      <c r="F317" t="n">
-        <v>7</v>
-      </c>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>2023-11-21</t>
-        </is>
-      </c>
-      <c r="H317" t="inlineStr"/>
-      <c r="I317" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>0xbc980bb5995f2c1f3c777dff918d21c811a61032</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D318" t="n">
-        <v>13876.40421022591</v>
-      </c>
-      <c r="E318" t="inlineStr"/>
-      <c r="F318" t="n">
-        <v>7</v>
-      </c>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="H318" t="inlineStr"/>
-      <c r="I318" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>0x8edc96828b04f2cae830db1e0dd5af530b017a98</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D319" t="n">
-        <v>13667.33186079849</v>
-      </c>
-      <c r="E319" t="inlineStr"/>
-      <c r="F319" t="n">
-        <v>11</v>
-      </c>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="H319" t="inlineStr"/>
-      <c r="I319" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>0xa4bf8f022485bf6d8e2deb70561e712fc874cd42</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D320" t="n">
-        <v>12651.23719192337</v>
-      </c>
-      <c r="E320" t="inlineStr"/>
-      <c r="F320" t="n">
-        <v>28</v>
-      </c>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>2024-01-03</t>
-        </is>
-      </c>
-      <c r="H320" t="inlineStr"/>
-      <c r="I320" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>0x042ca50b9f24956ffe73e082ec14e8466de4b1c0</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D321" t="n">
-        <v>12035.33782590135</v>
-      </c>
-      <c r="E321" t="inlineStr"/>
-      <c r="F321" t="n">
-        <v>7</v>
-      </c>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>2023-11-07</t>
-        </is>
-      </c>
-      <c r="H321" t="inlineStr"/>
-      <c r="I321" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>0x9a06f4041c1b088e536eee53dd8813ee0b9ad62c</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D322" t="n">
-        <v>11812.77933555771</v>
-      </c>
-      <c r="E322" t="inlineStr"/>
-      <c r="F322" t="n">
-        <v>6</v>
-      </c>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="H322" t="inlineStr"/>
-      <c r="I322" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>0x83cced5006ec03eb01e426ede7ce5abd9b11d664</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D323" t="n">
-        <v>11731.19925312239</v>
-      </c>
-      <c r="E323" t="inlineStr"/>
-      <c r="F323" t="n">
-        <v>6</v>
-      </c>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>2023-12-20</t>
-        </is>
-      </c>
-      <c r="H323" t="inlineStr"/>
-      <c r="I323" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>0xb536448700551feae97ac8d3123e735599c1c13b</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D324" t="n">
-        <v>11403.55303848761</v>
-      </c>
-      <c r="E324" t="inlineStr"/>
-      <c r="F324" t="n">
-        <v>10</v>
-      </c>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="H324" t="inlineStr"/>
-      <c r="I324" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>0x3c634d6b4fccffd3fbc77997edd98951ac344650</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D325" t="n">
-        <v>10735.13517287955</v>
-      </c>
-      <c r="E325" t="inlineStr"/>
-      <c r="F325" t="n">
-        <v>18</v>
-      </c>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
-      <c r="H325" t="inlineStr"/>
-      <c r="I325" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>0xd3eb25bef8c34ea489fb301d9d1223b6503407ba</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D326" t="n">
-        <v>10413.1034064622</v>
-      </c>
-      <c r="E326" t="inlineStr"/>
-      <c r="F326" t="n">
-        <v>4</v>
-      </c>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>2023-11-07</t>
-        </is>
-      </c>
-      <c r="H326" t="inlineStr"/>
-      <c r="I326" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>0xf1ef188243016897d4fd28412d86b7c3744524a2</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D327" t="n">
-        <v>10299.97833067906</v>
-      </c>
-      <c r="E327" t="inlineStr"/>
-      <c r="F327" t="n">
-        <v>8</v>
-      </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>2023-12-12</t>
-        </is>
-      </c>
-      <c r="H327" t="inlineStr"/>
-      <c r="I327" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>0xeaf69a6edb8cd48eead026d7940f3a534cc4a12e</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D328" t="n">
-        <v>10216.2614838405</v>
-      </c>
-      <c r="E328" t="inlineStr"/>
-      <c r="F328" t="n">
-        <v>6</v>
-      </c>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>2023-11-09</t>
-        </is>
-      </c>
-      <c r="H328" t="inlineStr"/>
-      <c r="I328" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>0xb38d3201c3848d815d2b99c1586bb2418fb3ec68</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D329" t="n">
-        <v>10091.3003931166</v>
-      </c>
-      <c r="E329" t="inlineStr"/>
-      <c r="F329" t="n">
-        <v>5</v>
-      </c>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>2023-11-05</t>
-        </is>
-      </c>
-      <c r="H329" t="inlineStr"/>
-      <c r="I329" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>0x78f7eeb741060a3d0c514a09558e1233af138fb1</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D330" t="n">
-        <v>10080.55369077879</v>
-      </c>
-      <c r="E330" t="inlineStr"/>
-      <c r="F330" t="n">
-        <v>2</v>
-      </c>
-      <c r="G330" t="inlineStr">
-        <is>
-          <t>2023-11-07</t>
-        </is>
-      </c>
-      <c r="H330" t="inlineStr"/>
-      <c r="I330" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>0xfb680c36ccebab9e53403b645fecc148c7ddc2bb</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D331" t="n">
-        <v>10048.28210305291</v>
-      </c>
-      <c r="E331" t="inlineStr"/>
-      <c r="F331" t="n">
-        <v>11</v>
-      </c>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>2023-10-12</t>
-        </is>
-      </c>
-      <c r="H331" t="inlineStr"/>
-      <c r="I331" t="inlineStr">
         <is>
           <t>active</t>
         </is>

--- a/dataset/traders_lvl.xlsx
+++ b/dataset/traders_lvl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I303"/>
+  <dimension ref="A1:I299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4621170131.556418</v>
+        <v>4621170131.556422</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>478343166.7731702</v>
+        <v>478343166.7731701</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>394009762.4110657</v>
+        <v>394009762.4110658</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>366714971.655717</v>
+        <v>366714971.6557171</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>196700003.1873432</v>
+        <v>196700003.187343</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>110401691.7125684</v>
+        <v>110401691.7125685</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>88564984.78691235</v>
+        <v>88564984.78691237</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>72727258.11910431</v>
+        <v>72727258.11910427</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>61861390.71942898</v>
+        <v>61861390.71942896</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>56111074.28672473</v>
+        <v>56111074.28672469</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>55248830.41280083</v>
+        <v>55248830.41280089</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>51599917.68913963</v>
+        <v>51599917.68913968</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>36537817.86002814</v>
+        <v>36537817.86002816</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>29116179.86068853</v>
+        <v>29116179.86068859</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
@@ -1267,15 +1267,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>25513597.91987545</v>
+        <v>25563529.36719795</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24754435.04816705</v>
+        <v>24754435.04816704</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>21610186.95081593</v>
+        <v>21610186.95081592</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19834694.10515553</v>
+        <v>19834694.10515552</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
@@ -1533,7 +1533,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0xb87f9e18d24cda96e69f088cc7f7735b1e68d7f3</t>
+          <t>0x677988c1d2d3a8a19467ec67a2b7ee55a05ad9d8</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1547,15 +1547,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>18723869.56750795</v>
+        <v>18867142.4220523</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0x677988c1d2d3a8a19467ec67a2b7ee55a05ad9d8</t>
+          <t>0xb87f9e18d24cda96e69f088cc7f7735b1e68d7f3</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1582,15 +1582,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>14312724.23489819</v>
+        <v>18723869.56750795</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>13600029.6156958</v>
+        <v>13600029.61569579</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
@@ -1652,15 +1652,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11921219.04554685</v>
+        <v>12141006.06049242</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1743,7 +1743,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0x87cb947d88e9ae755bb62d6aa39e57f0f1608114</t>
+          <t>0x9906cd623dbee156d8deee923733277f0e0ce196</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1757,15 +1757,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10446440.20162859</v>
+        <v>10586476.26932661</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>956</v>
+        <v>987</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -1778,7 +1778,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0xa3cc2d84296bb93234e1e3929ac66cd9a62573c3</t>
+          <t>0x87cb947d88e9ae755bb62d6aa39e57f0f1608114</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10146180.11611753</v>
+        <v>10446440.20162859</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>601</v>
+        <v>956</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1813,7 +1813,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0x00025b6e165654bc0931b2f29a66be4852e6011b</t>
+          <t>0xa3cc2d84296bb93234e1e3929ac66cd9a62573c3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1827,15 +1827,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>9447250.667830035</v>
+        <v>10146180.11611753</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>248</v>
+        <v>601</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -1848,7 +1848,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0x96794f03b3114f50b892b0dec79d753658c931ee</t>
+          <t>0x00025b6e165654bc0931b2f29a66be4852e6011b</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1862,15 +1862,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9365712.590815416</v>
+        <v>9447250.667830037</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>412</v>
+        <v>248</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -1883,7 +1883,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0x9906cd623dbee156d8deee923733277f0e0ce196</t>
+          <t>0x96794f03b3114f50b892b0dec79d753658c931ee</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1897,15 +1897,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9101072.106685627</v>
+        <v>9365712.590815423</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>897</v>
+        <v>412</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>7527903.058953378</v>
+        <v>7527903.058953369</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>7439378.09573337</v>
+        <v>7439378.095733374</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
@@ -2072,15 +2072,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>7281266.976691828</v>
+        <v>7348586.44908299</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>7031345.708495866</v>
+        <v>7031345.708495863</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
@@ -2142,15 +2142,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6703217.951408816</v>
+        <v>6704879.183683784</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6022652.169747964</v>
+        <v>6022652.169747965</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5843165.985846027</v>
+        <v>5843165.985846028</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>5129892.991811107</v>
+        <v>5129892.991811105</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4917051.358333153</v>
+        <v>4917051.35833315</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
@@ -2373,7 +2373,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0xdcd3f402043d3c708013de78f5d79d66950917bc</t>
+          <t>0xb82de7c797e4efd8b79fb42839b9624b17483d5a</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2387,15 +2387,15 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3891522.058500912</v>
+        <v>4666705.768087558</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2408,7 +2408,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0xb82de7c797e4efd8b79fb42839b9624b17483d5a</t>
+          <t>0xdcd3f402043d3c708013de78f5d79d66950917bc</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2422,15 +2422,15 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3853315.539729772</v>
+        <v>3891522.058500911</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2024-01-14</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3781617.186733632</v>
+        <v>3781617.186733631</v>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
@@ -2527,15 +2527,15 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3661995.997679897</v>
+        <v>3662963.344856983</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3518117.595130949</v>
+        <v>3518117.59513095</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
@@ -2597,7 +2597,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3444635.81399943</v>
+        <v>3444635.813999434</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
@@ -2632,15 +2632,15 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3231818.436481094</v>
+        <v>3255315.204149369</v>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2504977.719729781</v>
+        <v>2504977.719729783</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
@@ -2846,11 +2846,11 @@
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2438454.369743498</v>
+        <v>2438454.369743499</v>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="n">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2384956.107727956</v>
+        <v>2384956.107727955</v>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="n">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2306470.462918358</v>
+        <v>2306470.462918359</v>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2218235.034451468</v>
+        <v>2218235.034451467</v>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
@@ -3248,7 +3248,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0x23ebcd701fd92867235aeb0174b7c444b9b2b3ad</t>
+          <t>0x1733a52e5b33f85e2cc5ff81f6983e785d8cce3d</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3262,15 +3262,15 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1872904.207717794</v>
+        <v>1786239.56636264</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
-        <v>374</v>
+        <v>38</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -3437,7 +3437,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1540709.767129276</v>
+        <v>1540709.767129277</v>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
@@ -3913,7 +3913,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0x1733a52e5b33f85e2cc5ff81f6983e785d8cce3d</t>
+          <t>0x437e790f8ecb8a1ca83d0d5da04f2ad3a9004443</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3927,15 +3927,15 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>948331.2305847305</v>
+        <v>946475.3622989593</v>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -3948,7 +3948,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0x437e790f8ecb8a1ca83d0d5da04f2ad3a9004443</t>
+          <t>0xb6a7ddde101a440d224860871dfc20be9f4c7330</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3962,15 +3962,15 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>946475.3622989591</v>
+        <v>932938.9660731348</v>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -3983,7 +3983,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0xb6a7ddde101a440d224860871dfc20be9f4c7330</t>
+          <t>0x40e1ca7b92dcebd2bc6e08e14f1e65ebdc8e492d</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3997,15 +3997,15 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>932938.9660731347</v>
+        <v>908544.5105023807</v>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-10-21</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0x40e1ca7b92dcebd2bc6e08e14f1e65ebdc8e492d</t>
+          <t>0xa9b7a144260891c88f6ffb5b7d353ec39c6638a0</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4032,15 +4032,15 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>908544.5105023808</v>
+        <v>878164.4085023939</v>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2023-10-21</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -4053,7 +4053,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0xa9b7a144260891c88f6ffb5b7d353ec39c6638a0</t>
+          <t>0xd785558a15c67b6201d84ac586b219bd26e7dab5</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4067,15 +4067,15 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>878164.4085023942</v>
+        <v>876888.5559527903</v>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -4088,7 +4088,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0xd785558a15c67b6201d84ac586b219bd26e7dab5</t>
+          <t>0xbaf29dd60c5554a6f96f654588950f93b0a770af</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4102,15 +4102,15 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>876888.5559527897</v>
+        <v>862444.0725853541</v>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-10-21</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -4123,7 +4123,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0xbaf29dd60c5554a6f96f654588950f93b0a770af</t>
+          <t>0xd31e9aa2db47809dfc6ffdf05e46cfbc1aa5f468</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4137,15 +4137,15 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>862444.0725853539</v>
+        <v>860233.4766121951</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2023-10-21</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -4158,7 +4158,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0xd31e9aa2db47809dfc6ffdf05e46cfbc1aa5f468</t>
+          <t>0x72df34fb807a17371c19824d51b697e295ccccc6</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4172,15 +4172,15 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>860233.476612195</v>
+        <v>838556.9542132658</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
@@ -4193,7 +4193,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0x72df34fb807a17371c19824d51b697e295ccccc6</t>
+          <t>0x55d3ab24f818f37567acbc4b422a39f263f5fa39</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4207,15 +4207,15 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>838556.9542132658</v>
+        <v>804260.8802691686</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-10-20</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -4228,7 +4228,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0x55d3ab24f818f37567acbc4b422a39f263f5fa39</t>
+          <t>0x9385d9c4cadcddc5f0fd0d40225e79c9b1a007e3</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4242,15 +4242,15 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>804260.8802691692</v>
+        <v>796743.0747829645</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2023-10-20</t>
+          <t>2023-10-25</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0x9385d9c4cadcddc5f0fd0d40225e79c9b1a007e3</t>
+          <t>0x01e55d3a071df8645050cd3ed586f9f765d9e0ce</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4277,15 +4277,15 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>796743.0747829645</v>
+        <v>773264.6139818643</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2023-08-05</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -4298,7 +4298,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>0x01e55d3a071df8645050cd3ed586f9f765d9e0ce</t>
+          <t>0xc7d61a0f78902538925a71e2099036d7f4eb4535</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4312,15 +4312,15 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>773264.6139818642</v>
+        <v>745385.794815234</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2023-08-05</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -4333,7 +4333,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0xc7d61a0f78902538925a71e2099036d7f4eb4535</t>
+          <t>0x8afd6db86a54b425f0b7ab17badd6111e8e3fa31</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4347,15 +4347,15 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>745385.7948152339</v>
+        <v>704109.0591098638</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-09-10</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -4368,7 +4368,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0x8afd6db86a54b425f0b7ab17badd6111e8e3fa31</t>
+          <t>0x6a5f44d24dca8417db339203d9e07d23321f030b</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4382,15 +4382,15 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>704109.0591098637</v>
+        <v>693530.9484391443</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-12-23</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -4403,7 +4403,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0x6a5f44d24dca8417db339203d9e07d23321f030b</t>
+          <t>0x7194361efbbf32cdc1499816b4ea37dfae752e7a</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4417,15 +4417,15 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>693530.9484391439</v>
+        <v>674592.8278462676</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2023-12-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -4438,7 +4438,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0x7194361efbbf32cdc1499816b4ea37dfae752e7a</t>
+          <t>0xc07c56e8df0ec6e82d38f708037df9c8700891bd</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4452,15 +4452,15 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>674592.8278462675</v>
+        <v>669136.6806689829</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-07-30</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -4473,7 +4473,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0xc07c56e8df0ec6e82d38f708037df9c8700891bd</t>
+          <t>0xd7c443e9960c55fa217a5ac9564f10a58fc87551</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4487,15 +4487,15 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>669136.6806689829</v>
+        <v>653353.7037248631</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
-        <v>27</v>
+        <v>354</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2023-07-30</t>
+          <t>2023-12-02</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -4508,7 +4508,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>0xd7c443e9960c55fa217a5ac9564f10a58fc87551</t>
+          <t>0x2597c10df9e712c73925cf56d531e39a95309086</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4522,15 +4522,15 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>653353.7037248624</v>
+        <v>618571.5897730305</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>354</v>
+        <v>123</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2023-12-02</t>
+          <t>2023-12-24</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0x2597c10df9e712c73925cf56d531e39a95309086</t>
+          <t>0x1ccd5c3feafdf0f8f213cb715a3d58017d81a3c5</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4557,15 +4557,15 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>618571.5897730307</v>
+        <v>592653.6119499146</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2023-12-24</t>
+          <t>2023-09-10</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
@@ -4578,7 +4578,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0x1ccd5c3feafdf0f8f213cb715a3d58017d81a3c5</t>
+          <t>0xe432c5c72312c4eb69ca1b5009a2fb0a67633f6d</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4592,15 +4592,15 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>592653.6119499146</v>
+        <v>591359.5517974335</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="n">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -4613,7 +4613,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>0xe432c5c72312c4eb69ca1b5009a2fb0a67633f6d</t>
+          <t>0x42135eed1339759aefae8401c57bcd50e3eadc61</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4627,15 +4627,15 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>591359.5517974334</v>
+        <v>577838.5659567093</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
@@ -4648,7 +4648,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>0x42135eed1339759aefae8401c57bcd50e3eadc61</t>
+          <t>0x1cfa6b22788a528698c3371b1f96d0afd31097f0</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4662,15 +4662,15 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>577838.5659567094</v>
+        <v>555023.6765887382</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
@@ -4683,7 +4683,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0x1cfa6b22788a528698c3371b1f96d0afd31097f0</t>
+          <t>0xcda458e31eede9bae162eff222f1c84d784a2720</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4697,15 +4697,15 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>555023.6765887381</v>
+        <v>541510.1341594867</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
@@ -4718,7 +4718,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>0xcda458e31eede9bae162eff222f1c84d784a2720</t>
+          <t>0xcd9b041e2ddc83f465bfef63c50a3c88ad2d7d75</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4732,15 +4732,15 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>541510.1341594867</v>
+        <v>538456.624747271</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-10-25</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
@@ -4753,7 +4753,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>0xcd9b041e2ddc83f465bfef63c50a3c88ad2d7d75</t>
+          <t>0x0852dba413446b2fd8cc0e45c96b7f226b09e992</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4767,15 +4767,15 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>538456.624747271</v>
+        <v>532988.5334441244</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
@@ -4788,7 +4788,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>0x0852dba413446b2fd8cc0e45c96b7f226b09e992</t>
+          <t>0x6c57141535ef42ee1ce9fdca57d4a81929556c0b</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4802,15 +4802,15 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>532988.5334441243</v>
+        <v>525134.047326758</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="n">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -4823,7 +4823,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>0x6c57141535ef42ee1ce9fdca57d4a81929556c0b</t>
+          <t>0x35125efdbbb6e2f031f789e28324be8643e6caca</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4837,15 +4837,15 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>525134.047326758</v>
+        <v>510607.2545434866</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
@@ -4858,7 +4858,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>0x35125efdbbb6e2f031f789e28324be8643e6caca</t>
+          <t>0x00000000007cee88e01241c9db0a02b859db5b52</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4872,15 +4872,15 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>510607.2545434866</v>
+        <v>495204.008443746</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="n">
-        <v>46</v>
+        <v>594</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-12-25</t>
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0x00000000007cee88e01241c9db0a02b859db5b52</t>
+          <t>0xe805535dbae7529601cce37ba35ac1d5f65e9206</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4907,15 +4907,15 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>495204.008443746</v>
+        <v>494609.7566767381</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
-        <v>594</v>
+        <v>46</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2023-12-25</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -4928,7 +4928,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0xe4ae1a2c64bf7f522c7526d4884ac28b4fdface8</t>
+          <t>0x0b5ccffc42563973e7d2b5e7ea9d504b7e2c9124</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4942,15 +4942,15 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>469564.2219761604</v>
+        <v>492979.0223027612</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
@@ -4963,7 +4963,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>0x723b43b6dc19ce1fbf2aaa4402cd05eb6c38a1a5</t>
+          <t>0xe4ae1a2c64bf7f522c7526d4884ac28b4fdface8</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4977,15 +4977,15 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>468643.8807479066</v>
+        <v>469564.2219761602</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
@@ -4998,7 +4998,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>0xe805535dbae7529601cce37ba35ac1d5f65e9206</t>
+          <t>0x723b43b6dc19ce1fbf2aaa4402cd05eb6c38a1a5</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>468204.5517192947</v>
+        <v>468643.8807479065</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>466986.2394707312</v>
+        <v>466986.2394707311</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
@@ -5103,7 +5103,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>0x0b5ccffc42563973e7d2b5e7ea9d504b7e2c9124</t>
+          <t>0xefd36256e41a6478dec47bd0e62e10af3832dba2</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5117,15 +5117,15 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>462364.1984873902</v>
+        <v>458418.8012318444</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2023-08-08</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>0xefd36256e41a6478dec47bd0e62e10af3832dba2</t>
+          <t>0xf83f7fda18ed2100ab5b0e24dd49e81ead4b46a1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5152,15 +5152,15 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>458418.8012318447</v>
+        <v>457849.5155102179</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2023-08-08</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -5173,7 +5173,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0xf83f7fda18ed2100ab5b0e24dd49e81ead4b46a1</t>
+          <t>0x0e1c7fbc490b5731b95c6947ecf5296978896f96</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5187,15 +5187,15 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>457849.5155102178</v>
+        <v>433561.8952055909</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
@@ -5208,7 +5208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0x0e1c7fbc490b5731b95c6947ecf5296978896f96</t>
+          <t>0x83d4a08e59f8fc3c0bd852c6f5563b858dee08d0</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5222,15 +5222,15 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>433561.8952055907</v>
+        <v>388290.7673863336</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
@@ -5243,7 +5243,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0x83d4a08e59f8fc3c0bd852c6f5563b858dee08d0</t>
+          <t>0x44be220642590094c565757c4ceb69b71204c57e</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5257,15 +5257,15 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>388290.7673863337</v>
+        <v>370461.9567085109</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="H138" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0x44be220642590094c565757c4ceb69b71204c57e</t>
+          <t>0x111fbf7b389e024d09f35fb091d7d4479b321b0a</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5292,15 +5292,15 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>370461.9567085108</v>
+        <v>366836.806703443</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
@@ -5313,7 +5313,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0x28aff242466ddf490df9fb57c24ec5e534a21180</t>
+          <t>0x93fd330f0f0ce4e1d5dc355515b3048e4daed349</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5327,15 +5327,15 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>367785.2579869296</v>
+        <v>355258.8033920286</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
@@ -5348,7 +5348,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0x111fbf7b389e024d09f35fb091d7d4479b321b0a</t>
+          <t>0xfa713713b1acd89a00e6b35512161630d5ea90de</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5362,15 +5362,15 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>366836.8067034429</v>
+        <v>352868.4798009604</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="n">
-        <v>94</v>
+        <v>444</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="H141" t="inlineStr"/>
@@ -5383,7 +5383,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0x93fd330f0f0ce4e1d5dc355515b3048e4daed349</t>
+          <t>0x176e84be013ad9a459c0d1e8517d9be4d4bbe041</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5397,15 +5397,15 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>354242.124334632</v>
+        <v>351620.5734651388</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
@@ -5418,7 +5418,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>0xfa713713b1acd89a00e6b35512161630d5ea90de</t>
+          <t>0xbddbcbaa9cf9603b7055aad963506ede71692f12</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5432,15 +5432,15 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>352266.7328136447</v>
+        <v>322336.2936120798</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
-        <v>442</v>
+        <v>25</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H143" t="inlineStr"/>
@@ -5453,7 +5453,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0x176e84be013ad9a459c0d1e8517d9be4d4bbe041</t>
+          <t>0x382641c816efad6a49cf46fc7d912d77884e1208</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5467,15 +5467,15 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>351620.5734651388</v>
+        <v>314726.0318532867</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="H144" t="inlineStr"/>
@@ -5488,7 +5488,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0xbddbcbaa9cf9603b7055aad963506ede71692f12</t>
+          <t>0x658c1fcb2cfd518cc02359d6bd58c7305f96ae2f</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5502,15 +5502,15 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>322336.2936120798</v>
+        <v>294469.0705074406</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H145" t="inlineStr"/>
@@ -5523,7 +5523,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>0x382641c816efad6a49cf46fc7d912d77884e1208</t>
+          <t>0x4107a0a4a50ac2c4cc8c5a3954bc01ff134506b2</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5537,15 +5537,15 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>314726.0318532868</v>
+        <v>282002.097002448</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="H146" t="inlineStr"/>
@@ -5558,7 +5558,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0x658c1fcb2cfd518cc02359d6bd58c7305f96ae2f</t>
+          <t>0xc9ffafc6e58388f3092045f9639a533fa1338d3e</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5572,15 +5572,15 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>294469.0705074408</v>
+        <v>273842.1430775198</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="H147" t="inlineStr"/>
@@ -5593,7 +5593,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>0x4107a0a4a50ac2c4cc8c5a3954bc01ff134506b2</t>
+          <t>0x6912017cf6f8e5db4f3646ac1fd10de1ad3a879a</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5607,15 +5607,15 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>282002.097002448</v>
+        <v>272378.134245605</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="n">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
@@ -5628,7 +5628,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>0xc9ffafc6e58388f3092045f9639a533fa1338d3e</t>
+          <t>0xbb117d0ef5baaa244cfadcf2fa2e4b816d5c7782</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5642,15 +5642,15 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>273842.1430775198</v>
+        <v>269397.5659573358</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-19</t>
         </is>
       </c>
       <c r="H149" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0x6912017cf6f8e5db4f3646ac1fd10de1ad3a879a</t>
+          <t>0x55252a6d50bfad0e5f1009541284c783686f7f25</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5677,15 +5677,15 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>272378.134245605</v>
+        <v>263831.7998882063</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="H150" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>0xbb117d0ef5baaa244cfadcf2fa2e4b816d5c7782</t>
+          <t>0x85c5be9c005a993bdcdab666874f744bca300d6f</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5712,15 +5712,15 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>269397.5659573358</v>
+        <v>252094.9533496088</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2023-11-19</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="H151" t="inlineStr"/>
@@ -5733,7 +5733,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>0x4b84a8a002a8f5cb27a3ef9100b809b8472d7b22</t>
+          <t>0xe8fc77c8a63b80c27ee43aa4873fcb9b8950c77d</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5747,15 +5747,15 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>268743.6446698047</v>
+        <v>249288.0044588918</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2023-07-22</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="H152" t="inlineStr"/>
@@ -5768,7 +5768,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>0x55252a6d50bfad0e5f1009541284c783686f7f25</t>
+          <t>0x9b6fb024b0acb33dcc7c056d37da6e0f0ec91319</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5782,15 +5782,15 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>263831.7998882063</v>
+        <v>232893.8369804896</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="H153" t="inlineStr"/>
@@ -5803,7 +5803,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0x85c5be9c005a993bdcdab666874f744bca300d6f</t>
+          <t>0x11d67fa925877813b744abc0917900c2b1d6eb81</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5817,15 +5817,15 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>252094.9533496088</v>
+        <v>229547.8732826525</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="H154" t="inlineStr"/>
@@ -5838,7 +5838,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0xe8fc77c8a63b80c27ee43aa4873fcb9b8950c77d</t>
+          <t>0x8df9e9d15cb9cb0d793b079d43be8b0f739d2b22</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5852,15 +5852,15 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>249288.0044588918</v>
+        <v>229232.3928973374</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
@@ -5873,7 +5873,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0x9b6fb024b0acb33dcc7c056d37da6e0f0ec91319</t>
+          <t>0x2bdf1dcfd13d4f7e2c3d160e3d92aaf6a5e89150</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5887,15 +5887,15 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>232893.8369804896</v>
+        <v>228404.928123241</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="H156" t="inlineStr"/>
@@ -5908,7 +5908,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>0x11d67fa925877813b744abc0917900c2b1d6eb81</t>
+          <t>0xba28b3951c418656ce207071838edc3879da6f20</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5922,15 +5922,15 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>229547.8732826525</v>
+        <v>224744.6166414952</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="H157" t="inlineStr"/>
@@ -5943,7 +5943,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>0x8df9e9d15cb9cb0d793b079d43be8b0f739d2b22</t>
+          <t>0x87955903515c47c439ef42376c542625631f740f</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5957,15 +5957,15 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>229232.3928973374</v>
+        <v>218065.890290361</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="H158" t="inlineStr"/>
@@ -5978,7 +5978,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>0x2bdf1dcfd13d4f7e2c3d160e3d92aaf6a5e89150</t>
+          <t>0x2f5fa561a7c8e499b58184084569cab25d095101</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5992,15 +5992,15 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>228404.928123241</v>
+        <v>217144.4887530492</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="H159" t="inlineStr"/>
@@ -6013,7 +6013,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0xba28b3951c418656ce207071838edc3879da6f20</t>
+          <t>0x9c75e722dac0ee9ffe05fb2b85379586989e8fb9</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6027,15 +6027,15 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>224744.6166414952</v>
+        <v>214574.130280564</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="n">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="H160" t="inlineStr"/>
@@ -6048,7 +6048,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0x87955903515c47c439ef42376c542625631f740f</t>
+          <t>0x84f9c4a19d2f96e5907e3e89ada3ef6582ec71e9</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6062,15 +6062,15 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>218065.890290361</v>
+        <v>209502.1889945606</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-12-26</t>
         </is>
       </c>
       <c r="H161" t="inlineStr"/>
@@ -6083,7 +6083,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>0x2f5fa561a7c8e499b58184084569cab25d095101</t>
+          <t>0xa717cfda01dd5a725ba5a71781ef41136a5b3f90</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6097,15 +6097,15 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>217144.4887530492</v>
+        <v>201663.6138132405</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="H162" t="inlineStr"/>
@@ -6118,7 +6118,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0x9c75e722dac0ee9ffe05fb2b85379586989e8fb9</t>
+          <t>0x63e4dbd6c923c117d9ac67682c8f085498051459</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6132,11 +6132,11 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>214574.130280564</v>
+        <v>193980.5628862808</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>0x84f9c4a19d2f96e5907e3e89ada3ef6582ec71e9</t>
+          <t>0x065b5d3708ade81796b752c9ca3eab118082bc33</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -6167,15 +6167,15 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>209502.1889945606</v>
+        <v>192715.8531392825</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2023-12-26</t>
+          <t>2023-10-20</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
@@ -6188,7 +6188,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>0xa717cfda01dd5a725ba5a71781ef41136a5b3f90</t>
+          <t>0x63dbb29fbb4422aa3ddfd9ac9c3b50831d7b89bc</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -6202,15 +6202,15 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>201663.6138132405</v>
+        <v>190470.8356325573</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
@@ -6223,7 +6223,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>0x63e4dbd6c923c117d9ac67682c8f085498051459</t>
+          <t>0xf2e8666155003c8df650df6e6e1866810e81a391</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -6237,15 +6237,15 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>193980.5628862808</v>
+        <v>189871.6370466166</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
@@ -6258,7 +6258,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>0x065b5d3708ade81796b752c9ca3eab118082bc33</t>
+          <t>0xa3e6278f7264dbdb8d6e2154007b3d38640d2ffa</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -6272,15 +6272,15 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>192715.8531392825</v>
+        <v>186656.4826222246</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2023-10-20</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
@@ -6293,7 +6293,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>0x63dbb29fbb4422aa3ddfd9ac9c3b50831d7b89bc</t>
+          <t>0x0c147717115f077ac9865be06afcb399504ab21b</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -6307,15 +6307,15 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>190470.8356325574</v>
+        <v>185029.2702519305</v>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
@@ -6328,7 +6328,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>0xf2e8666155003c8df650df6e6e1866810e81a391</t>
+          <t>0x779e2524ae16687c35094638fd75e4695ff5034b</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -6342,15 +6342,15 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>189871.6370466166</v>
+        <v>176339.2817309956</v>
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
@@ -6363,7 +6363,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>0xa3e6278f7264dbdb8d6e2154007b3d38640d2ffa</t>
+          <t>0x6a6b085b746190c31a59154847cad38195a2ede0</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6377,15 +6377,15 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>186656.4826222246</v>
+        <v>169228.2301027725</v>
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-07-28</t>
         </is>
       </c>
       <c r="H170" t="inlineStr"/>
@@ -6398,7 +6398,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>0x0c147717115f077ac9865be06afcb399504ab21b</t>
+          <t>0x1aac8793b215641fbd46fbed2bb2248b2a85fd26</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6412,15 +6412,15 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>185029.2702519305</v>
+        <v>160864.8273205642</v>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="H171" t="inlineStr"/>
@@ -6433,7 +6433,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>0x779e2524ae16687c35094638fd75e4695ff5034b</t>
+          <t>0x32e76ce68901e81f6f4f3d0753215ec386c80dc5</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -6447,15 +6447,15 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>176339.2817309955</v>
+        <v>155664.5634209492</v>
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="H172" t="inlineStr"/>
@@ -6468,7 +6468,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>0x6a6b085b746190c31a59154847cad38195a2ede0</t>
+          <t>0x14075a8e667bfd92154ff24f92ecb96bc20abb20</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -6482,15 +6482,15 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>169228.2301027725</v>
+        <v>153330.7030594033</v>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2023-07-28</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="H173" t="inlineStr"/>
@@ -6503,7 +6503,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0x1aac8793b215641fbd46fbed2bb2248b2a85fd26</t>
+          <t>0xd0b5ac6a70a38ed8fade7ce09378ba668303a56f</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6517,15 +6517,15 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>160864.8273205642</v>
+        <v>148610.0451936511</v>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="H174" t="inlineStr"/>
@@ -6538,7 +6538,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0x32e76ce68901e81f6f4f3d0753215ec386c80dc5</t>
+          <t>0xed960af1cbf2e998749423293e9c24394bb53d2e</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6552,15 +6552,15 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>155664.5634209492</v>
+        <v>141380.6289885587</v>
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
@@ -6573,7 +6573,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>0x14075a8e667bfd92154ff24f92ecb96bc20abb20</t>
+          <t>0x09630235efea6ae3be2dc0dcc8e52df23ac54db3</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6587,15 +6587,15 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>153330.7030594033</v>
+        <v>133277.4615351627</v>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="H176" t="inlineStr"/>
@@ -6608,7 +6608,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>0xd0b5ac6a70a38ed8fade7ce09378ba668303a56f</t>
+          <t>0xf1299f0c0c3196806bd6cbd2a3eec6855c95c194</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6622,15 +6622,15 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>148610.0451936511</v>
+        <v>132501.5096502914</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H177" t="inlineStr"/>
@@ -6643,7 +6643,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>0xed960af1cbf2e998749423293e9c24394bb53d2e</t>
+          <t>0x8d755b5c09eadd74e88085b6937a342984b6186a</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6657,15 +6657,15 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>141380.6289885587</v>
+        <v>131562.161395067</v>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="n">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-10-26</t>
         </is>
       </c>
       <c r="H178" t="inlineStr"/>
@@ -6678,7 +6678,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>0x09630235efea6ae3be2dc0dcc8e52df23ac54db3</t>
+          <t>0x0816e9cf0fffefda927e3808090f032cd7f74808</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6692,15 +6692,15 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>133277.4615351627</v>
+        <v>125154.5532402569</v>
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="H179" t="inlineStr"/>
@@ -6713,7 +6713,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>0xf1299f0c0c3196806bd6cbd2a3eec6855c95c194</t>
+          <t>0x744f1013f400268161e7c51256b54157f66e3c20</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6727,15 +6727,15 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>132501.5096502914</v>
+        <v>124409.9186648404</v>
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="H180" t="inlineStr"/>
@@ -6748,7 +6748,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>0x8d755b5c09eadd74e88085b6937a342984b6186a</t>
+          <t>0x384e4bdfb72ffc505e5383b2218ca5e265ebf024</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6762,15 +6762,15 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>131562.161395067</v>
+        <v>122425.0978680615</v>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="H181" t="inlineStr"/>
@@ -6783,7 +6783,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>0x0816e9cf0fffefda927e3808090f032cd7f74808</t>
+          <t>0x32449f0f8f1774f8d1661b8992a50a27f91fa15c</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6797,15 +6797,15 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>125154.5532402569</v>
+        <v>122335.815893084</v>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="H182" t="inlineStr"/>
@@ -6818,7 +6818,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>0x744f1013f400268161e7c51256b54157f66e3c20</t>
+          <t>0xf238aa53d8a66dbefc0ba643e66a20a40986ad1a</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6832,11 +6832,11 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>124409.9186648404</v>
+        <v>114795.3427654725</v>
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>0x384e4bdfb72ffc505e5383b2218ca5e265ebf024</t>
+          <t>0x69cbb53e330db8a7244798c5eef99abf93ac173f</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6867,15 +6867,15 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>122425.0978680615</v>
+        <v>114376.09832937</v>
       </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="n">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2023-12-13</t>
         </is>
       </c>
       <c r="H184" t="inlineStr"/>
@@ -6888,7 +6888,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>0x32449f0f8f1774f8d1661b8992a50a27f91fa15c</t>
+          <t>0xbd59b9caff61612fcdca1198883b03005086c01f</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6902,15 +6902,15 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>122335.815893084</v>
+        <v>113844.3334538641</v>
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="H185" t="inlineStr"/>
@@ -6923,7 +6923,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>0xf238aa53d8a66dbefc0ba643e66a20a40986ad1a</t>
+          <t>0x4214793221d253482beb406d1f76b657a0bdb374</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6937,15 +6937,15 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>114795.3427654724</v>
+        <v>107412.0063452221</v>
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="H186" t="inlineStr"/>
@@ -6958,7 +6958,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>0x69cbb53e330db8a7244798c5eef99abf93ac173f</t>
+          <t>0x884cae257155708d0a0830171185e8da12086d67</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6972,15 +6972,15 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>114376.09832937</v>
+        <v>107066.5939536994</v>
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2023-12-13</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H187" t="inlineStr"/>
@@ -6993,7 +6993,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>0xbd59b9caff61612fcdca1198883b03005086c01f</t>
+          <t>0x62223bb2a4781c9512e5b78cef1655d1d9cd216d</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -7007,15 +7007,15 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>113844.3334538641</v>
+        <v>103810.8538979125</v>
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-11-30</t>
         </is>
       </c>
       <c r="H188" t="inlineStr"/>
@@ -7028,7 +7028,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>0x4214793221d253482beb406d1f76b657a0bdb374</t>
+          <t>0x7e374cbb230591d5406ce52233187e39a2a86aed</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -7042,15 +7042,15 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>107412.0063452221</v>
+        <v>102546.8882567504</v>
       </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="H189" t="inlineStr"/>
@@ -7063,7 +7063,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>0x884cae257155708d0a0830171185e8da12086d67</t>
+          <t>0x5da02702fa4fa802affd9d8736c7ec1991873801</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -7077,15 +7077,15 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>107066.5939536994</v>
+        <v>101570.4552731452</v>
       </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="H190" t="inlineStr"/>
@@ -7098,7 +7098,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>0x62223bb2a4781c9512e5b78cef1655d1d9cd216d</t>
+          <t>0x0a50d910f722a4c8c265c161f16037f24b0aad2c</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>103810.8538979125</v>
+        <v>101325.3542034727</v>
       </c>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="n">
@@ -7120,7 +7120,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="H191" t="inlineStr"/>
@@ -7133,7 +7133,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>0x7e374cbb230591d5406ce52233187e39a2a86aed</t>
+          <t>0xaded8d8d71a2814134ffdf4a3b8443863fde2230</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -7147,15 +7147,15 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>102546.8882567504</v>
+        <v>96085.3734396691</v>
       </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="H192" t="inlineStr"/>
@@ -7168,7 +7168,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>0x5da02702fa4fa802affd9d8736c7ec1991873801</t>
+          <t>0x594abfeae5943e2d47e019939b5257eae38222d7</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -7182,11 +7182,11 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>101570.4552731451</v>
+        <v>93623.58105203691</v>
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>0x0a50d910f722a4c8c265c161f16037f24b0aad2c</t>
+          <t>0x435d8870ea24d8998fb884d9bda4d88bc93c6360</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7217,15 +7217,15 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>101325.3542034727</v>
+        <v>93582.38252984747</v>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="H194" t="inlineStr"/>
@@ -7238,7 +7238,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>0xaded8d8d71a2814134ffdf4a3b8443863fde2230</t>
+          <t>0xf3454674781353aff95c79538733251f7d5b8635</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7252,15 +7252,15 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>96085.3734396691</v>
+        <v>91764.7343617765</v>
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-07-31</t>
         </is>
       </c>
       <c r="H195" t="inlineStr"/>
@@ -7273,7 +7273,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>0x594abfeae5943e2d47e019939b5257eae38222d7</t>
+          <t>0x8193b8a8044eeb157bb800909b3d931dbaae08e9</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7287,15 +7287,15 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>93623.5810520369</v>
+        <v>88660.50911158459</v>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="H196" t="inlineStr"/>
@@ -7308,7 +7308,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>0x435d8870ea24d8998fb884d9bda4d88bc93c6360</t>
+          <t>0x5722d71e78291a582d01f08579e92fe0b85705e6</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7322,15 +7322,15 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>93582.38252984747</v>
+        <v>87832.42025863043</v>
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="H197" t="inlineStr"/>
@@ -7343,7 +7343,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>0xf3454674781353aff95c79538733251f7d5b8635</t>
+          <t>0x89822746c2e63b39eb9d3bb3af86f6c4f4a5d09d</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -7357,15 +7357,15 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>91764.73436177653</v>
+        <v>84991.11482944085</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2023-07-31</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
@@ -7378,7 +7378,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>0x8193b8a8044eeb157bb800909b3d931dbaae08e9</t>
+          <t>0x5d0c83a6bd7bf1986e5519c766f6568d2b390de0</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -7392,15 +7392,15 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>88660.5091115846</v>
+        <v>83188.27545056278</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="H199" t="inlineStr"/>
@@ -7413,7 +7413,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>0x5722d71e78291a582d01f08579e92fe0b85705e6</t>
+          <t>0xa17ca847f65f57926e1304a26d7307cd32adf940</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>87832.42025863042</v>
+        <v>81908.45039602136</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="n">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="H200" t="inlineStr"/>
@@ -7448,7 +7448,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>0x89822746c2e63b39eb9d3bb3af86f6c4f4a5d09d</t>
+          <t>0x2481f3e5c0c8339cdbe585e54df96b85d0193423</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -7462,15 +7462,15 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>84991.11482944083</v>
+        <v>78690.72083458431</v>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="H201" t="inlineStr"/>
@@ -7483,7 +7483,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>0x5d0c83a6bd7bf1986e5519c766f6568d2b390de0</t>
+          <t>0x1b6c52e8ce5986e15d72c113b98f819f89a13477</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -7497,15 +7497,15 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>83188.27545056277</v>
+        <v>76146.42256786452</v>
       </c>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>2023-12-06</t>
+          <t>2023-10-25</t>
         </is>
       </c>
       <c r="H202" t="inlineStr"/>
@@ -7518,7 +7518,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>0xa17ca847f65f57926e1304a26d7307cd32adf940</t>
+          <t>0xc27d980b71d5978f8b6de9e1ba01ed001d8760d3</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -7532,15 +7532,15 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>81908.45039602135</v>
+        <v>76122.5376567561</v>
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="H203" t="inlineStr"/>
@@ -7553,7 +7553,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>0x2481f3e5c0c8339cdbe585e54df96b85d0193423</t>
+          <t>0x758567401325eca3632ac74a6ace4308a15bce36</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -7567,15 +7567,15 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>78690.72083458431</v>
+        <v>75338.83841776387</v>
       </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="n">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="H204" t="inlineStr"/>
@@ -7588,7 +7588,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>0x1b6c52e8ce5986e15d72c113b98f819f89a13477</t>
+          <t>0xa5ab6287573efc7e2597efd25faddd9df4689986</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -7602,15 +7602,15 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>76146.42256786452</v>
+        <v>73410.32231318747</v>
       </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
@@ -7623,7 +7623,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>0xc27d980b71d5978f8b6de9e1ba01ed001d8760d3</t>
+          <t>0xc0c54ea31065c46cd97e2918b5ad32bf220ec97d</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -7637,15 +7637,15 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>76122.53765675612</v>
+        <v>71355.65780128204</v>
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-08</t>
         </is>
       </c>
       <c r="H206" t="inlineStr"/>
@@ -7658,7 +7658,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>0x758567401325eca3632ac74a6ace4308a15bce36</t>
+          <t>0x29d7abaa0137375d542ef2442b6a11c054b03940</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -7672,15 +7672,15 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>75338.83841776385</v>
+        <v>69438.37573101131</v>
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="n">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H207" t="inlineStr"/>
@@ -7693,7 +7693,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>0xa5ab6287573efc7e2597efd25faddd9df4689986</t>
+          <t>0x25088e982e0334d30db05b9b38ea259dfc217d08</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -7707,15 +7707,15 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>73410.32231318747</v>
+        <v>68747.0296405714</v>
       </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="H208" t="inlineStr"/>
@@ -7728,7 +7728,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>0xc0c54ea31065c46cd97e2918b5ad32bf220ec97d</t>
+          <t>0x0d8e6b2063ba3a3ff25c27dc8231f063793ea563</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -7742,15 +7742,15 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>71355.65780128204</v>
+        <v>67239.23709532738</v>
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2023-10-08</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="H209" t="inlineStr"/>
@@ -7763,7 +7763,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>0x29d7abaa0137375d542ef2442b6a11c054b03940</t>
+          <t>0x222723c26baa6d4d90d735df553400523310c018</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -7777,15 +7777,15 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>69438.37573101133</v>
+        <v>67143.10508878148</v>
       </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="H210" t="inlineStr"/>
@@ -7798,7 +7798,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>0x25088e982e0334d30db05b9b38ea259dfc217d08</t>
+          <t>0x92c845c7021491902b46cc863f644c2bbef27706</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -7812,15 +7812,15 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>68747.0296405714</v>
+        <v>67073.68179799251</v>
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="n">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H211" t="inlineStr"/>
@@ -7833,7 +7833,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>0x0d8e6b2063ba3a3ff25c27dc8231f063793ea563</t>
+          <t>0xdd032c4672591d73d5bbea8ff1909a9088792eb4</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -7847,15 +7847,15 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>67239.23709532738</v>
+        <v>65602.39658083901</v>
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="H212" t="inlineStr"/>
@@ -7868,7 +7868,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>0x222723c26baa6d4d90d735df553400523310c018</t>
+          <t>0x933dee016651904656b46e82c74b423d264668fa</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -7882,15 +7882,15 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>67143.10508878148</v>
+        <v>63689.7826286914</v>
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="H213" t="inlineStr"/>
@@ -7903,7 +7903,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>0x92c845c7021491902b46cc863f644c2bbef27706</t>
+          <t>0xc365d1f84f74b8b5c74accac1600c21fd8874cab</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -7917,15 +7917,15 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>67073.68179799255</v>
+        <v>58651.60548993568</v>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="n">
-        <v>222</v>
+        <v>2</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H214" t="inlineStr"/>
@@ -7938,7 +7938,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>0xdd032c4672591d73d5bbea8ff1909a9088792eb4</t>
+          <t>0x6fb4ad9e01f9a624d3665bb0f93e7966ae8a51d2</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -7952,15 +7952,15 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>65602.39658083901</v>
+        <v>58149.45410800091</v>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="n">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="H215" t="inlineStr"/>
@@ -7973,7 +7973,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>0x933dee016651904656b46e82c74b423d264668fa</t>
+          <t>0xb268301948a444cc4beeb57b78a721dc9d7e8493</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -7987,15 +7987,15 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>63689.7826286914</v>
+        <v>57826.56231253307</v>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="H216" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>0xc365d1f84f74b8b5c74accac1600c21fd8874cab</t>
+          <t>0xa57e5b9611db03cd47509053a040f039f9f17119</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>58651.60548993568</v>
+        <v>56344.62903335871</v>
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="n">
@@ -8030,7 +8030,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="H217" t="inlineStr"/>
@@ -8043,7 +8043,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>0xb268301948a444cc4beeb57b78a721dc9d7e8493</t>
+          <t>0xc28e23e7d7d6cc0c9c6f08146c71e7d168cae45a</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -8057,15 +8057,15 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>57826.56231253307</v>
+        <v>55255.89225908471</v>
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="H218" t="inlineStr"/>
@@ -8078,7 +8078,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>0x6fb4ad9e01f9a624d3665bb0f93e7966ae8a51d2</t>
+          <t>0xc5f2b0742d7b9ace2e7e278e010e75d193cd21a5</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -8092,15 +8092,15 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>56885.01696300012</v>
+        <v>54903.97860556202</v>
       </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="n">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="H219" t="inlineStr"/>
@@ -8113,7 +8113,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>0xa57e5b9611db03cd47509053a040f039f9f17119</t>
+          <t>0xf137eee9784ddc161ad6831babcdced4ac788c91</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -8127,15 +8127,15 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>56344.62903335871</v>
+        <v>54453.08724025525</v>
       </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="H220" t="inlineStr"/>
@@ -8148,7 +8148,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>0xc28e23e7d7d6cc0c9c6f08146c71e7d168cae45a</t>
+          <t>0x0f7c8669771d711486379a9a0445d21a35626d9c</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -8162,15 +8162,15 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>55255.89225908471</v>
+        <v>53907.99428816992</v>
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-11-16</t>
         </is>
       </c>
       <c r="H221" t="inlineStr"/>
@@ -8183,7 +8183,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>0xf137eee9784ddc161ad6831babcdced4ac788c91</t>
+          <t>0x84e770cf8914dc1336b13898131c804a90d68501</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -8197,15 +8197,15 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>54453.08724025524</v>
+        <v>51782.95306438683</v>
       </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="H222" t="inlineStr"/>
@@ -8218,7 +8218,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>0x0f7c8669771d711486379a9a0445d21a35626d9c</t>
+          <t>0x8b7a6fec5c6638c1d667ef8126b457fec09376eb</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>53907.99428816991</v>
+        <v>51564.40760234917</v>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="H223" t="inlineStr"/>
@@ -8253,7 +8253,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>0xc5f2b0742d7b9ace2e7e278e010e75d193cd21a5</t>
+          <t>0x85ceadc73a7435078d9bf8f5b54fec5baeb9676d</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -8267,15 +8267,15 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>53433.45743087116</v>
+        <v>51190.52513049851</v>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2024-01-14</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
@@ -8288,7 +8288,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>0x84e770cf8914dc1336b13898131c804a90d68501</t>
+          <t>0x1f0c6d5f95b21eddcb6d45350629b6c6b15803be</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -8302,15 +8302,15 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>51782.95306438683</v>
+        <v>51099.22136322776</v>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="H225" t="inlineStr"/>
@@ -8323,7 +8323,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>0xe7c3a5c9b1d3b8a3f20e71f3a1b7a8a358772b4d</t>
+          <t>0xf5e6fc86d0cb1c85fdfda859237868d3df966017</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -8337,15 +8337,15 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>51657.84695057206</v>
+        <v>50090.17859465365</v>
       </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>2023-07-22</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="H226" t="inlineStr"/>
@@ -8358,7 +8358,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>0x8b7a6fec5c6638c1d667ef8126b457fec09376eb</t>
+          <t>0x037ed1c0cd972dc9947d113a2b51acb3ca06269d</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -8372,15 +8372,15 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>51564.40760234917</v>
+        <v>49573.3612563576</v>
       </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-10-22</t>
         </is>
       </c>
       <c r="H227" t="inlineStr"/>
@@ -8393,7 +8393,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>0x85ceadc73a7435078d9bf8f5b54fec5baeb9676d</t>
+          <t>0x2dc547772fdef7453bb97b6188d5f8b7ec6579b6</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -8407,15 +8407,15 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>51190.52513049851</v>
+        <v>46855.54521786293</v>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="H228" t="inlineStr"/>
@@ -8428,7 +8428,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>0x1f0c6d5f95b21eddcb6d45350629b6c6b15803be</t>
+          <t>0x7c24d0e9d2a5e3f122b3321051d71e710c23b84a</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -8442,15 +8442,15 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>51099.22136322776</v>
+        <v>46637.39632952696</v>
       </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="H229" t="inlineStr"/>
@@ -8463,7 +8463,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>0xf5e6fc86d0cb1c85fdfda859237868d3df966017</t>
+          <t>0x708f741b5fa76c9f4a70355207b4f0226ce265f3</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -8477,15 +8477,15 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>50090.17859465365</v>
+        <v>44930.35569457441</v>
       </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="H230" t="inlineStr"/>
@@ -8498,7 +8498,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>0x037ed1c0cd972dc9947d113a2b51acb3ca06269d</t>
+          <t>0x5f2bdde532a1bcd9a5f1844a64341ba788be3b05</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -8512,15 +8512,15 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>49573.3612563576</v>
+        <v>44543.92231071807</v>
       </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2023-10-22</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="H231" t="inlineStr"/>
@@ -8533,7 +8533,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>0x2dc547772fdef7453bb97b6188d5f8b7ec6579b6</t>
+          <t>0xad215b7a7817e86dc5cb43a3f31d4704890bf40f</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -8547,15 +8547,15 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>46855.54521786292</v>
+        <v>44121.64917362592</v>
       </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="H232" t="inlineStr"/>
@@ -8568,7 +8568,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>0x7c24d0e9d2a5e3f122b3321051d71e710c23b84a</t>
+          <t>0x0edae34a23456bfa9ff2dad27ba50e4f4c592a16</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -8582,15 +8582,15 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>46637.39632952696</v>
+        <v>43887.89821349819</v>
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="H233" t="inlineStr"/>
@@ -8603,7 +8603,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>0x708f741b5fa76c9f4a70355207b4f0226ce265f3</t>
+          <t>0xe5845761e7773976055f2559ca54be41f09d9e88</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -8617,15 +8617,15 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>44930.35569457441</v>
+        <v>43782.15738183271</v>
       </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="n">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="H234" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>0xead34bb5d6cb7876235526d808205ea35152c53e</t>
+          <t>0xa86de15e2b5f966e1c7e38ed5356f6cc3da9a24f</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -8652,15 +8652,15 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>44348.67590292469</v>
+        <v>41214.25771485171</v>
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="H235" t="inlineStr"/>
@@ -8673,7 +8673,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>0xad215b7a7817e86dc5cb43a3f31d4704890bf40f</t>
+          <t>0x5f958658f069f068d051faf0e2ad7c98e96b6afa</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -8687,15 +8687,15 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>44121.64917362593</v>
+        <v>40737.70907582063</v>
       </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="n">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="H236" t="inlineStr"/>
@@ -8708,7 +8708,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>0x0edae34a23456bfa9ff2dad27ba50e4f4c592a16</t>
+          <t>0x0ce3f106e3d9caef708bb45dc8f4a690167ab660</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>43887.89821349819</v>
+        <v>39684.72441525539</v>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="n">
@@ -8730,7 +8730,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="H237" t="inlineStr"/>
@@ -8743,7 +8743,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>0xe5845761e7773976055f2559ca54be41f09d9e88</t>
+          <t>0x50cb3c7b8eac3b33d4f1e2cb245437c68d27b726</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -8757,15 +8757,15 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>43782.15738183272</v>
+        <v>39389.23107928567</v>
       </c>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="H238" t="inlineStr"/>
@@ -8778,7 +8778,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>0x5f2bdde532a1bcd9a5f1844a64341ba788be3b05</t>
+          <t>0xbbbf2217ca210357e96e97a82ef2f9fad84d82c5</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -8792,15 +8792,15 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>43139.93830575926</v>
+        <v>37896.27158962301</v>
       </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2023-10-21</t>
         </is>
       </c>
       <c r="H239" t="inlineStr"/>
@@ -8813,7 +8813,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>0xa86de15e2b5f966e1c7e38ed5356f6cc3da9a24f</t>
+          <t>0x997586544a1ef3505bf268de838a6ec1eaebd427</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -8827,15 +8827,15 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>41214.25771485172</v>
+        <v>37166.69204260781</v>
       </c>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
@@ -8848,7 +8848,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>0x5f958658f069f068d051faf0e2ad7c98e96b6afa</t>
+          <t>0x0ba107ae92eb8b3835790195f5bd1cb0a6b5cbe7</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -8862,11 +8862,11 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>39997.22470922616</v>
+        <v>35701.74509338375</v>
       </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="n">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>0x0ce3f106e3d9caef708bb45dc8f4a690167ab660</t>
+          <t>0x72027b03509d566047bea2cb3f1bbf22742f5a7e</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -8897,15 +8897,15 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>39684.72441525539</v>
+        <v>34992.46067336755</v>
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="H242" t="inlineStr"/>
@@ -8918,7 +8918,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>0x50cb3c7b8eac3b33d4f1e2cb245437c68d27b726</t>
+          <t>0x58eb17eb1b986ce884344766689e7aefa88ed3af</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -8932,15 +8932,15 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>39389.23107928567</v>
+        <v>34104.16701232029</v>
       </c>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
@@ -8953,7 +8953,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>0xbbbf2217ca210357e96e97a82ef2f9fad84d82c5</t>
+          <t>0xba260bcc7f8beb65874e81e046f8dc894837c20e</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -8967,15 +8967,15 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>37896.27158962301</v>
+        <v>32528.01245072761</v>
       </c>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2023-10-21</t>
+          <t>2024-01-07</t>
         </is>
       </c>
       <c r="H244" t="inlineStr"/>
@@ -8988,7 +8988,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>0x3495b71b1d18bd47f1ae0f9a4cea6ad8f25fe0e1</t>
+          <t>0x7ddb95fa83da7d6ad3910fe5edb33a04920abbbb</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -9002,15 +9002,15 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>36089.84763110131</v>
+        <v>31229.33723756728</v>
       </c>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="H245" t="inlineStr"/>
@@ -9023,7 +9023,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>0x0ba107ae92eb8b3835790195f5bd1cb0a6b5cbe7</t>
+          <t>0x9699672b32a3a1762e6de67dd2b3e41b6eef58ae</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -9037,15 +9037,15 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>35701.74509338375</v>
+        <v>30957.9790284799</v>
       </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="H246" t="inlineStr"/>
@@ -9058,7 +9058,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>0x72027b03509d566047bea2cb3f1bbf22742f5a7e</t>
+          <t>0xdef01332c7f8305dee80b6d48657cc8db7ce9ca5</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -9072,15 +9072,15 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>34992.46067336755</v>
+        <v>30121.39392251793</v>
       </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="H247" t="inlineStr"/>
@@ -9093,7 +9093,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>0x58eb17eb1b986ce884344766689e7aefa88ed3af</t>
+          <t>0x8f25818ff64be1abee91abca70c306b33b602062</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -9107,15 +9107,15 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>34104.16701232029</v>
+        <v>29943.1021460355</v>
       </c>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="H248" t="inlineStr"/>
@@ -9128,7 +9128,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>0xba260bcc7f8beb65874e81e046f8dc894837c20e</t>
+          <t>0x7f37d9a32241657ca0681361ea8d73e15b17787e</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -9142,15 +9142,15 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>32528.01245072761</v>
+        <v>28926.4063625092</v>
       </c>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>2024-01-07</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="H249" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>0x7ddb95fa83da7d6ad3910fe5edb33a04920abbbb</t>
+          <t>0xd6a430b25b12e39dcc01edf5c84a860d27777777</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -9177,15 +9177,15 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>31229.33723756728</v>
+        <v>28567.51295440687</v>
       </c>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-12-26</t>
         </is>
       </c>
       <c r="H250" t="inlineStr"/>
@@ -9198,7 +9198,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>0x9699672b32a3a1762e6de67dd2b3e41b6eef58ae</t>
+          <t>0x07642ebf66dafa1f13d40f5a9e92a8bae98a03ab</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -9212,15 +9212,15 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>30957.9790284799</v>
+        <v>28489.42328773871</v>
       </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="H251" t="inlineStr"/>
@@ -9233,7 +9233,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>0xdef01332c7f8305dee80b6d48657cc8db7ce9ca5</t>
+          <t>0xf087cbf7a233540d46c9c15e9a5101a2da5a6eb7</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -9247,15 +9247,15 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>30121.39392251793</v>
+        <v>28224.20275477675</v>
       </c>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="H252" t="inlineStr"/>
@@ -9268,7 +9268,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>0x8f25818ff64be1abee91abca70c306b33b602062</t>
+          <t>0x8b272dacabe8839d17abdb866dd40c48343fe27e</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -9282,15 +9282,15 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>29943.1021460355</v>
+        <v>27848.82276475013</v>
       </c>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="H253" t="inlineStr"/>
@@ -9303,7 +9303,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>0x7f37d9a32241657ca0681361ea8d73e15b17787e</t>
+          <t>0x5687e60393897d95ee65ddfc73e389b0c922d397</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -9317,15 +9317,15 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>28926.4063625092</v>
+        <v>27527.0553024</v>
       </c>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="H254" t="inlineStr"/>
@@ -9338,7 +9338,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>0xd6a430b25b12e39dcc01edf5c84a860d27777777</t>
+          <t>0x12d14464118089ec31b3cc642af2852f4d460ad2</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>28567.51295440687</v>
+        <v>27267.03423161543</v>
       </c>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>2023-12-26</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="H255" t="inlineStr"/>
@@ -9373,7 +9373,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>0xf087cbf7a233540d46c9c15e9a5101a2da5a6eb7</t>
+          <t>0xcba35d14246eff555029e7e349bec5720b565eaa</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -9387,15 +9387,15 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>28224.20275477675</v>
+        <v>26265.3642462694</v>
       </c>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="H256" t="inlineStr"/>
@@ -9408,7 +9408,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>0x5687e60393897d95ee65ddfc73e389b0c922d397</t>
+          <t>0x4ffc5f22770ab6046c8d66dabae3a9cd1e7a03e7</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -9422,15 +9422,15 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>27527.0553024</v>
+        <v>25853.47140073002</v>
       </c>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="H257" t="inlineStr"/>
@@ -9443,7 +9443,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>0x12d14464118089ec31b3cc642af2852f4d460ad2</t>
+          <t>0x8603213d82723613021c6454832b64a24de3b8bc</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -9457,15 +9457,15 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>27267.03423161543</v>
+        <v>25527.9368731031</v>
       </c>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="H258" t="inlineStr"/>
@@ -9478,7 +9478,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>0xcba35d14246eff555029e7e349bec5720b565eaa</t>
+          <t>0xe23153547ff13b61af1c8e7d518b5c13527c93bc</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -9492,15 +9492,15 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>26265.3642462694</v>
+        <v>23666.50413814431</v>
       </c>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="H259" t="inlineStr"/>
@@ -9513,7 +9513,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>0x4ffc5f22770ab6046c8d66dabae3a9cd1e7a03e7</t>
+          <t>0xd8b75eb7bd778ac0b3f5ffad69bcc2e25bccac95</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -9527,15 +9527,15 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>25853.47140073002</v>
+        <v>22738.22475202813</v>
       </c>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="H260" t="inlineStr"/>
@@ -9548,7 +9548,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>0x8603213d82723613021c6454832b64a24de3b8bc</t>
+          <t>0x6442b001c5acce8cb71986ad65b22684821a927a</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -9562,15 +9562,15 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>25527.9368731031</v>
+        <v>22214.04722321258</v>
       </c>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="n">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="H261" t="inlineStr"/>
@@ -9583,7 +9583,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>0x8b272dacabe8839d17abdb866dd40c48343fe27e</t>
+          <t>0xd0ffeb96e4e9d1a4de008a2fd5a9c416d7ce048f</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -9597,15 +9597,15 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>23856.80679668625</v>
+        <v>21885.32262696238</v>
       </c>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="H262" t="inlineStr"/>
@@ -9618,7 +9618,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>0xd8b75eb7bd778ac0b3f5ffad69bcc2e25bccac95</t>
+          <t>0x9fe57eb65d17177a069331e7d2746df602f538d3</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -9632,15 +9632,15 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>22738.22475202813</v>
+        <v>21163.02236969611</v>
       </c>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="H263" t="inlineStr"/>
@@ -9653,7 +9653,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>0x6442b001c5acce8cb71986ad65b22684821a927a</t>
+          <t>0x7e34821010f18d1b2341a4856b5ed8bc7cdb6507</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -9667,15 +9667,15 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>22214.04722321259</v>
+        <v>20996.49658432349</v>
       </c>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="n">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="H264" t="inlineStr"/>
@@ -9688,7 +9688,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>0xd0ffeb96e4e9d1a4de008a2fd5a9c416d7ce048f</t>
+          <t>0xa34165858aa5c8518aaa0496de1c8ebd6351f4bf</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -9702,15 +9702,15 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>21885.32262696238</v>
+        <v>20218.21730379842</v>
       </c>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="H265" t="inlineStr"/>
@@ -9723,7 +9723,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>0x07642ebf66dafa1f13d40f5a9e92a8bae98a03ab</t>
+          <t>0x401efc335b3266abe4418c3f6be396bdc7043e66</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -9737,7 +9737,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>21732.98944049987</v>
+        <v>19802.17822970368</v>
       </c>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="n">
@@ -9745,7 +9745,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="H266" t="inlineStr"/>
@@ -9758,7 +9758,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>0x9fe57eb65d17177a069331e7d2746df602f538d3</t>
+          <t>0x6835b3b8f3940d68dbd4edd06f96f7888fc262ca</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -9772,15 +9772,15 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>21163.02236969611</v>
+        <v>19705.46638648416</v>
       </c>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="H267" t="inlineStr"/>
@@ -9793,7 +9793,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>0x7e34821010f18d1b2341a4856b5ed8bc7cdb6507</t>
+          <t>0x4e56b9a7882413f7a9e36faf891e30f73324b0a7</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -9807,11 +9807,11 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>20996.49658432349</v>
+        <v>19522.45540842923</v>
       </c>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>0xa34165858aa5c8518aaa0496de1c8ebd6351f4bf</t>
+          <t>0xb759ca70078a4329c6c10600b18447ac3f7e0d7b</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -9842,15 +9842,15 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>20218.21730379842</v>
+        <v>18351.34465556748</v>
       </c>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="H269" t="inlineStr"/>
@@ -9863,7 +9863,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>0x401efc335b3266abe4418c3f6be396bdc7043e66</t>
+          <t>0xe5f8a81f072150701c25fba31c910884fa33098c</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -9877,15 +9877,15 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>19802.17822970368</v>
+        <v>17935.83468703466</v>
       </c>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="H270" t="inlineStr"/>
@@ -9898,7 +9898,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>0x6835b3b8f3940d68dbd4edd06f96f7888fc262ca</t>
+          <t>0x691d5b76eae4ce3e9c8d1d82b3cb1ce26d175fa1</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -9912,15 +9912,15 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>19705.46638648416</v>
+        <v>17859.1439462071</v>
       </c>
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="H271" t="inlineStr"/>
@@ -9933,7 +9933,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>0x4e56b9a7882413f7a9e36faf891e30f73324b0a7</t>
+          <t>0x4b1e91fdcd95d514e20a62ab565661003efd6b71</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -9947,15 +9947,15 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>19522.45540842922</v>
+        <v>17774.24923551818</v>
       </c>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="H272" t="inlineStr"/>
@@ -9968,7 +9968,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>0xb759ca70078a4329c6c10600b18447ac3f7e0d7b</t>
+          <t>0x656faa1fc88ff4087c9523a211ea47b29f979a0f</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -9982,15 +9982,15 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>18351.34465556749</v>
+        <v>17067.916966382</v>
       </c>
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="H273" t="inlineStr"/>
@@ -10003,7 +10003,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>0xe5f8a81f072150701c25fba31c910884fa33098c</t>
+          <t>0x46f2c3ce0c4c8b7ebb34809acaa1cc236b90dac4</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -10017,15 +10017,15 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>17935.83468703466</v>
+        <v>16536.1111843352</v>
       </c>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-08-07</t>
         </is>
       </c>
       <c r="H274" t="inlineStr"/>
@@ -10038,7 +10038,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>0x691d5b76eae4ce3e9c8d1d82b3cb1ce26d175fa1</t>
+          <t>0x580895d47d90f211e638325604d53c0b2ff51e6f</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -10052,15 +10052,15 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>17859.1439462071</v>
+        <v>16154.11010109266</v>
       </c>
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="H275" t="inlineStr"/>
@@ -10073,7 +10073,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>0x4b1e91fdcd95d514e20a62ab565661003efd6b71</t>
+          <t>0xfc6832b25e135a9e7dd24cdf8eea0ab78c20c86f</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -10087,15 +10087,15 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>17774.24923551818</v>
+        <v>15955.29753146497</v>
       </c>
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="n">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H276" t="inlineStr"/>
@@ -10108,7 +10108,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>0x656faa1fc88ff4087c9523a211ea47b29f979a0f</t>
+          <t>0x1cbd4704f528cc2293b9822c6ed2eb52fdaaa845</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -10122,15 +10122,15 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>17067.916966382</v>
+        <v>15855.179380535</v>
       </c>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="H277" t="inlineStr"/>
@@ -10143,7 +10143,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>0x46f2c3ce0c4c8b7ebb34809acaa1cc236b90dac4</t>
+          <t>0x20955cdaa26a20fd02c0a876612a37a6c6606c16</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -10157,11 +10157,11 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>16536.1111843352</v>
+        <v>15436.98546361513</v>
       </c>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>0x580895d47d90f211e638325604d53c0b2ff51e6f</t>
+          <t>0x0c50f80ad44e8ed621c40294119d4da0f5bcfa16</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -10192,15 +10192,15 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>16154.11010109266</v>
+        <v>15337.62440608527</v>
       </c>
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="H279" t="inlineStr"/>
@@ -10213,7 +10213,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>0xfc6832b25e135a9e7dd24cdf8eea0ab78c20c86f</t>
+          <t>0x45a61c5c4f59b1ba280eea84a1a8bfda368ded9d</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -10227,15 +10227,15 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>15955.29753146497</v>
+        <v>14363.84449937526</v>
       </c>
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="H280" t="inlineStr"/>
@@ -10248,7 +10248,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>0x1cbd4704f528cc2293b9822c6ed2eb52fdaaa845</t>
+          <t>0x392e2dba91a260819e6736ef1ff6a0927845d746</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -10262,15 +10262,15 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>15855.179380535</v>
+        <v>14144.44901772263</v>
       </c>
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>2023-11-14</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="H281" t="inlineStr"/>
@@ -10283,7 +10283,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>0x20955cdaa26a20fd02c0a876612a37a6c6606c16</t>
+          <t>0xc44b0378e400a9958219ec8f294c23b9976e3c5d</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -10297,15 +10297,15 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>15436.98546361513</v>
+        <v>13956.00081317907</v>
       </c>
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2023-08-07</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="H282" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>0x0c50f80ad44e8ed621c40294119d4da0f5bcfa16</t>
+          <t>0x81a06ca0b9e1b47f5bf3037d448a505694faad84</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -10332,15 +10332,15 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>15337.62440608527</v>
+        <v>13896.03768672427</v>
       </c>
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="H283" t="inlineStr"/>
@@ -10353,7 +10353,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>0x45a61c5c4f59b1ba280eea84a1a8bfda368ded9d</t>
+          <t>0xbc980bb5995f2c1f3c777dff918d21c811a61032</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -10367,15 +10367,15 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>14363.84449937526</v>
+        <v>13876.40421022591</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="H284" t="inlineStr"/>
@@ -10388,7 +10388,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>0x392e2dba91a260819e6736ef1ff6a0927845d746</t>
+          <t>0x8edc96828b04f2cae830db1e0dd5af530b017a98</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -10402,15 +10402,15 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>14144.44901772263</v>
+        <v>13667.33186079849</v>
       </c>
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-08-24</t>
         </is>
       </c>
       <c r="H285" t="inlineStr"/>
@@ -10423,7 +10423,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>0xc44b0378e400a9958219ec8f294c23b9976e3c5d</t>
+          <t>0xff679aa5410991a976a9d9461d30e7e5958ce672</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -10437,15 +10437,15 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>13956.00081317908</v>
+        <v>13325.37970762593</v>
       </c>
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="H286" t="inlineStr"/>
@@ -10458,7 +10458,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>0x81a06ca0b9e1b47f5bf3037d448a505694faad84</t>
+          <t>0xd4ec19bf6aec83db501ad4ad82781b640d4e2be7</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -10472,15 +10472,15 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>13896.03768672427</v>
+        <v>13230.41115636551</v>
       </c>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="H287" t="inlineStr"/>
@@ -10493,7 +10493,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>0xbc980bb5995f2c1f3c777dff918d21c811a61032</t>
+          <t>0xa4bf8f022485bf6d8e2deb70561e712fc874cd42</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -10507,15 +10507,15 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>13876.40421022591</v>
+        <v>12651.23719192337</v>
       </c>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H288" t="inlineStr"/>
@@ -10528,7 +10528,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>0x8edc96828b04f2cae830db1e0dd5af530b017a98</t>
+          <t>0x042ca50b9f24956ffe73e082ec14e8466de4b1c0</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -10542,15 +10542,15 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>13667.33186079849</v>
+        <v>12035.33782590135</v>
       </c>
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2023-08-24</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="H289" t="inlineStr"/>
@@ -10563,7 +10563,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>0xff679aa5410991a976a9d9461d30e7e5958ce672</t>
+          <t>0x9a06f4041c1b088e536eee53dd8813ee0b9ad62c</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -10577,7 +10577,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>13325.37970762593</v>
+        <v>11812.77933555771</v>
       </c>
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="n">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="H290" t="inlineStr"/>
@@ -10598,7 +10598,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>0xd4ec19bf6aec83db501ad4ad82781b640d4e2be7</t>
+          <t>0x83cced5006ec03eb01e426ede7ce5abd9b11d664</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -10612,15 +10612,15 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>13230.41115636551</v>
+        <v>11731.19925312239</v>
       </c>
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="H291" t="inlineStr"/>
@@ -10633,7 +10633,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>0xa4bf8f022485bf6d8e2deb70561e712fc874cd42</t>
+          <t>0xb536448700551feae97ac8d3123e735599c1c13b</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -10647,15 +10647,15 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>12651.23719192337</v>
+        <v>11403.55303848761</v>
       </c>
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="H292" t="inlineStr"/>
@@ -10668,7 +10668,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>0x042ca50b9f24956ffe73e082ec14e8466de4b1c0</t>
+          <t>0x3c634d6b4fccffd3fbc77997edd98951ac344650</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -10682,15 +10682,15 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>12035.33782590135</v>
+        <v>10735.13517287955</v>
       </c>
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>2023-11-07</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="H293" t="inlineStr"/>
@@ -10703,7 +10703,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>0x9a06f4041c1b088e536eee53dd8813ee0b9ad62c</t>
+          <t>0xd3eb25bef8c34ea489fb301d9d1223b6503407ba</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -10717,15 +10717,15 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>11812.77933555771</v>
+        <v>10413.1034064622</v>
       </c>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="H294" t="inlineStr"/>
@@ -10738,7 +10738,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>0x83cced5006ec03eb01e426ede7ce5abd9b11d664</t>
+          <t>0xf1ef188243016897d4fd28412d86b7c3744524a2</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -10752,15 +10752,15 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>11731.19925312239</v>
+        <v>10299.97833067906</v>
       </c>
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="H295" t="inlineStr"/>
@@ -10773,7 +10773,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>0xb536448700551feae97ac8d3123e735599c1c13b</t>
+          <t>0xeaf69a6edb8cd48eead026d7940f3a534cc4a12e</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -10787,15 +10787,15 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>11403.55303848761</v>
+        <v>10216.2614838405</v>
       </c>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="H296" t="inlineStr"/>
@@ -10808,7 +10808,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>0x3c634d6b4fccffd3fbc77997edd98951ac344650</t>
+          <t>0xb38d3201c3848d815d2b99c1586bb2418fb3ec68</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -10822,15 +10822,15 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>10735.13517287955</v>
+        <v>10091.3003931166</v>
       </c>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="H297" t="inlineStr"/>
@@ -10843,7 +10843,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>0xd3eb25bef8c34ea489fb301d9d1223b6503407ba</t>
+          <t>0x78f7eeb741060a3d0c514a09558e1233af138fb1</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -10857,11 +10857,11 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>10413.1034064622</v>
+        <v>10080.55369077879</v>
       </c>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>0xf1ef188243016897d4fd28412d86b7c3744524a2</t>
+          <t>0xfb680c36ccebab9e53403b645fecc148c7ddc2bb</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -10892,159 +10892,19 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>10299.97833067906</v>
+        <v>10048.28210305291</v>
       </c>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>0xeaf69a6edb8cd48eead026d7940f3a534cc4a12e</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D300" t="n">
-        <v>10216.2614838405</v>
-      </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="n">
-        <v>6</v>
-      </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>2023-11-09</t>
-        </is>
-      </c>
-      <c r="H300" t="inlineStr"/>
-      <c r="I300" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>0xb38d3201c3848d815d2b99c1586bb2418fb3ec68</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D301" t="n">
-        <v>10091.3003931166</v>
-      </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="n">
-        <v>5</v>
-      </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>2023-11-05</t>
-        </is>
-      </c>
-      <c r="H301" t="inlineStr"/>
-      <c r="I301" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>0x78f7eeb741060a3d0c514a09558e1233af138fb1</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D302" t="n">
-        <v>10080.55369077879</v>
-      </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="n">
-        <v>2</v>
-      </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>2023-11-07</t>
-        </is>
-      </c>
-      <c r="H302" t="inlineStr"/>
-      <c r="I302" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>0xfb680c36ccebab9e53403b645fecc148c7ddc2bb</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D303" t="n">
-        <v>10048.28210305291</v>
-      </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="n">
-        <v>11</v>
-      </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>2023-10-12</t>
-        </is>
-      </c>
-      <c r="H303" t="inlineStr"/>
-      <c r="I303" t="inlineStr">
         <is>
           <t>active</t>
         </is>

--- a/dataset/traders_lvl.xlsx
+++ b/dataset/traders_lvl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I299"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +518,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0x9ea5ba39a558c15ce1ebf884a730c4a951b4492a</t>
+          <t>0xbc623262d1e5bbad7855081ae5fd59571ab0b37d</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -532,15 +532,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1902383011.523027</v>
+        <v>1911853711.676302</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>2284</v>
+        <v>637</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2023-12-13</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -553,7 +553,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0xbc623262d1e5bbad7855081ae5fd59571ab0b37d</t>
+          <t>0x9ea5ba39a558c15ce1ebf884a730c4a951b4492a</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -567,11 +567,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1894389716.550196</v>
+        <v>1902383011.523027</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>627</v>
+        <v>2284</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0x86b0f9f635b5a6a57cb85f3e45659d333096a62c</t>
+          <t>0x9454f17a6bcc36cfbc8a07011b33dafcebe4050b</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -637,15 +637,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>478343166.7731701</v>
+        <v>121913155.8273325</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>272</v>
+        <v>2197</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -658,7 +658,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0x153f2fde8dd32536337d8810f0245235df86d394</t>
+          <t>0x9291abdaf3105f5890fb5974b8c1e44f378c4733</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -672,15 +672,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>394009762.4110658</v>
+        <v>110401691.7125685</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>382</v>
+        <v>1669</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2023-07-30</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -693,7 +693,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0xf8483031153123bbc5c225caa0b6eb17aa1edbb4</t>
+          <t>0x333a34c0589a301f4e6df3d00df2912922e7278c</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -707,15 +707,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>366714971.6557171</v>
+        <v>88564984.78691235</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>471</v>
+        <v>52</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -728,7 +728,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0xc5e257b711a96d1e20335183feb734803ea84e2f</t>
+          <t>0x80b3d7735bbaa17b27d45acc17c3c233c32f4a59</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -742,15 +742,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>222998841.9269954</v>
+        <v>73112808.52978602</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -763,7 +763,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0xc202a99c8b8ef80502876515e559459db02c7971</t>
+          <t>0x951e60d0d5594956b47810d29428733a92188888</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -777,15 +777,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>196700003.187343</v>
+        <v>62655234.28015783</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>965</v>
+        <v>200</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2023-07-30</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -798,7 +798,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0x9454f17a6bcc36cfbc8a07011b33dafcebe4050b</t>
+          <t>0x16b00db74167b7469dda63b674ca9a3b1b70c439</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -812,15 +812,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>112147608.2836899</v>
+        <v>61941284.26566294</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>2025</v>
+        <v>923</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -833,7 +833,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0x9291abdaf3105f5890fb5974b8c1e44f378c4733</t>
+          <t>0xd93497c4659276569f49a32a7abd0691f5ac4467</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -847,15 +847,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>110401691.7125685</v>
+        <v>61861390.71942896</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>1669</v>
+        <v>1301</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -868,7 +868,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0x333a34c0589a301f4e6df3d00df2912922e7278c</t>
+          <t>0xdc35505fbf46605f61014b9b2ac96826c47017d5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -882,15 +882,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>88564984.78691237</v>
+        <v>51599917.68913983</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>52</v>
+        <v>3572</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-10-26</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -903,7 +903,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0x341efbe6bf067edf58fd6314478bc5776945083a</t>
+          <t>0xc1b42549b870a8822d8f053300f981692cc63e85</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -917,15 +917,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81368415.14686981</v>
+        <v>46495555.49774009</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -938,7 +938,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0x80b3d7735bbaa17b27d45acc17c3c233c32f4a59</t>
+          <t>0xd1fbf468e977d12356ea8762313707933bd73c12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -952,15 +952,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>72727258.11910427</v>
+        <v>46176551.34589616</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>364</v>
+        <v>536</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2023-12-09</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -973,7 +973,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0x951e60d0d5594956b47810d29428733a92188888</t>
+          <t>0x1c5d638eae0796bfe9b830462f11d37c9052e99b</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -987,15 +987,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>62655234.28015783</v>
+        <v>36537817.86002816</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1008,7 +1008,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0xd93497c4659276569f49a32a7abd0691f5ac4467</t>
+          <t>0xce5452e8b6334071e207ae5c300ed12df7ecbf9e</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1022,15 +1022,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>61861390.71942896</v>
+        <v>29116179.86068859</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>1301</v>
+        <v>1452</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1043,7 +1043,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0xcad0195c266e8d784ec7821779c021de01aa40f0</t>
+          <t>0x09460d2e03502e39352f1311b3e7b00aff0f23da</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1057,15 +1057,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>56111074.28672469</v>
+        <v>25698927.28110452</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>503</v>
+        <v>311</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0x16b00db74167b7469dda63b674ca9a3b1b70c439</t>
+          <t>0xf867569cb23121eff71f6947b97c249b3128b8f8</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1092,15 +1092,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>55248830.41280089</v>
+        <v>24754435.04816704</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>834</v>
+        <v>231</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1113,7 +1113,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0xdc35505fbf46605f61014b9b2ac96826c47017d5</t>
+          <t>0x677988c1d2d3a8a19467ec67a2b7ee55a05ad9d8</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1127,15 +1127,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>51599917.68913968</v>
+        <v>23816766.96083724</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>3572</v>
+        <v>444</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0xd1fbf468e977d12356ea8762313707933bd73c12</t>
+          <t>0xb08730283c6d142c2beb3daf13f1033fd7491b8a</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1162,15 +1162,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>46176551.34589616</v>
+        <v>23614873.7529903</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2023-12-09</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0x1c5d638eae0796bfe9b830462f11d37c9052e99b</t>
+          <t>0x1d81a153ae5cc64fdf8e87a4b490904d8f50efcf</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1197,15 +1197,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>36537817.86002816</v>
+        <v>21610186.95081593</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>160</v>
+        <v>483</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1218,7 +1218,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0xce5452e8b6334071e207ae5c300ed12df7ecbf9e</t>
+          <t>0x4cf80ec7f084619863ed4fcd47e019bcd09b7fec</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1232,15 +1232,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>29116179.86068859</v>
+        <v>21170459.09229004</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>1452</v>
+        <v>34</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1253,7 +1253,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0x09460d2e03502e39352f1311b3e7b00aff0f23da</t>
+          <t>0xf2b1214a6e6bf81884aeadb7291d4a5d4631a6b6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1267,15 +1267,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>25563529.36719795</v>
+        <v>19834694.10515552</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>307</v>
+        <v>388</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1288,7 +1288,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0xf867569cb23121eff71f6947b97c249b3128b8f8</t>
+          <t>0x9906cd623dbee156d8deee923733277f0e0ce196</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1302,15 +1302,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24754435.04816704</v>
+        <v>18188536.19676195</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>231</v>
+        <v>1582</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1323,7 +1323,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0xb08730283c6d142c2beb3daf13f1033fd7491b8a</t>
+          <t>0x0bd0b724d8803685530fd6cecab24b4eb0814828</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1337,15 +1337,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>22020221.73852241</v>
+        <v>16440692.19748292</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1358,7 +1358,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0x484571309d6a9e9285fc0b4634acd43bd0ba97d8</t>
+          <t>0x2f63fef950f5834fadaa07472e6ae9f29818867f</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1372,15 +1372,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>21910171.05209577</v>
+        <v>15701557.07032695</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>529</v>
+        <v>1057</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1393,7 +1393,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0x1d81a153ae5cc64fdf8e87a4b490904d8f50efcf</t>
+          <t>0x0e852006694164cd2b0c1e1cdd33a9d0d6ffb370</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1407,15 +1407,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>21610186.95081592</v>
+        <v>13600029.6156958</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>483</v>
+        <v>86</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1428,7 +1428,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0x4cf80ec7f084619863ed4fcd47e019bcd09b7fec</t>
+          <t>0xea63dfd1e4da2a9ca9f1a43c7682ebca496cd3be</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1442,15 +1442,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>21170459.09229004</v>
+        <v>11325290.09640904</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>34</v>
+        <v>609</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0xf7d48932f456e98d2ff824e38830e8f59de13f4a</t>
+          <t>0x91fb66f8bd25c44996599676e510659e7e408e01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1477,15 +1477,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>19946365.28367036</v>
+        <v>10960342.8956251</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>47</v>
+        <v>311</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2023-08-08</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1498,7 +1498,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0xf2b1214a6e6bf81884aeadb7291d4a5d4631a6b6</t>
+          <t>0x87cb947d88e9ae755bb62d6aa39e57f0f1608114</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1512,15 +1512,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19834694.10515552</v>
+        <v>10446440.20162859</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>388</v>
+        <v>956</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1533,7 +1533,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0x677988c1d2d3a8a19467ec67a2b7ee55a05ad9d8</t>
+          <t>0xa3cc2d84296bb93234e1e3929ac66cd9a62573c3</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1547,15 +1547,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>18867142.4220523</v>
+        <v>10146180.11611753</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>282</v>
+        <v>601</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0xb87f9e18d24cda96e69f088cc7f7735b1e68d7f3</t>
+          <t>0x00025b6e165654bc0931b2f29a66be4852e6011b</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1582,15 +1582,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>18723869.56750795</v>
+        <v>9447250.667830039</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1603,7 +1603,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0x0e852006694164cd2b0c1e1cdd33a9d0d6ffb370</t>
+          <t>0x46dd1bf5bd61513689f88706d8adceebf530e5ee</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1617,15 +1617,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>13600029.61569579</v>
+        <v>9070146.627449701</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -1638,7 +1638,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0x2f63fef950f5834fadaa07472e6ae9f29818867f</t>
+          <t>0x188c1b18fbdd53d1975dd2d8d5ee9b5a5bd8f66e</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1652,15 +1652,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12141006.06049242</v>
+        <v>9021466.166895498</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>826</v>
+        <v>16</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1673,7 +1673,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0x91fb66f8bd25c44996599676e510659e7e408e01</t>
+          <t>0x00000000000e8716b4e2d12400a01474cdfad760</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1687,15 +1687,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10960342.8956251</v>
+        <v>7527903.058953376</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>311</v>
+        <v>1900</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -1708,7 +1708,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0xc3992fc601810ec6e5e62cbe845cada58a917d71</t>
+          <t>0xe493d64dc68edae2a14fa67c6fc34e2a1566313b</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1722,15 +1722,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>10767004.59185602</v>
+        <v>7439378.095733374</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>12</v>
+        <v>552</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -1743,7 +1743,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0x9906cd623dbee156d8deee923733277f0e0ce196</t>
+          <t>0xefb6afbd3967487a86d8e09330a8f0af91c39a82</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1757,15 +1757,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10586476.26932661</v>
+        <v>6825119.711215991</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>987</v>
+        <v>515</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -1778,7 +1778,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0x87cb947d88e9ae755bb62d6aa39e57f0f1608114</t>
+          <t>0xb82de7c797e4efd8b79fb42839b9624b17483d5a</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10446440.20162859</v>
+        <v>6805516.483009814</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>956</v>
+        <v>240</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1813,7 +1813,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0xa3cc2d84296bb93234e1e3929ac66cd9a62573c3</t>
+          <t>0x88c3923d74cf0f13adf63ef436ca9144d22d17a1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1827,15 +1827,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10146180.11611753</v>
+        <v>6022652.169747965</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>601</v>
+        <v>32</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -1848,7 +1848,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0x00025b6e165654bc0931b2f29a66be4852e6011b</t>
+          <t>0xd5ffa746ec443ff8bb32c899726c3d563f796ae5</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1862,15 +1862,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9447250.667830037</v>
+        <v>5843165.985846028</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-11-24</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -1883,7 +1883,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0x96794f03b3114f50b892b0dec79d753658c931ee</t>
+          <t>0xd600002f20a700c10073a1bc263f00220042707f</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1897,15 +1897,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9365712.590815423</v>
+        <v>5630322.718658766</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>412</v>
+        <v>4</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -1918,7 +1918,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0x46dd1bf5bd61513689f88706d8adceebf530e5ee</t>
+          <t>0x2621f728e9ff509e263967c87d0ab1b525a01147</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1932,11 +1932,11 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>9070146.627449701</v>
+        <v>5129892.991811107</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0x188c1b18fbdd53d1975dd2d8d5ee9b5a5bd8f66e</t>
+          <t>0xff506803d2d688c253d1d86d61a17469b1f89fcd</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1967,15 +1967,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>9021466.166895498</v>
+        <v>4917051.35833315</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -1988,7 +1988,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0x00000000000e8716b4e2d12400a01474cdfad760</t>
+          <t>0x2d1eee087fd8f6d82f4b3bfd8c82e7393545a30f</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2002,15 +2002,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>7527903.058953369</v>
+        <v>4742777.246206218</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>1900</v>
+        <v>101</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2023,7 +2023,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0xe493d64dc68edae2a14fa67c6fc34e2a1566313b</t>
+          <t>0xdcd3f402043d3c708013de78f5d79d66950917bc</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2037,15 +2037,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>7439378.095733374</v>
+        <v>3891522.058500911</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>552</v>
+        <v>70</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2058,7 +2058,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0xea63dfd1e4da2a9ca9f1a43c7682ebca496cd3be</t>
+          <t>0x1d90aba0b0bd1882ee6890fcbf6df1d3e040d3fd</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2072,15 +2072,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>7348586.44908299</v>
+        <v>3852688.506171613</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -2093,7 +2093,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0xfb69f6bf45d5f2b42cb565a20b29c810f71ebc6b</t>
+          <t>0xc1eab99c6f2cd06ad1c60e5b642be32c3c874613</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2107,15 +2107,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>7031345.708495863</v>
+        <v>3781617.186733631</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-12-03</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -2128,7 +2128,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0xefb6afbd3967487a86d8e09330a8f0af91c39a82</t>
+          <t>0xfdba59421990f5c0f8ab066ca33f99ac4995d8fc</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2142,15 +2142,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6704879.183683784</v>
+        <v>3662963.344856983</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>485</v>
+        <v>116</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -2163,7 +2163,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0x88c3923d74cf0f13adf63ef436ca9144d22d17a1</t>
+          <t>0x579435914e1d9fc5eac3ab6c15cf6eb7cbc09669</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2177,15 +2177,15 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6022652.169747965</v>
+        <v>3450319.053991465</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>32</v>
+        <v>360</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -2198,7 +2198,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0xd5ffa746ec443ff8bb32c899726c3d563f796ae5</t>
+          <t>0x1733a52e5b33f85e2cc5ff81f6983e785d8cce3d</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2212,15 +2212,15 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5843165.985846028</v>
+        <v>3420463.268531299</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2023-11-24</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0xd600002f20a700c10073a1bc263f00220042707f</t>
+          <t>0x74538baab379a1a777166c27de723a2eaf4f08ce</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2247,15 +2247,15 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>5630322.718658766</v>
+        <v>3346495.863203521</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2023-12-06</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -2268,7 +2268,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0x2621f728e9ff509e263967c87d0ab1b525a01147</t>
+          <t>0xabc0b28c2fc09aa664be2a82563cbf6dcc4ebf46</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2282,15 +2282,15 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>5129892.991811105</v>
+        <v>2871156.783101108</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -2303,7 +2303,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0xff506803d2d688c253d1d86d61a17469b1f89fcd</t>
+          <t>0xaba56c9a88c581076851d1eb77201ed28df7e576</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2317,15 +2317,15 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4917051.35833315</v>
+        <v>2641603.13070943</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -2338,7 +2338,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0x2d1eee087fd8f6d82f4b3bfd8c82e7393545a30f</t>
+          <t>0x33d84d2a77d850b13053a1496d25cc58b145aa13</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2352,15 +2352,15 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4742777.246206217</v>
+        <v>2628357.5303301</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -2373,7 +2373,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0xb82de7c797e4efd8b79fb42839b9624b17483d5a</t>
+          <t>0x219dd26a39dbe8366948a647e98e62dbd3d3318e</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2387,15 +2387,15 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4666705.768087558</v>
+        <v>2597615.584961594</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2408,7 +2408,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0xdcd3f402043d3c708013de78f5d79d66950917bc</t>
+          <t>0xf379ea290a8a835e944087bc7cee327758c39657</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2422,15 +2422,15 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3891522.058500911</v>
+        <v>2520222.577883899</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -2443,7 +2443,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0x1d90aba0b0bd1882ee6890fcbf6df1d3e040d3fd</t>
+          <t>0xc388802453eaae2c42504621eb9c83400049c23e</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2457,15 +2457,15 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3852688.506171613</v>
+        <v>2506856.79267049</v>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2024-01-22</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -2478,7 +2478,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0xc1eab99c6f2cd06ad1c60e5b642be32c3c874613</t>
+          <t>0xe3330e960ecb810d0ee32ae1204dca55adc1b37a</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2492,15 +2492,15 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3781617.186733631</v>
+        <v>2447303.446960088</v>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2023-12-03</t>
+          <t>2024-01-14</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -2513,7 +2513,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0xfdba59421990f5c0f8ab066ca33f99ac4995d8fc</t>
+          <t>0x09bf23d3e61da657ebd98e5f687c6755a20cd7dd</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2527,15 +2527,15 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3662963.344856983</v>
+        <v>2384956.107727955</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -2548,7 +2548,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0x07eac6dc2af876d2f0402f6804cc6ceaa0cd20cd</t>
+          <t>0x71b9b62c0b26b097d43bb30342149b886f1ea005</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2562,15 +2562,15 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3518117.59513095</v>
+        <v>2381721.664388073</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -2583,7 +2583,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0x579435914e1d9fc5eac3ab6c15cf6eb7cbc09669</t>
+          <t>0x9180981034364f683ea25bcce0cff5e03a595bef</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2597,15 +2597,15 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3444635.813999434</v>
+        <v>2306470.462918358</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>358</v>
+        <v>9</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -2618,7 +2618,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0x74538baab379a1a777166c27de723a2eaf4f08ce</t>
+          <t>0x42a1ef5ffdaf134eb958814e443db9c244375c8f</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2632,15 +2632,15 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3255315.204149369</v>
+        <v>2270224.636504428</v>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2023-12-29</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -2653,7 +2653,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0xabc0b28c2fc09aa664be2a82563cbf6dcc4ebf46</t>
+          <t>0x3bffb814791a4e363a0839720e73765f8c19e7af</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2667,15 +2667,15 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2871156.783101108</v>
+        <v>2218235.034451467</v>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-11-16</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -2688,7 +2688,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0xaba56c9a88c581076851d1eb77201ed28df7e576</t>
+          <t>0x64ca9f8c296b733139304f8ffd04d361322de2f3</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2702,15 +2702,15 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2641603.13070943</v>
+        <v>2094848.022487144</v>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -2723,7 +2723,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0xaff88cd7854ba493db885b72ab355c22c7fa96af</t>
+          <t>0x57b058d939da2ebb545184eb6e40be43b67f0aaa</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2737,15 +2737,15 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2532538.096002499</v>
+        <v>1694233.008423013</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
-        <v>287</v>
+        <v>28</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -2758,7 +2758,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0xf379ea290a8a835e944087bc7cee327758c39657</t>
+          <t>0x28736fa7ee306dc4efcee407881c80a25b82853b</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2772,15 +2772,15 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2520222.577883899</v>
+        <v>1693136.67789248</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -2793,7 +2793,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0xc388802453eaae2c42504621eb9c83400049c23e</t>
+          <t>0xd9df4eccdd3fd6d280c76927589f7c69b74f6358</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2807,15 +2807,15 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2504977.719729783</v>
+        <v>1638003.668146264</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-01-14</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -2828,7 +2828,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0x33d84d2a77d850b13053a1496d25cc58b145aa13</t>
+          <t>0x9a59c1ee39d1b4d8890926a6671230b5441d7184</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2842,15 +2842,15 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2453647.935478</v>
+        <v>1541779.730333148</v>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -2863,7 +2863,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0xe3330e960ecb810d0ee32ae1204dca55adc1b37a</t>
+          <t>0xfafab8c482274f79b3418c2764e1a7a95e7a42a9</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2877,15 +2877,15 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2447303.446960088</v>
+        <v>1540709.767129277</v>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2024-01-14</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -2898,7 +2898,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0x288145ae8d3a315c3e2a5b541bb3316bcd955d14</t>
+          <t>0xb9bc35e0b7c136c2bc2554618a28c32f3ae68881</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2438454.369743499</v>
+        <v>1504743.393510266</v>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="n">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -2933,7 +2933,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0x219dd26a39dbe8366948a647e98e62dbd3d3318e</t>
+          <t>0x27f5547a1c2db7111b483664707a6db35907a6f0</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2393348.143223456</v>
+        <v>1499819.45054282</v>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -2968,7 +2968,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0x09bf23d3e61da657ebd98e5f687c6755a20cd7dd</t>
+          <t>0x686c83318ecff513056eb8fb7bab617eba2e5608</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2982,15 +2982,15 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2384956.107727955</v>
+        <v>1480081.148441227</v>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="n">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -3003,7 +3003,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0x71b9b62c0b26b097d43bb30342149b886f1ea005</t>
+          <t>0x6827ab5b01b02a594d9d36f2ffa787f6c7c5a72d</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3017,11 +3017,11 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2381721.664388074</v>
+        <v>1432665.747296399</v>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0x9180981034364f683ea25bcce0cff5e03a595bef</t>
+          <t>0x2e956876e5c407bf7dc91e2d3630bedd81fd26e9</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3052,15 +3052,15 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2306470.462918359</v>
+        <v>1354216.70149967</v>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -3073,7 +3073,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0x42a1ef5ffdaf134eb958814e443db9c244375c8f</t>
+          <t>0x11f748519047ebe78f7fbb7361ac82b1c44e48c2</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3087,15 +3087,15 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2270224.636504428</v>
+        <v>1319686.526936506</v>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2023-12-29</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -3108,7 +3108,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0x3bffb814791a4e363a0839720e73765f8c19e7af</t>
+          <t>0xfe4ca6b5717bb35b805301fa25724e3acf2a4098</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3122,15 +3122,15 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2218235.034451467</v>
+        <v>1297233.902179231</v>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -3143,7 +3143,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0xc90af86ad349698e7573dead09e9ee90ab27a512</t>
+          <t>0x441ccc7891d55efd804d909281de8889317a2ab9</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3157,15 +3157,15 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2144942.315109984</v>
+        <v>1283119.494448632</v>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="n">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -3178,7 +3178,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0x64ca9f8c296b733139304f8ffd04d361322de2f3</t>
+          <t>0x984895138a2f2df973f7bf86e75a407fc4761689</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3192,15 +3192,15 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2094848.022487144</v>
+        <v>1225520.91720951</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2023-11-16</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -3213,7 +3213,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0xae5288ebd66b4884ddd58199d4187261c59cd919</t>
+          <t>0x0a05c7da7bb06a81656e5f40ce4d9b85f891fc3e</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3227,15 +3227,15 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1974385.958799792</v>
+        <v>1203104.660582053</v>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -3248,7 +3248,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0x1733a52e5b33f85e2cc5ff81f6983e785d8cce3d</t>
+          <t>0x417281911e96e0220e349e28bb60d850396580ad</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3262,15 +3262,15 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1786239.56636264</v>
+        <v>1105771.528707204</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -3283,7 +3283,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0x57b058d939da2ebb545184eb6e40be43b67f0aaa</t>
+          <t>0xc5f2b0742d7b9ace2e7e278e010e75d193cd21a5</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3297,15 +3297,15 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1694233.008423014</v>
+        <v>1043970.607061719</v>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -3318,7 +3318,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0x28736fa7ee306dc4efcee407881c80a25b82853b</t>
+          <t>0x437e790f8ecb8a1ca83d0d5da04f2ad3a9004443</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3332,15 +3332,15 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1693136.67789248</v>
+        <v>946475.3622989593</v>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -3353,7 +3353,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0xd9df4eccdd3fd6d280c76927589f7c69b74f6358</t>
+          <t>0xb6a7ddde101a440d224860871dfc20be9f4c7330</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3367,15 +3367,15 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1638003.668146264</v>
+        <v>932938.9660731348</v>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2024-01-14</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0x9a59c1ee39d1b4d8890926a6671230b5441d7184</t>
+          <t>0x40e1ca7b92dcebd2bc6e08e14f1e65ebdc8e492d</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3402,15 +3402,15 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1541779.730333148</v>
+        <v>908544.5105023808</v>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-21</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -3423,7 +3423,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0xfafab8c482274f79b3418c2764e1a7a95e7a42a9</t>
+          <t>0xd785558a15c67b6201d84ac586b219bd26e7dab5</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3437,15 +3437,15 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1540709.767129277</v>
+        <v>876888.5559527908</v>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -3458,7 +3458,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0xb9bc35e0b7c136c2bc2554618a28c32f3ae68881</t>
+          <t>0xbaf29dd60c5554a6f96f654588950f93b0a770af</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3472,15 +3472,15 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1504743.393510266</v>
+        <v>862444.0725853541</v>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-10-21</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -3493,7 +3493,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0x686c83318ecff513056eb8fb7bab617eba2e5608</t>
+          <t>0xd31e9aa2db47809dfc6ffdf05e46cfbc1aa5f468</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3507,15 +3507,15 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1480081.148441227</v>
+        <v>860233.4766121951</v>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0x6827ab5b01b02a594d9d36f2ffa787f6c7c5a72d</t>
+          <t>0x55d3ab24f818f37567acbc4b422a39f263f5fa39</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3542,15 +3542,15 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1432665.747296398</v>
+        <v>804260.8802691689</v>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="n">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-10-20</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -3563,7 +3563,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0xbc67a8193c37ec5f3c0eec0522c08328053f0cbc</t>
+          <t>0x9385d9c4cadcddc5f0fd0d40225e79c9b1a007e3</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3577,15 +3577,15 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1398684.006541929</v>
+        <v>796743.0747829645</v>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-10-25</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -3598,7 +3598,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0x2e956876e5c407bf7dc91e2d3630bedd81fd26e9</t>
+          <t>0xc7d61a0f78902538925a71e2099036d7f4eb4535</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3612,15 +3612,15 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1354216.70149967</v>
+        <v>745385.794815234</v>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -3633,7 +3633,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0x11f748519047ebe78f7fbb7361ac82b1c44e48c2</t>
+          <t>0x6a5f44d24dca8417db339203d9e07d23321f030b</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3647,15 +3647,15 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1319686.526936506</v>
+        <v>704553.5674349561</v>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -3668,7 +3668,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0x3c0e8db25cc04735bcd5fee068f91182e7352a7a</t>
+          <t>0x8afd6db86a54b425f0b7ab17badd6111e8e3fa31</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3682,15 +3682,15 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1304815.297783781</v>
+        <v>704109.0591098638</v>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-10</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -3703,7 +3703,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0xfe4ca6b5717bb35b805301fa25724e3acf2a4098</t>
+          <t>0xd7c443e9960c55fa217a5ac9564f10a58fc87551</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3717,15 +3717,15 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1297233.902179231</v>
+        <v>653353.7037248631</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
-        <v>116</v>
+        <v>354</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-12-02</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -3738,7 +3738,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0x441ccc7891d55efd804d909281de8889317a2ab9</t>
+          <t>0x9dcf5d8ef14018365e4764174a260198c892aee2</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3752,15 +3752,15 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1283119.494448632</v>
+        <v>637308.10081731</v>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>239</v>
+        <v>52</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -3773,7 +3773,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0x984895138a2f2df973f7bf86e75a407fc4761689</t>
+          <t>0x2597c10df9e712c73925cf56d531e39a95309086</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3787,15 +3787,15 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1225520.91720951</v>
+        <v>618571.5897730306</v>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-12-24</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -3808,7 +3808,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0x0a05c7da7bb06a81656e5f40ce4d9b85f891fc3e</t>
+          <t>0x1ccd5c3feafdf0f8f213cb715a3d58017d81a3c5</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3822,15 +3822,15 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1203104.660582053</v>
+        <v>592653.6119499146</v>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-09-10</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -3843,7 +3843,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0x417281911e96e0220e349e28bb60d850396580ad</t>
+          <t>0xe432c5c72312c4eb69ca1b5009a2fb0a67633f6d</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3857,15 +3857,15 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1105771.528707204</v>
+        <v>591359.551797434</v>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="n">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -3878,7 +3878,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0xc38f858af24ec67ddb72a9c06ac17d31a1186dce</t>
+          <t>0x0b5ccffc42563973e7d2b5e7ea9d504b7e2c9124</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3892,15 +3892,15 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1051180.477515412</v>
+        <v>581607.5960351727</v>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="n">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -3913,7 +3913,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0x437e790f8ecb8a1ca83d0d5da04f2ad3a9004443</t>
+          <t>0x42135eed1339759aefae8401c57bcd50e3eadc61</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3927,15 +3927,15 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>946475.3622989593</v>
+        <v>577838.5659567093</v>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -3948,7 +3948,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0xb6a7ddde101a440d224860871dfc20be9f4c7330</t>
+          <t>0xe31deacee1770dfa56f8849724bcb7f8e5f76ef2</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3962,15 +3962,15 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>932938.9660731348</v>
+        <v>574826.9287643374</v>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -3983,7 +3983,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0x40e1ca7b92dcebd2bc6e08e14f1e65ebdc8e492d</t>
+          <t>0x30e569050fa734e8484461a4192d81567ea64b30</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3997,15 +3997,15 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>908544.5105023807</v>
+        <v>567712.6799583294</v>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
-        <v>86</v>
+        <v>267</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2023-10-21</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0xa9b7a144260891c88f6ffb5b7d353ec39c6638a0</t>
+          <t>0xcd9b041e2ddc83f465bfef63c50a3c88ad2d7d75</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4032,15 +4032,15 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>878164.4085023939</v>
+        <v>538456.624747271</v>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-10-25</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -4053,7 +4053,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0xd785558a15c67b6201d84ac586b219bd26e7dab5</t>
+          <t>0x0852dba413446b2fd8cc0e45c96b7f226b09e992</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4067,15 +4067,15 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>876888.5559527903</v>
+        <v>532988.5334441245</v>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -4088,7 +4088,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0xbaf29dd60c5554a6f96f654588950f93b0a770af</t>
+          <t>0x6c57141535ef42ee1ce9fdca57d4a81929556c0b</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4102,15 +4102,15 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>862444.0725853541</v>
+        <v>525134.047326758</v>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2023-10-21</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -4123,7 +4123,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0xd31e9aa2db47809dfc6ffdf05e46cfbc1aa5f468</t>
+          <t>0x35125efdbbb6e2f031f789e28324be8643e6caca</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4137,15 +4137,15 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>860233.4766121951</v>
+        <v>510607.2545434865</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -4158,7 +4158,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0x72df34fb807a17371c19824d51b697e295ccccc6</t>
+          <t>0x00000000007cee88e01241c9db0a02b859db5b52</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4172,15 +4172,15 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>838556.9542132658</v>
+        <v>495204.008443746</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
-        <v>8</v>
+        <v>594</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-12-25</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
@@ -4193,7 +4193,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0x55d3ab24f818f37567acbc4b422a39f263f5fa39</t>
+          <t>0xe805535dbae7529601cce37ba35ac1d5f65e9206</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4207,15 +4207,15 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>804260.8802691686</v>
+        <v>494609.7566767381</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2023-10-20</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -4228,7 +4228,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0x9385d9c4cadcddc5f0fd0d40225e79c9b1a007e3</t>
+          <t>0x6776b04c0660f0460a8e09da457fbf819c77dc07</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4242,15 +4242,15 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>796743.0747829645</v>
+        <v>485985.4940845462</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0x01e55d3a071df8645050cd3ed586f9f765d9e0ce</t>
+          <t>0xe4ae1a2c64bf7f522c7526d4884ac28b4fdface8</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4277,15 +4277,15 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>773264.6139818643</v>
+        <v>469564.2219761602</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2023-08-05</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -4298,7 +4298,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>0xc7d61a0f78902538925a71e2099036d7f4eb4535</t>
+          <t>0xd9f80cb81164163a90745477ce1b2befb246a33f</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4312,15 +4312,15 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>745385.794815234</v>
+        <v>466986.2394707311</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-10-20</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -4333,7 +4333,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0x8afd6db86a54b425f0b7ab17badd6111e8e3fa31</t>
+          <t>0x93fd330f0f0ce4e1d5dc355515b3048e4daed349</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4347,15 +4347,15 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>704109.0591098638</v>
+        <v>455263.614065973</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -4368,7 +4368,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0x6a5f44d24dca8417db339203d9e07d23321f030b</t>
+          <t>0x0e1c7fbc490b5731b95c6947ecf5296978896f96</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4382,15 +4382,15 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>693530.9484391443</v>
+        <v>433561.8952055909</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2023-12-23</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -4403,7 +4403,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0x7194361efbbf32cdc1499816b4ea37dfae752e7a</t>
+          <t>0xfa713713b1acd89a00e6b35512161630d5ea90de</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4417,15 +4417,15 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>674592.8278462676</v>
+        <v>414598.9165218568</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
-        <v>48</v>
+        <v>519</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -4438,7 +4438,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0xc07c56e8df0ec6e82d38f708037df9c8700891bd</t>
+          <t>0x176e84be013ad9a459c0d1e8517d9be4d4bbe041</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4452,15 +4452,15 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>669136.6806689829</v>
+        <v>351620.5734651388</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2023-07-30</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -4473,7 +4473,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0xd7c443e9960c55fa217a5ac9564f10a58fc87551</t>
+          <t>0xbddbcbaa9cf9603b7055aad963506ede71692f12</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4487,15 +4487,15 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>653353.7037248631</v>
+        <v>322336.2936120798</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
-        <v>354</v>
+        <v>25</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2023-12-02</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -4508,7 +4508,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>0x2597c10df9e712c73925cf56d531e39a95309086</t>
+          <t>0x6912017cf6f8e5db4f3646ac1fd10de1ad3a879a</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4522,15 +4522,15 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>618571.5897730305</v>
+        <v>313006.2594284569</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2023-12-24</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0x1ccd5c3feafdf0f8f213cb715a3d58017d81a3c5</t>
+          <t>0x658c1fcb2cfd518cc02359d6bd58c7305f96ae2f</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4557,15 +4557,15 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>592653.6119499146</v>
+        <v>294469.0705074406</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
@@ -4578,7 +4578,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0xe432c5c72312c4eb69ca1b5009a2fb0a67633f6d</t>
+          <t>0x4107a0a4a50ac2c4cc8c5a3954bc01ff134506b2</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4592,15 +4592,15 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>591359.5517974335</v>
+        <v>282002.0970024481</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="n">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -4613,7 +4613,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>0x42135eed1339759aefae8401c57bcd50e3eadc61</t>
+          <t>0xc9ffafc6e58388f3092045f9639a533fa1338d3e</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4627,15 +4627,15 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>577838.5659567093</v>
+        <v>273842.1430775198</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
@@ -4648,7 +4648,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>0x1cfa6b22788a528698c3371b1f96d0afd31097f0</t>
+          <t>0xbb117d0ef5baaa244cfadcf2fa2e4b816d5c7782</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4662,15 +4662,15 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>555023.6765887382</v>
+        <v>269397.5659573358</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-11-19</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
@@ -4683,7 +4683,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0xcda458e31eede9bae162eff222f1c84d784a2720</t>
+          <t>0x85c5be9c005a993bdcdab666874f744bca300d6f</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4697,15 +4697,15 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>541510.1341594867</v>
+        <v>252094.9533496088</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
@@ -4718,7 +4718,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>0xcd9b041e2ddc83f465bfef63c50a3c88ad2d7d75</t>
+          <t>0x8df9e9d15cb9cb0d793b079d43be8b0f739d2b22</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4732,15 +4732,15 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>538456.624747271</v>
+        <v>229232.3928973374</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
@@ -4753,7 +4753,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>0x0852dba413446b2fd8cc0e45c96b7f226b09e992</t>
+          <t>0x2bdf1dcfd13d4f7e2c3d160e3d92aaf6a5e89150</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4767,15 +4767,15 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>532988.5334441244</v>
+        <v>228404.928123241</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
@@ -4788,7 +4788,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>0x6c57141535ef42ee1ce9fdca57d4a81929556c0b</t>
+          <t>0x87955903515c47c439ef42376c542625631f740f</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>525134.047326758</v>
+        <v>218065.890290361</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="n">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -4823,7 +4823,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>0x35125efdbbb6e2f031f789e28324be8643e6caca</t>
+          <t>0x2f5fa561a7c8e499b58184084569cab25d095101</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4837,15 +4837,15 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>510607.2545434866</v>
+        <v>217144.4887530492</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
@@ -4858,7 +4858,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>0x00000000007cee88e01241c9db0a02b859db5b52</t>
+          <t>0x84f9c4a19d2f96e5907e3e89ada3ef6582ec71e9</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4872,15 +4872,15 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>495204.008443746</v>
+        <v>209502.1889945606</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="n">
-        <v>594</v>
+        <v>18</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2023-12-25</t>
+          <t>2023-12-26</t>
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0xe805535dbae7529601cce37ba35ac1d5f65e9206</t>
+          <t>0x065b5d3708ade81796b752c9ca3eab118082bc33</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4907,15 +4907,15 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>494609.7566767381</v>
+        <v>192715.8531392825</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2023-10-20</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -4928,7 +4928,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0x0b5ccffc42563973e7d2b5e7ea9d504b7e2c9124</t>
+          <t>0x63dbb29fbb4422aa3ddfd9ac9c3b50831d7b89bc</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4942,15 +4942,15 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>492979.0223027612</v>
+        <v>190470.8356325573</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
@@ -4963,7 +4963,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>0xe4ae1a2c64bf7f522c7526d4884ac28b4fdface8</t>
+          <t>0xf2e8666155003c8df650df6e6e1866810e81a391</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4977,15 +4977,15 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>469564.2219761602</v>
+        <v>189871.6370466166</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
@@ -4998,7 +4998,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>0x723b43b6dc19ce1fbf2aaa4402cd05eb6c38a1a5</t>
+          <t>0x1aac8793b215641fbd46fbed2bb2248b2a85fd26</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>468643.8807479065</v>
+        <v>160864.8273205642</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
@@ -5033,7 +5033,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>0xd9f80cb81164163a90745477ce1b2befb246a33f</t>
+          <t>0x32449f0f8f1774f8d1661b8992a50a27f91fa15c</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5047,15 +5047,15 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>466986.2394707311</v>
+        <v>157345.7562509369</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2023-10-20</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="H132" t="inlineStr"/>
@@ -5068,7 +5068,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>0x30bb66154747d706826588663fb52b60cbc3b57c</t>
+          <t>0x32e76ce68901e81f6f4f3d0753215ec386c80dc5</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5082,15 +5082,15 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>464951.5448815862</v>
+        <v>155664.5634209492</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
@@ -5103,7 +5103,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>0xefd36256e41a6478dec47bd0e62e10af3832dba2</t>
+          <t>0xd0b5ac6a70a38ed8fade7ce09378ba668303a56f</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5117,15 +5117,15 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>458418.8012318444</v>
+        <v>148610.0451936511</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2023-08-08</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>0xf83f7fda18ed2100ab5b0e24dd49e81ead4b46a1</t>
+          <t>0xf1299f0c0c3196806bd6cbd2a3eec6855c95c194</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5152,15 +5152,15 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>457849.5155102179</v>
+        <v>132501.5096502914</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -5173,7 +5173,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0x0e1c7fbc490b5731b95c6947ecf5296978896f96</t>
+          <t>0x8d755b5c09eadd74e88085b6937a342984b6186a</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5187,15 +5187,15 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>433561.8952055909</v>
+        <v>131562.161395067</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-10-26</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
@@ -5208,7 +5208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0x83d4a08e59f8fc3c0bd852c6f5563b858dee08d0</t>
+          <t>0x384e4bdfb72ffc505e5383b2218ca5e265ebf024</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5222,15 +5222,15 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>388290.7673863336</v>
+        <v>126259.8085501377</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
@@ -5243,7 +5243,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0x44be220642590094c565757c4ceb69b71204c57e</t>
+          <t>0x744f1013f400268161e7c51256b54157f66e3c20</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5257,15 +5257,15 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>370461.9567085109</v>
+        <v>125328.8644629508</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2024-02-11</t>
         </is>
       </c>
       <c r="H138" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0x111fbf7b389e024d09f35fb091d7d4479b321b0a</t>
+          <t>0x0816e9cf0fffefda927e3808090f032cd7f74808</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5292,15 +5292,15 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>366836.806703443</v>
+        <v>125154.5532402569</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
@@ -5313,7 +5313,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0x93fd330f0f0ce4e1d5dc355515b3048e4daed349</t>
+          <t>0x0b82d2f264cafef63d0192b846653b40c55745ee</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5327,15 +5327,15 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>355258.8033920286</v>
+        <v>124537.1295995799</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
@@ -5348,7 +5348,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0xfa713713b1acd89a00e6b35512161630d5ea90de</t>
+          <t>0xf238aa53d8a66dbefc0ba643e66a20a40986ad1a</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5362,15 +5362,15 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>352868.4798009604</v>
+        <v>114795.3427654725</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="n">
-        <v>444</v>
+        <v>26</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="H141" t="inlineStr"/>
@@ -5383,7 +5383,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0x176e84be013ad9a459c0d1e8517d9be4d4bbe041</t>
+          <t>0x69cbb53e330db8a7244798c5eef99abf93ac173f</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5397,15 +5397,15 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>351620.5734651388</v>
+        <v>114376.09832937</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-12-13</t>
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
@@ -5418,7 +5418,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>0xbddbcbaa9cf9603b7055aad963506ede71692f12</t>
+          <t>0x884cae257155708d0a0830171185e8da12086d67</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5432,15 +5432,15 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>322336.2936120798</v>
+        <v>107066.5939536994</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H143" t="inlineStr"/>
@@ -5453,7 +5453,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0x382641c816efad6a49cf46fc7d912d77884e1208</t>
+          <t>0x62223bb2a4781c9512e5b78cef1655d1d9cd216d</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5467,15 +5467,15 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>314726.0318532867</v>
+        <v>103810.8538979125</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-11-30</t>
         </is>
       </c>
       <c r="H144" t="inlineStr"/>
@@ -5488,7 +5488,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0x658c1fcb2cfd518cc02359d6bd58c7305f96ae2f</t>
+          <t>0x0a50d910f722a4c8c265c161f16037f24b0aad2c</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5502,15 +5502,15 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>294469.0705074406</v>
+        <v>101325.3542034727</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="H145" t="inlineStr"/>
@@ -5523,7 +5523,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>0x4107a0a4a50ac2c4cc8c5a3954bc01ff134506b2</t>
+          <t>0xaded8d8d71a2814134ffdf4a3b8443863fde2230</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5537,15 +5537,15 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>282002.097002448</v>
+        <v>96085.3734396691</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="H146" t="inlineStr"/>
@@ -5558,7 +5558,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0xc9ffafc6e58388f3092045f9639a533fa1338d3e</t>
+          <t>0x8193b8a8044eeb157bb800909b3d931dbaae08e9</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>273842.1430775198</v>
+        <v>88660.50911158459</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="H147" t="inlineStr"/>
@@ -5593,7 +5593,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>0x6912017cf6f8e5db4f3646ac1fd10de1ad3a879a</t>
+          <t>0x5722d71e78291a582d01f08579e92fe0b85705e6</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5607,15 +5607,15 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>272378.134245605</v>
+        <v>87832.42025863042</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="n">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
@@ -5628,7 +5628,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>0xbb117d0ef5baaa244cfadcf2fa2e4b816d5c7782</t>
+          <t>0x89822746c2e63b39eb9d3bb3af86f6c4f4a5d09d</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5642,15 +5642,15 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>269397.5659573358</v>
+        <v>84991.11482944085</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2023-11-19</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="H149" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0x55252a6d50bfad0e5f1009541284c783686f7f25</t>
+          <t>0x5d0c83a6bd7bf1986e5519c766f6568d2b390de0</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5677,15 +5677,15 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>263831.7998882063</v>
+        <v>83188.27545056278</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="H150" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>0x85c5be9c005a993bdcdab666874f744bca300d6f</t>
+          <t>0x1b6c52e8ce5986e15d72c113b98f819f89a13477</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5712,15 +5712,15 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>252094.9533496088</v>
+        <v>76146.42256786452</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-10-25</t>
         </is>
       </c>
       <c r="H151" t="inlineStr"/>
@@ -5733,7 +5733,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>0xe8fc77c8a63b80c27ee43aa4873fcb9b8950c77d</t>
+          <t>0xc27d980b71d5978f8b6de9e1ba01ed001d8760d3</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5747,15 +5747,15 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>249288.0044588918</v>
+        <v>76122.53765675613</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="H152" t="inlineStr"/>
@@ -5768,7 +5768,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>0x9b6fb024b0acb33dcc7c056d37da6e0f0ec91319</t>
+          <t>0xa5ab6287573efc7e2597efd25faddd9df4689986</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5782,15 +5782,15 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>232893.8369804896</v>
+        <v>73410.32231318747</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="H153" t="inlineStr"/>
@@ -5803,7 +5803,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0x11d67fa925877813b744abc0917900c2b1d6eb81</t>
+          <t>0xc0c54ea31065c46cd97e2918b5ad32bf220ec97d</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5817,15 +5817,15 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>229547.8732826525</v>
+        <v>71355.65780128204</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-10-08</t>
         </is>
       </c>
       <c r="H154" t="inlineStr"/>
@@ -5838,7 +5838,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0x8df9e9d15cb9cb0d793b079d43be8b0f739d2b22</t>
+          <t>0x29d7abaa0137375d542ef2442b6a11c054b03940</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5852,15 +5852,15 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>229232.3928973374</v>
+        <v>69438.37573101131</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
@@ -5873,7 +5873,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0x2bdf1dcfd13d4f7e2c3d160e3d92aaf6a5e89150</t>
+          <t>0x25088e982e0334d30db05b9b38ea259dfc217d08</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5887,15 +5887,15 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>228404.928123241</v>
+        <v>68747.0296405714</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="H156" t="inlineStr"/>
@@ -5908,7 +5908,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>0xba28b3951c418656ce207071838edc3879da6f20</t>
+          <t>0x0d8e6b2063ba3a3ff25c27dc8231f063793ea563</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5922,15 +5922,15 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>224744.6166414952</v>
+        <v>67239.23709532738</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="H157" t="inlineStr"/>
@@ -5943,7 +5943,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>0x87955903515c47c439ef42376c542625631f740f</t>
+          <t>0x92c845c7021491902b46cc863f644c2bbef27706</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5957,15 +5957,15 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>218065.890290361</v>
+        <v>67073.68179799251</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="n">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H158" t="inlineStr"/>
@@ -5978,7 +5978,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>0x2f5fa561a7c8e499b58184084569cab25d095101</t>
+          <t>0x5f2bdde532a1bcd9a5f1844a64341ba788be3b05</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5992,15 +5992,15 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>217144.4887530492</v>
+        <v>62167.16101368841</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="H159" t="inlineStr"/>
@@ -6013,7 +6013,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0x9c75e722dac0ee9ffe05fb2b85379586989e8fb9</t>
+          <t>0x6fb4ad9e01f9a624d3665bb0f93e7966ae8a51d2</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6027,15 +6027,15 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>214574.130280564</v>
+        <v>62088.97044398444</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="H160" t="inlineStr"/>
@@ -6048,7 +6048,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0x84f9c4a19d2f96e5907e3e89ada3ef6582ec71e9</t>
+          <t>0xc365d1f84f74b8b5c74accac1600c21fd8874cab</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6062,15 +6062,15 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>209502.1889945606</v>
+        <v>58651.60548993568</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2023-12-26</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="H161" t="inlineStr"/>
@@ -6083,7 +6083,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>0xa717cfda01dd5a725ba5a71781ef41136a5b3f90</t>
+          <t>0xb268301948a444cc4beeb57b78a721dc9d7e8493</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6097,15 +6097,15 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>201663.6138132405</v>
+        <v>57826.56231253307</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="H162" t="inlineStr"/>
@@ -6118,7 +6118,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0x63e4dbd6c923c117d9ac67682c8f085498051459</t>
+          <t>0xa57e5b9611db03cd47509053a040f039f9f17119</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>193980.5628862808</v>
+        <v>56344.62903335871</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
@@ -6153,7 +6153,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>0x065b5d3708ade81796b752c9ca3eab118082bc33</t>
+          <t>0xc28e23e7d7d6cc0c9c6f08146c71e7d168cae45a</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -6167,15 +6167,15 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>192715.8531392825</v>
+        <v>55255.89225908471</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2023-10-20</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
@@ -6188,7 +6188,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>0x63dbb29fbb4422aa3ddfd9ac9c3b50831d7b89bc</t>
+          <t>0xf137eee9784ddc161ad6831babcdced4ac788c91</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>190470.8356325573</v>
+        <v>54453.08724025525</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="n">
@@ -6210,7 +6210,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
@@ -6223,7 +6223,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>0xf2e8666155003c8df650df6e6e1866810e81a391</t>
+          <t>0x0f7c8669771d711486379a9a0445d21a35626d9c</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -6237,15 +6237,15 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>189871.6370466166</v>
+        <v>53907.99428816992</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-16</t>
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
@@ -6258,7 +6258,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>0xa3e6278f7264dbdb8d6e2154007b3d38640d2ffa</t>
+          <t>0x839945574f4dd4b6691339a6bda3c17df314ed96</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -6272,15 +6272,15 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>186656.4826222246</v>
+        <v>53605.10159313193</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
@@ -6293,7 +6293,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>0x0c147717115f077ac9865be06afcb399504ab21b</t>
+          <t>0x0ba107ae92eb8b3835790195f5bd1cb0a6b5cbe7</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -6307,15 +6307,15 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>185029.2702519305</v>
+        <v>52458.9931973385</v>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
@@ -6328,7 +6328,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>0x779e2524ae16687c35094638fd75e4695ff5034b</t>
+          <t>0x8b7a6fec5c6638c1d667ef8126b457fec09376eb</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -6342,15 +6342,15 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>176339.2817309956</v>
+        <v>51564.40760234917</v>
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
@@ -6363,7 +6363,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>0x6a6b085b746190c31a59154847cad38195a2ede0</t>
+          <t>0x85ceadc73a7435078d9bf8f5b54fec5baeb9676d</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6377,15 +6377,15 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>169228.2301027725</v>
+        <v>51190.52513049851</v>
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2023-07-28</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="H170" t="inlineStr"/>
@@ -6398,7 +6398,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>0x1aac8793b215641fbd46fbed2bb2248b2a85fd26</t>
+          <t>0xf5e6fc86d0cb1c85fdfda859237868d3df966017</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6412,15 +6412,15 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>160864.8273205642</v>
+        <v>50090.17859465365</v>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="H171" t="inlineStr"/>
@@ -6433,7 +6433,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>0x32e76ce68901e81f6f4f3d0753215ec386c80dc5</t>
+          <t>0x037ed1c0cd972dc9947d113a2b51acb3ca06269d</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -6447,15 +6447,15 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>155664.5634209492</v>
+        <v>49573.3612563576</v>
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2023-10-22</t>
         </is>
       </c>
       <c r="H172" t="inlineStr"/>
@@ -6468,7 +6468,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>0x14075a8e667bfd92154ff24f92ecb96bc20abb20</t>
+          <t>0x8b272dacabe8839d17abdb866dd40c48343fe27e</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -6482,15 +6482,15 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>153330.7030594033</v>
+        <v>47727.88556872017</v>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="H173" t="inlineStr"/>
@@ -6503,7 +6503,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0xd0b5ac6a70a38ed8fade7ce09378ba668303a56f</t>
+          <t>0x5f958658f069f068d051faf0e2ad7c98e96b6afa</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6517,15 +6517,15 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>148610.0451936511</v>
+        <v>47662.92005690755</v>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="n">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="H174" t="inlineStr"/>
@@ -6538,7 +6538,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0xed960af1cbf2e998749423293e9c24394bb53d2e</t>
+          <t>0x2dc547772fdef7453bb97b6188d5f8b7ec6579b6</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6552,15 +6552,15 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>141380.6289885587</v>
+        <v>46855.54521786293</v>
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
@@ -6573,7 +6573,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>0x09630235efea6ae3be2dc0dcc8e52df23ac54db3</t>
+          <t>0x708f741b5fa76c9f4a70355207b4f0226ce265f3</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6587,15 +6587,15 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>133277.4615351627</v>
+        <v>44930.35569457441</v>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="H176" t="inlineStr"/>
@@ -6608,7 +6608,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>0xf1299f0c0c3196806bd6cbd2a3eec6855c95c194</t>
+          <t>0x8ea09876073ea51cc2f098029f03d7f1255a4bb1</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6622,15 +6622,15 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>132501.5096502914</v>
+        <v>44919.47688563216</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="H177" t="inlineStr"/>
@@ -6643,7 +6643,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>0x8d755b5c09eadd74e88085b6937a342984b6186a</t>
+          <t>0xe5845761e7773976055f2559ca54be41f09d9e88</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6657,15 +6657,15 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>131562.161395067</v>
+        <v>43782.15738183271</v>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="H178" t="inlineStr"/>
@@ -6678,7 +6678,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>0x0816e9cf0fffefda927e3808090f032cd7f74808</t>
+          <t>0x606f3519fb6447ad54c1061af3431ff277aa4ac4</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6692,15 +6692,15 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>125154.5532402569</v>
+        <v>42738.94200852532</v>
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="H179" t="inlineStr"/>
@@ -6713,7 +6713,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>0x744f1013f400268161e7c51256b54157f66e3c20</t>
+          <t>0x28d664b3d47c7f5980f94ba97adb9f2c9462560c</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6727,15 +6727,15 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>124409.9186648404</v>
+        <v>39688.97405299002</v>
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2024-02-19</t>
         </is>
       </c>
       <c r="H180" t="inlineStr"/>
@@ -6748,7 +6748,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>0x384e4bdfb72ffc505e5383b2218ca5e265ebf024</t>
+          <t>0x0ce3f106e3d9caef708bb45dc8f4a690167ab660</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6762,15 +6762,15 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>122425.0978680615</v>
+        <v>39684.72441525539</v>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="H181" t="inlineStr"/>
@@ -6783,7 +6783,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>0x32449f0f8f1774f8d1661b8992a50a27f91fa15c</t>
+          <t>0xbbbf2217ca210357e96e97a82ef2f9fad84d82c5</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6797,15 +6797,15 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>122335.815893084</v>
+        <v>37896.27158962301</v>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2023-10-21</t>
         </is>
       </c>
       <c r="H182" t="inlineStr"/>
@@ -6818,7 +6818,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>0xf238aa53d8a66dbefc0ba643e66a20a40986ad1a</t>
+          <t>0x997586544a1ef3505bf268de838a6ec1eaebd427</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6832,15 +6832,15 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>114795.3427654725</v>
+        <v>37166.69204260781</v>
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="H183" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>0x69cbb53e330db8a7244798c5eef99abf93ac173f</t>
+          <t>0x72027b03509d566047bea2cb3f1bbf22742f5a7e</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6867,15 +6867,15 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>114376.09832937</v>
+        <v>34992.46067336755</v>
       </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2023-12-13</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="H184" t="inlineStr"/>
@@ -6888,7 +6888,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>0xbd59b9caff61612fcdca1198883b03005086c01f</t>
+          <t>0xba260bcc7f8beb65874e81e046f8dc894837c20e</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6902,15 +6902,15 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>113844.3334538641</v>
+        <v>32528.01245072761</v>
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2024-01-07</t>
         </is>
       </c>
       <c r="H185" t="inlineStr"/>
@@ -6923,7 +6923,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>0x4214793221d253482beb406d1f76b657a0bdb374</t>
+          <t>0x7c14af9908287642eb11d557960d2e0df7bdee76</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6937,15 +6937,15 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>107412.0063452221</v>
+        <v>31619.45333866</v>
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="H186" t="inlineStr"/>
@@ -6958,7 +6958,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>0x884cae257155708d0a0830171185e8da12086d67</t>
+          <t>0x9699672b32a3a1762e6de67dd2b3e41b6eef58ae</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6972,15 +6972,15 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>107066.5939536994</v>
+        <v>30957.9790284799</v>
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="H187" t="inlineStr"/>
@@ -6993,7 +6993,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>0x62223bb2a4781c9512e5b78cef1655d1d9cd216d</t>
+          <t>0xd6a430b25b12e39dcc01edf5c84a860d27777777</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -7007,15 +7007,15 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>103810.8538979125</v>
+        <v>28567.51295440687</v>
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-26</t>
         </is>
       </c>
       <c r="H188" t="inlineStr"/>
@@ -7028,7 +7028,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>0x7e374cbb230591d5406ce52233187e39a2a86aed</t>
+          <t>0x07642ebf66dafa1f13d40f5a9e92a8bae98a03ab</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -7042,15 +7042,15 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>102546.8882567504</v>
+        <v>28489.42328773871</v>
       </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="H189" t="inlineStr"/>
@@ -7063,7 +7063,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>0x5da02702fa4fa802affd9d8736c7ec1991873801</t>
+          <t>0xf087cbf7a233540d46c9c15e9a5101a2da5a6eb7</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -7077,15 +7077,15 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>101570.4552731452</v>
+        <v>28224.20275477675</v>
       </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="H190" t="inlineStr"/>
@@ -7098,7 +7098,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>0x0a50d910f722a4c8c265c161f16037f24b0aad2c</t>
+          <t>0x5687e60393897d95ee65ddfc73e389b0c922d397</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -7112,15 +7112,15 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>101325.3542034727</v>
+        <v>27527.0553024</v>
       </c>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="H191" t="inlineStr"/>
@@ -7133,7 +7133,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>0xaded8d8d71a2814134ffdf4a3b8443863fde2230</t>
+          <t>0xe23153547ff13b61af1c8e7d518b5c13527c93bc</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -7147,15 +7147,15 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>96085.3734396691</v>
+        <v>23666.50413814431</v>
       </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="H192" t="inlineStr"/>
@@ -7168,7 +7168,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>0x594abfeae5943e2d47e019939b5257eae38222d7</t>
+          <t>0xd8b75eb7bd778ac0b3f5ffad69bcc2e25bccac95</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -7182,15 +7182,15 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>93623.58105203691</v>
+        <v>22738.22475202813</v>
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="H193" t="inlineStr"/>
@@ -7203,7 +7203,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>0x435d8870ea24d8998fb884d9bda4d88bc93c6360</t>
+          <t>0x9eff83490fadadbf98ac44e1adf08fb6a4e58c22</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7217,15 +7217,15 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>93582.38252984747</v>
+        <v>22389.3064296</v>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="H194" t="inlineStr"/>
@@ -7238,7 +7238,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>0xf3454674781353aff95c79538733251f7d5b8635</t>
+          <t>0x6442b001c5acce8cb71986ad65b22684821a927a</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -7252,15 +7252,15 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>91764.7343617765</v>
+        <v>22214.04722321258</v>
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="n">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2023-07-31</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="H195" t="inlineStr"/>
@@ -7273,7 +7273,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>0x8193b8a8044eeb157bb800909b3d931dbaae08e9</t>
+          <t>0xa34165858aa5c8518aaa0496de1c8ebd6351f4bf</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -7287,15 +7287,15 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>88660.50911158459</v>
+        <v>20218.21730379842</v>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="H196" t="inlineStr"/>
@@ -7308,7 +7308,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>0x5722d71e78291a582d01f08579e92fe0b85705e6</t>
+          <t>0x6835b3b8f3940d68dbd4edd06f96f7888fc262ca</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -7322,11 +7322,11 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>87832.42025863043</v>
+        <v>19705.46638648416</v>
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>0x89822746c2e63b39eb9d3bb3af86f6c4f4a5d09d</t>
+          <t>0x333e208f3a0b16852695692fe1b5aef2188a71d6</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -7357,15 +7357,15 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>84991.11482944085</v>
+        <v>18785.37530784501</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
@@ -7378,7 +7378,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>0x5d0c83a6bd7bf1986e5519c766f6568d2b390de0</t>
+          <t>0xb759ca70078a4329c6c10600b18447ac3f7e0d7b</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -7392,15 +7392,15 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>83188.27545056278</v>
+        <v>18351.34465556748</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2023-12-06</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="H199" t="inlineStr"/>
@@ -7413,7 +7413,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>0xa17ca847f65f57926e1304a26d7307cd32adf940</t>
+          <t>0x691d5b76eae4ce3e9c8d1d82b3cb1ce26d175fa1</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -7427,15 +7427,15 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>81908.45039602136</v>
+        <v>17859.1439462071</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="H200" t="inlineStr"/>
@@ -7448,7 +7448,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>0x2481f3e5c0c8339cdbe585e54df96b85d0193423</t>
+          <t>0x4b1e91fdcd95d514e20a62ab565661003efd6b71</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -7462,15 +7462,15 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>78690.72083458431</v>
+        <v>17774.24923551819</v>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="n">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="H201" t="inlineStr"/>
@@ -7483,7 +7483,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>0x1b6c52e8ce5986e15d72c113b98f819f89a13477</t>
+          <t>0x656faa1fc88ff4087c9523a211ea47b29f979a0f</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>76146.42256786452</v>
+        <v>17067.916966382</v>
       </c>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="n">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="H202" t="inlineStr"/>
@@ -7518,7 +7518,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>0xc27d980b71d5978f8b6de9e1ba01ed001d8760d3</t>
+          <t>0x580895d47d90f211e638325604d53c0b2ff51e6f</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -7532,11 +7532,11 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>76122.5376567561</v>
+        <v>16154.11010109266</v>
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>0x758567401325eca3632ac74a6ace4308a15bce36</t>
+          <t>0xfc6832b25e135a9e7dd24cdf8eea0ab78c20c86f</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -7567,15 +7567,15 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>75338.83841776387</v>
+        <v>15955.29753146497</v>
       </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="n">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="H204" t="inlineStr"/>
@@ -7588,7 +7588,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>0xa5ab6287573efc7e2597efd25faddd9df4689986</t>
+          <t>0x1cbd4704f528cc2293b9822c6ed2eb52fdaaa845</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>73410.32231318747</v>
+        <v>15855.179380535</v>
       </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="n">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
@@ -7623,7 +7623,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>0xc0c54ea31065c46cd97e2918b5ad32bf220ec97d</t>
+          <t>0x0c50f80ad44e8ed621c40294119d4da0f5bcfa16</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -7637,15 +7637,15 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>71355.65780128204</v>
+        <v>15337.62440608527</v>
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>2023-10-08</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="H206" t="inlineStr"/>
@@ -7658,7 +7658,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>0x29d7abaa0137375d542ef2442b6a11c054b03940</t>
+          <t>0x392e2dba91a260819e6736ef1ff6a0927845d746</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -7672,15 +7672,15 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>69438.37573101131</v>
+        <v>14144.44901772263</v>
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="H207" t="inlineStr"/>
@@ -7693,7 +7693,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>0x25088e982e0334d30db05b9b38ea259dfc217d08</t>
+          <t>0xc44b0378e400a9958219ec8f294c23b9976e3c5d</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -7707,15 +7707,15 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>68747.0296405714</v>
+        <v>13956.00081317907</v>
       </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="H208" t="inlineStr"/>
@@ -7728,7 +7728,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>0x0d8e6b2063ba3a3ff25c27dc8231f063793ea563</t>
+          <t>0x81a06ca0b9e1b47f5bf3037d448a505694faad84</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>67239.23709532738</v>
+        <v>13896.03768672427</v>
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="n">
@@ -7763,7 +7763,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>0x222723c26baa6d4d90d735df553400523310c018</t>
+          <t>0xbc980bb5995f2c1f3c777dff918d21c811a61032</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -7777,15 +7777,15 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>67143.10508878148</v>
+        <v>13876.40421022591</v>
       </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="H210" t="inlineStr"/>
@@ -7798,7 +7798,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>0x92c845c7021491902b46cc863f644c2bbef27706</t>
+          <t>0xff679aa5410991a976a9d9461d30e7e5958ce672</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -7812,15 +7812,15 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>67073.68179799251</v>
+        <v>13325.37970762593</v>
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="n">
-        <v>222</v>
+        <v>6</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="H211" t="inlineStr"/>
@@ -7833,7 +7833,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>0xdd032c4672591d73d5bbea8ff1909a9088792eb4</t>
+          <t>0xd4ec19bf6aec83db501ad4ad82781b640d4e2be7</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -7847,15 +7847,15 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>65602.39658083901</v>
+        <v>13230.41115636551</v>
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="H212" t="inlineStr"/>
@@ -7868,7 +7868,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>0x933dee016651904656b46e82c74b423d264668fa</t>
+          <t>0xa4bf8f022485bf6d8e2deb70561e712fc874cd42</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -7882,15 +7882,15 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>63689.7826286914</v>
+        <v>12651.23719192337</v>
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="H213" t="inlineStr"/>
@@ -7903,7 +7903,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>0xc365d1f84f74b8b5c74accac1600c21fd8874cab</t>
+          <t>0x042ca50b9f24956ffe73e082ec14e8466de4b1c0</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -7917,15 +7917,15 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>58651.60548993568</v>
+        <v>12035.33782590134</v>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="H214" t="inlineStr"/>
@@ -7938,7 +7938,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>0x6fb4ad9e01f9a624d3665bb0f93e7966ae8a51d2</t>
+          <t>0x770c720f82c91fcf310c30c07f847875c5587646</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -7952,15 +7952,15 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>58149.45410800091</v>
+        <v>11988.06633568716</v>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="n">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="H215" t="inlineStr"/>
@@ -7973,7 +7973,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>0xb268301948a444cc4beeb57b78a721dc9d7e8493</t>
+          <t>0x5c82f7a4c776b73856ab18f96aa84cde8bdbc20c</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -7987,15 +7987,15 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>57826.56231253307</v>
+        <v>11859.6215903187</v>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="H216" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>0xa57e5b9611db03cd47509053a040f039f9f17119</t>
+          <t>0x9a06f4041c1b088e536eee53dd8813ee0b9ad62c</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -8022,15 +8022,15 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>56344.62903335871</v>
+        <v>11812.77933555771</v>
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="H217" t="inlineStr"/>
@@ -8043,7 +8043,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>0xc28e23e7d7d6cc0c9c6f08146c71e7d168cae45a</t>
+          <t>0x83cced5006ec03eb01e426ede7ce5abd9b11d664</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -8057,15 +8057,15 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>55255.89225908471</v>
+        <v>11731.19925312239</v>
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="H218" t="inlineStr"/>
@@ -8078,7 +8078,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>0xc5f2b0742d7b9ace2e7e278e010e75d193cd21a5</t>
+          <t>0x3c634d6b4fccffd3fbc77997edd98951ac344650</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -8092,15 +8092,15 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>54903.97860556202</v>
+        <v>10735.13517287955</v>
       </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="H219" t="inlineStr"/>
@@ -8113,7 +8113,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>0xf137eee9784ddc161ad6831babcdced4ac788c91</t>
+          <t>0xd3eb25bef8c34ea489fb301d9d1223b6503407ba</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -8127,15 +8127,15 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>54453.08724025525</v>
+        <v>10413.1034064622</v>
       </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="H220" t="inlineStr"/>
@@ -8148,7 +8148,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>0x0f7c8669771d711486379a9a0445d21a35626d9c</t>
+          <t>0x15aac9692624eee62720cf5f5a9dc981eaa5aa6d</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -8162,15 +8162,15 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>53907.99428816992</v>
+        <v>10319.82207849088</v>
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="H221" t="inlineStr"/>
@@ -8183,7 +8183,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>0x84e770cf8914dc1336b13898131c804a90d68501</t>
+          <t>0xf1ef188243016897d4fd28412d86b7c3744524a2</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -8197,15 +8197,15 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>51782.95306438683</v>
+        <v>10299.97833067906</v>
       </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="H222" t="inlineStr"/>
@@ -8218,7 +8218,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>0x8b7a6fec5c6638c1d667ef8126b457fec09376eb</t>
+          <t>0xeaf69a6edb8cd48eead026d7940f3a534cc4a12e</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>51564.40760234917</v>
+        <v>10216.2614838405</v>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="H223" t="inlineStr"/>
@@ -8253,7 +8253,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>0x85ceadc73a7435078d9bf8f5b54fec5baeb9676d</t>
+          <t>0xb38d3201c3848d815d2b99c1586bb2418fb3ec68</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -8267,15 +8267,15 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>51190.52513049851</v>
+        <v>10091.3003931166</v>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
@@ -8288,7 +8288,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>0x1f0c6d5f95b21eddcb6d45350629b6c6b15803be</t>
+          <t>0x78f7eeb741060a3d0c514a09558e1233af138fb1</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -8302,15 +8302,15 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>51099.22136322776</v>
+        <v>10080.55369077879</v>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="H225" t="inlineStr"/>
@@ -8323,7 +8323,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>0xf5e6fc86d0cb1c85fdfda859237868d3df966017</t>
+          <t>0xfb680c36ccebab9e53403b645fecc148c7ddc2bb</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -8337,2574 +8337,19 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>50090.17859465365</v>
+        <v>10048.28210305291</v>
       </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>0x037ed1c0cd972dc9947d113a2b51acb3ca06269d</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D227" t="n">
-        <v>49573.3612563576</v>
-      </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="n">
-        <v>5</v>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>2023-10-22</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>0x2dc547772fdef7453bb97b6188d5f8b7ec6579b6</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D228" t="n">
-        <v>46855.54521786293</v>
-      </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="n">
-        <v>45</v>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>2023-10-12</t>
-        </is>
-      </c>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>0x7c24d0e9d2a5e3f122b3321051d71e710c23b84a</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D229" t="n">
-        <v>46637.39632952696</v>
-      </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="n">
-        <v>27</v>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>0x708f741b5fa76c9f4a70355207b4f0226ce265f3</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D230" t="n">
-        <v>44930.35569457441</v>
-      </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="n">
-        <v>2</v>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>2023-11-29</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>0x5f2bdde532a1bcd9a5f1844a64341ba788be3b05</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D231" t="n">
-        <v>44543.92231071807</v>
-      </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="n">
-        <v>22</v>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>2024-01-17</t>
-        </is>
-      </c>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>0xad215b7a7817e86dc5cb43a3f31d4704890bf40f</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D232" t="n">
-        <v>44121.64917362592</v>
-      </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="n">
-        <v>27</v>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>0x0edae34a23456bfa9ff2dad27ba50e4f4c592a16</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D233" t="n">
-        <v>43887.89821349819</v>
-      </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="n">
-        <v>5</v>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>0xe5845761e7773976055f2559ca54be41f09d9e88</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>43782.15738183271</v>
-      </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="n">
-        <v>67</v>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>0xa86de15e2b5f966e1c7e38ed5356f6cc3da9a24f</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>41214.25771485171</v>
-      </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="n">
-        <v>12</v>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>2023-07-24</t>
-        </is>
-      </c>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>0x5f958658f069f068d051faf0e2ad7c98e96b6afa</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>40737.70907582063</v>
-      </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="n">
-        <v>135</v>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>2024-01-18</t>
-        </is>
-      </c>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>0x0ce3f106e3d9caef708bb45dc8f4a690167ab660</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>39684.72441525539</v>
-      </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="n">
-        <v>5</v>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>2023-11-03</t>
-        </is>
-      </c>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>0x50cb3c7b8eac3b33d4f1e2cb245437c68d27b726</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>39389.23107928567</v>
-      </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="n">
-        <v>30</v>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>0xbbbf2217ca210357e96e97a82ef2f9fad84d82c5</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>37896.27158962301</v>
-      </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="n">
-        <v>2</v>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>2023-10-21</t>
-        </is>
-      </c>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>0x997586544a1ef3505bf268de838a6ec1eaebd427</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>37166.69204260781</v>
-      </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="n">
-        <v>2</v>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>2024-01-18</t>
-        </is>
-      </c>
-      <c r="H240" t="inlineStr"/>
-      <c r="I240" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>0x0ba107ae92eb8b3835790195f5bd1cb0a6b5cbe7</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D241" t="n">
-        <v>35701.74509338375</v>
-      </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="n">
-        <v>50</v>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>2024-01-12</t>
-        </is>
-      </c>
-      <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>0x72027b03509d566047bea2cb3f1bbf22742f5a7e</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D242" t="n">
-        <v>34992.46067336755</v>
-      </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="n">
-        <v>4</v>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>2023-09-21</t>
-        </is>
-      </c>
-      <c r="H242" t="inlineStr"/>
-      <c r="I242" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>0x58eb17eb1b986ce884344766689e7aefa88ed3af</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D243" t="n">
-        <v>34104.16701232029</v>
-      </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="n">
-        <v>4</v>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>2023-08-02</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>0xba260bcc7f8beb65874e81e046f8dc894837c20e</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D244" t="n">
-        <v>32528.01245072761</v>
-      </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="n">
-        <v>10</v>
-      </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>2024-01-07</t>
-        </is>
-      </c>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>0x7ddb95fa83da7d6ad3910fe5edb33a04920abbbb</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D245" t="n">
-        <v>31229.33723756728</v>
-      </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="n">
-        <v>49</v>
-      </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
-      <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>0x9699672b32a3a1762e6de67dd2b3e41b6eef58ae</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D246" t="n">
-        <v>30957.9790284799</v>
-      </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="n">
-        <v>21</v>
-      </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>2023-09-23</t>
-        </is>
-      </c>
-      <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>0xdef01332c7f8305dee80b6d48657cc8db7ce9ca5</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D247" t="n">
-        <v>30121.39392251793</v>
-      </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="n">
-        <v>49</v>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>2023-08-02</t>
-        </is>
-      </c>
-      <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>0x8f25818ff64be1abee91abca70c306b33b602062</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D248" t="n">
-        <v>29943.1021460355</v>
-      </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="n">
-        <v>2</v>
-      </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>2023-08-03</t>
-        </is>
-      </c>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>0x7f37d9a32241657ca0681361ea8d73e15b17787e</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D249" t="n">
-        <v>28926.4063625092</v>
-      </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="n">
-        <v>11</v>
-      </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
-      <c r="H249" t="inlineStr"/>
-      <c r="I249" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>0xd6a430b25b12e39dcc01edf5c84a860d27777777</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D250" t="n">
-        <v>28567.51295440687</v>
-      </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="n">
-        <v>10</v>
-      </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>2023-12-26</t>
-        </is>
-      </c>
-      <c r="H250" t="inlineStr"/>
-      <c r="I250" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>0x07642ebf66dafa1f13d40f5a9e92a8bae98a03ab</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D251" t="n">
-        <v>28489.42328773871</v>
-      </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="n">
-        <v>4</v>
-      </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>2024-01-19</t>
-        </is>
-      </c>
-      <c r="H251" t="inlineStr"/>
-      <c r="I251" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>0xf087cbf7a233540d46c9c15e9a5101a2da5a6eb7</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D252" t="n">
-        <v>28224.20275477675</v>
-      </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="n">
-        <v>8</v>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>2023-11-10</t>
-        </is>
-      </c>
-      <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>0x8b272dacabe8839d17abdb866dd40c48343fe27e</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D253" t="n">
-        <v>27848.82276475013</v>
-      </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="n">
-        <v>4</v>
-      </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>2024-01-18</t>
-        </is>
-      </c>
-      <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>0x5687e60393897d95ee65ddfc73e389b0c922d397</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D254" t="n">
-        <v>27527.0553024</v>
-      </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="n">
-        <v>2</v>
-      </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>2024-01-10</t>
-        </is>
-      </c>
-      <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>0x12d14464118089ec31b3cc642af2852f4d460ad2</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D255" t="n">
-        <v>27267.03423161543</v>
-      </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="n">
-        <v>16</v>
-      </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>0xcba35d14246eff555029e7e349bec5720b565eaa</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D256" t="n">
-        <v>26265.3642462694</v>
-      </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="n">
-        <v>2</v>
-      </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>0x4ffc5f22770ab6046c8d66dabae3a9cd1e7a03e7</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D257" t="n">
-        <v>25853.47140073002</v>
-      </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="n">
-        <v>3</v>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>2023-08-01</t>
-        </is>
-      </c>
-      <c r="H257" t="inlineStr"/>
-      <c r="I257" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>0x8603213d82723613021c6454832b64a24de3b8bc</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D258" t="n">
-        <v>25527.9368731031</v>
-      </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="n">
-        <v>21</v>
-      </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>2023-08-01</t>
-        </is>
-      </c>
-      <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>0xe23153547ff13b61af1c8e7d518b5c13527c93bc</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D259" t="n">
-        <v>23666.50413814431</v>
-      </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="n">
-        <v>4</v>
-      </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>2024-01-18</t>
-        </is>
-      </c>
-      <c r="H259" t="inlineStr"/>
-      <c r="I259" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>0xd8b75eb7bd778ac0b3f5ffad69bcc2e25bccac95</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D260" t="n">
-        <v>22738.22475202813</v>
-      </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="n">
-        <v>2</v>
-      </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>2023-11-29</t>
-        </is>
-      </c>
-      <c r="H260" t="inlineStr"/>
-      <c r="I260" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>0x6442b001c5acce8cb71986ad65b22684821a927a</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D261" t="n">
-        <v>22214.04722321258</v>
-      </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="n">
-        <v>82</v>
-      </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
-      <c r="H261" t="inlineStr"/>
-      <c r="I261" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>0xd0ffeb96e4e9d1a4de008a2fd5a9c416d7ce048f</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D262" t="n">
-        <v>21885.32262696238</v>
-      </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="n">
-        <v>8</v>
-      </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="H262" t="inlineStr"/>
-      <c r="I262" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>0x9fe57eb65d17177a069331e7d2746df602f538d3</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D263" t="n">
-        <v>21163.02236969611</v>
-      </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="n">
-        <v>4</v>
-      </c>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t>2023-08-12</t>
-        </is>
-      </c>
-      <c r="H263" t="inlineStr"/>
-      <c r="I263" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>0x7e34821010f18d1b2341a4856b5ed8bc7cdb6507</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D264" t="n">
-        <v>20996.49658432349</v>
-      </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="n">
-        <v>22</v>
-      </c>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>0xa34165858aa5c8518aaa0496de1c8ebd6351f4bf</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D265" t="n">
-        <v>20218.21730379842</v>
-      </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="n">
-        <v>15</v>
-      </c>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
-      <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>0x401efc335b3266abe4418c3f6be396bdc7043e66</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D266" t="n">
-        <v>19802.17822970368</v>
-      </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="n">
-        <v>2</v>
-      </c>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>2023-08-03</t>
-        </is>
-      </c>
-      <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>0x6835b3b8f3940d68dbd4edd06f96f7888fc262ca</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D267" t="n">
-        <v>19705.46638648416</v>
-      </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="n">
-        <v>2</v>
-      </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>0x4e56b9a7882413f7a9e36faf891e30f73324b0a7</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D268" t="n">
-        <v>19522.45540842923</v>
-      </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="n">
-        <v>24</v>
-      </c>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="H268" t="inlineStr"/>
-      <c r="I268" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>0xb759ca70078a4329c6c10600b18447ac3f7e0d7b</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D269" t="n">
-        <v>18351.34465556748</v>
-      </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="n">
-        <v>20</v>
-      </c>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="H269" t="inlineStr"/>
-      <c r="I269" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>0xe5f8a81f072150701c25fba31c910884fa33098c</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D270" t="n">
-        <v>17935.83468703466</v>
-      </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="n">
-        <v>29</v>
-      </c>
-      <c r="G270" t="inlineStr">
-        <is>
-          <t>2023-08-09</t>
-        </is>
-      </c>
-      <c r="H270" t="inlineStr"/>
-      <c r="I270" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>0x691d5b76eae4ce3e9c8d1d82b3cb1ce26d175fa1</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D271" t="n">
-        <v>17859.1439462071</v>
-      </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="n">
-        <v>18</v>
-      </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>2023-11-09</t>
-        </is>
-      </c>
-      <c r="H271" t="inlineStr"/>
-      <c r="I271" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>0x4b1e91fdcd95d514e20a62ab565661003efd6b71</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D272" t="n">
-        <v>17774.24923551818</v>
-      </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="n">
-        <v>80</v>
-      </c>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
-      <c r="H272" t="inlineStr"/>
-      <c r="I272" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>0x656faa1fc88ff4087c9523a211ea47b29f979a0f</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D273" t="n">
-        <v>17067.916966382</v>
-      </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="n">
-        <v>8</v>
-      </c>
-      <c r="G273" t="inlineStr">
-        <is>
-          <t>2023-09-26</t>
-        </is>
-      </c>
-      <c r="H273" t="inlineStr"/>
-      <c r="I273" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>0x46f2c3ce0c4c8b7ebb34809acaa1cc236b90dac4</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D274" t="n">
-        <v>16536.1111843352</v>
-      </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="n">
-        <v>4</v>
-      </c>
-      <c r="G274" t="inlineStr">
-        <is>
-          <t>2023-08-07</t>
-        </is>
-      </c>
-      <c r="H274" t="inlineStr"/>
-      <c r="I274" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>0x580895d47d90f211e638325604d53c0b2ff51e6f</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D275" t="n">
-        <v>16154.11010109266</v>
-      </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="n">
-        <v>9</v>
-      </c>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="H275" t="inlineStr"/>
-      <c r="I275" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>0xfc6832b25e135a9e7dd24cdf8eea0ab78c20c86f</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D276" t="n">
-        <v>15955.29753146497</v>
-      </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="n">
-        <v>3</v>
-      </c>
-      <c r="G276" t="inlineStr">
-        <is>
-          <t>2023-10-27</t>
-        </is>
-      </c>
-      <c r="H276" t="inlineStr"/>
-      <c r="I276" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>0x1cbd4704f528cc2293b9822c6ed2eb52fdaaa845</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D277" t="n">
-        <v>15855.179380535</v>
-      </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="n">
-        <v>2</v>
-      </c>
-      <c r="G277" t="inlineStr">
-        <is>
-          <t>2023-11-14</t>
-        </is>
-      </c>
-      <c r="H277" t="inlineStr"/>
-      <c r="I277" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>0x20955cdaa26a20fd02c0a876612a37a6c6606c16</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D278" t="n">
-        <v>15436.98546361513</v>
-      </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="n">
-        <v>2</v>
-      </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>2023-08-07</t>
-        </is>
-      </c>
-      <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>0x0c50f80ad44e8ed621c40294119d4da0f5bcfa16</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D279" t="n">
-        <v>15337.62440608527</v>
-      </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="n">
-        <v>17</v>
-      </c>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="H279" t="inlineStr"/>
-      <c r="I279" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>0x45a61c5c4f59b1ba280eea84a1a8bfda368ded9d</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D280" t="n">
-        <v>14363.84449937526</v>
-      </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="n">
-        <v>12</v>
-      </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="H280" t="inlineStr"/>
-      <c r="I280" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>0x392e2dba91a260819e6736ef1ff6a0927845d746</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D281" t="n">
-        <v>14144.44901772263</v>
-      </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="n">
-        <v>3</v>
-      </c>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
-      <c r="H281" t="inlineStr"/>
-      <c r="I281" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>0xc44b0378e400a9958219ec8f294c23b9976e3c5d</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D282" t="n">
-        <v>13956.00081317907</v>
-      </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="n">
-        <v>5</v>
-      </c>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>2023-10-24</t>
-        </is>
-      </c>
-      <c r="H282" t="inlineStr"/>
-      <c r="I282" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>0x81a06ca0b9e1b47f5bf3037d448a505694faad84</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D283" t="n">
-        <v>13896.03768672427</v>
-      </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="n">
-        <v>7</v>
-      </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>2023-11-21</t>
-        </is>
-      </c>
-      <c r="H283" t="inlineStr"/>
-      <c r="I283" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>0xbc980bb5995f2c1f3c777dff918d21c811a61032</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D284" t="n">
-        <v>13876.40421022591</v>
-      </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="n">
-        <v>7</v>
-      </c>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="H284" t="inlineStr"/>
-      <c r="I284" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>0x8edc96828b04f2cae830db1e0dd5af530b017a98</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D285" t="n">
-        <v>13667.33186079849</v>
-      </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="n">
-        <v>11</v>
-      </c>
-      <c r="G285" t="inlineStr">
-        <is>
-          <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="H285" t="inlineStr"/>
-      <c r="I285" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>0xff679aa5410991a976a9d9461d30e7e5958ce672</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D286" t="n">
-        <v>13325.37970762593</v>
-      </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="n">
-        <v>6</v>
-      </c>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>2024-01-10</t>
-        </is>
-      </c>
-      <c r="H286" t="inlineStr"/>
-      <c r="I286" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>0xd4ec19bf6aec83db501ad4ad82781b640d4e2be7</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D287" t="n">
-        <v>13230.41115636551</v>
-      </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="n">
-        <v>16</v>
-      </c>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
-      <c r="H287" t="inlineStr"/>
-      <c r="I287" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>0xa4bf8f022485bf6d8e2deb70561e712fc874cd42</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D288" t="n">
-        <v>12651.23719192337</v>
-      </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="n">
-        <v>28</v>
-      </c>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>2024-01-03</t>
-        </is>
-      </c>
-      <c r="H288" t="inlineStr"/>
-      <c r="I288" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>0x042ca50b9f24956ffe73e082ec14e8466de4b1c0</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D289" t="n">
-        <v>12035.33782590135</v>
-      </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="n">
-        <v>7</v>
-      </c>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t>2023-11-07</t>
-        </is>
-      </c>
-      <c r="H289" t="inlineStr"/>
-      <c r="I289" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>0x9a06f4041c1b088e536eee53dd8813ee0b9ad62c</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D290" t="n">
-        <v>11812.77933555771</v>
-      </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="n">
-        <v>6</v>
-      </c>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="H290" t="inlineStr"/>
-      <c r="I290" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>0x83cced5006ec03eb01e426ede7ce5abd9b11d664</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D291" t="n">
-        <v>11731.19925312239</v>
-      </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="n">
-        <v>6</v>
-      </c>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t>2023-12-20</t>
-        </is>
-      </c>
-      <c r="H291" t="inlineStr"/>
-      <c r="I291" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>0xb536448700551feae97ac8d3123e735599c1c13b</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D292" t="n">
-        <v>11403.55303848761</v>
-      </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="n">
-        <v>10</v>
-      </c>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="H292" t="inlineStr"/>
-      <c r="I292" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>0x3c634d6b4fccffd3fbc77997edd98951ac344650</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D293" t="n">
-        <v>10735.13517287955</v>
-      </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="n">
-        <v>18</v>
-      </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
-      <c r="H293" t="inlineStr"/>
-      <c r="I293" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>0xd3eb25bef8c34ea489fb301d9d1223b6503407ba</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D294" t="n">
-        <v>10413.1034064622</v>
-      </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="n">
-        <v>4</v>
-      </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>2023-11-07</t>
-        </is>
-      </c>
-      <c r="H294" t="inlineStr"/>
-      <c r="I294" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>0xf1ef188243016897d4fd28412d86b7c3744524a2</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D295" t="n">
-        <v>10299.97833067906</v>
-      </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="n">
-        <v>8</v>
-      </c>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>2023-12-12</t>
-        </is>
-      </c>
-      <c r="H295" t="inlineStr"/>
-      <c r="I295" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>0xeaf69a6edb8cd48eead026d7940f3a534cc4a12e</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D296" t="n">
-        <v>10216.2614838405</v>
-      </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="n">
-        <v>6</v>
-      </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>2023-11-09</t>
-        </is>
-      </c>
-      <c r="H296" t="inlineStr"/>
-      <c r="I296" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>0xb38d3201c3848d815d2b99c1586bb2418fb3ec68</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D297" t="n">
-        <v>10091.3003931166</v>
-      </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="n">
-        <v>5</v>
-      </c>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>2023-11-05</t>
-        </is>
-      </c>
-      <c r="H297" t="inlineStr"/>
-      <c r="I297" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>0x78f7eeb741060a3d0c514a09558e1233af138fb1</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D298" t="n">
-        <v>10080.55369077879</v>
-      </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="n">
-        <v>2</v>
-      </c>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>2023-11-07</t>
-        </is>
-      </c>
-      <c r="H298" t="inlineStr"/>
-      <c r="I298" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>0xfb680c36ccebab9e53403b645fecc148c7ddc2bb</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>LVL Finance</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>bsc</t>
-        </is>
-      </c>
-      <c r="D299" t="n">
-        <v>10048.28210305291</v>
-      </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="n">
-        <v>11</v>
-      </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>2023-10-12</t>
-        </is>
-      </c>
-      <c r="H299" t="inlineStr"/>
-      <c r="I299" t="inlineStr">
         <is>
           <t>active</t>
         </is>
